--- a/Filtered_By_Region/Region X/Region X_LMS.xlsx
+++ b/Filtered_By_Region/Region X/Region X_LMS.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="DropdownOptions" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,9 +17,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,12 +58,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD38"/>
+  <dimension ref="A1:BE38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,6 +719,11 @@
           <t>Provision of Solar Panel</t>
         </is>
       </c>
+      <c r="BE1" t="inlineStr">
+        <is>
+          <t>Status as of July 4, 2025</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -776,7 +782,7 @@
       <c r="N2" t="n">
         <v>0.89</v>
       </c>
-      <c r="O2" s="2" t="n">
+      <c r="O2" s="3" t="n">
         <v>45746</v>
       </c>
       <c r="P2" t="inlineStr">
@@ -794,19 +800,19 @@
           <t>0016-2024</t>
         </is>
       </c>
-      <c r="S2" s="2" t="n">
+      <c r="S2" s="3" t="n">
         <v>45423</v>
       </c>
-      <c r="T2" s="2" t="n">
+      <c r="T2" s="3" t="n">
         <v>45432</v>
       </c>
-      <c r="U2" s="2" t="n">
+      <c r="U2" s="3" t="n">
         <v>45446</v>
       </c>
-      <c r="V2" s="2" t="n">
+      <c r="V2" s="3" t="n">
         <v>45449</v>
       </c>
-      <c r="W2" s="2" t="n">
+      <c r="W2" s="3" t="n">
         <v>45471</v>
       </c>
       <c r="X2" t="inlineStr">
@@ -879,20 +885,12 @@
       <c r="AS2" t="n">
         <v>0</v>
       </c>
-      <c r="AT2" t="inlineStr"/>
       <c r="AU2" t="n">
         <v>1</v>
       </c>
       <c r="AV2" t="n">
         <v>1</v>
       </c>
-      <c r="AW2" t="inlineStr"/>
-      <c r="AX2" t="inlineStr"/>
-      <c r="AY2" t="inlineStr"/>
-      <c r="AZ2" t="inlineStr"/>
-      <c r="BA2" t="inlineStr"/>
-      <c r="BB2" t="inlineStr"/>
-      <c r="BC2" t="inlineStr"/>
       <c r="BD2" t="n">
         <v>1</v>
       </c>
@@ -980,13 +978,13 @@
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U3" s="2" t="n">
+      <c r="U3" s="3" t="n">
         <v>44434</v>
       </c>
-      <c r="V3" s="2" t="n">
+      <c r="V3" s="3" t="n">
         <v>44436</v>
       </c>
-      <c r="W3" s="2" t="n">
+      <c r="W3" s="3" t="n">
         <v>44439</v>
       </c>
       <c r="X3" t="inlineStr">
@@ -1065,18 +1063,11 @@
       <c r="AU3" t="n">
         <v>1</v>
       </c>
-      <c r="AV3" t="inlineStr"/>
-      <c r="AW3" t="inlineStr"/>
-      <c r="AX3" t="inlineStr"/>
-      <c r="AY3" t="inlineStr"/>
-      <c r="AZ3" t="inlineStr"/>
       <c r="BA3" t="inlineStr">
         <is>
           <t>CY 2022</t>
         </is>
       </c>
-      <c r="BB3" t="inlineStr"/>
-      <c r="BC3" t="inlineStr"/>
       <c r="BD3" t="n">
         <v>1</v>
       </c>
@@ -1138,10 +1129,10 @@
       <c r="N4" t="n">
         <v>1</v>
       </c>
-      <c r="O4" s="2" t="n">
+      <c r="O4" s="3" t="n">
         <v>44255</v>
       </c>
-      <c r="P4" s="2" t="n">
+      <c r="P4" s="3" t="n">
         <v>44340</v>
       </c>
       <c r="Q4" t="inlineStr">
@@ -1152,19 +1143,19 @@
       <c r="R4" t="n">
         <v>43831</v>
       </c>
-      <c r="S4" s="2" t="n">
+      <c r="S4" s="3" t="n">
         <v>44062</v>
       </c>
-      <c r="T4" s="2" t="n">
+      <c r="T4" s="3" t="n">
         <v>44070</v>
       </c>
-      <c r="U4" s="2" t="n">
+      <c r="U4" s="3" t="n">
         <v>44095</v>
       </c>
-      <c r="V4" s="2" t="n">
+      <c r="V4" s="3" t="n">
         <v>44116</v>
       </c>
-      <c r="W4" s="2" t="n">
+      <c r="W4" s="3" t="n">
         <v>44158</v>
       </c>
       <c r="X4" t="inlineStr">
@@ -1242,19 +1233,11 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AU4" t="inlineStr"/>
-      <c r="AV4" t="inlineStr"/>
-      <c r="AW4" t="inlineStr"/>
-      <c r="AX4" t="inlineStr"/>
-      <c r="AY4" t="inlineStr"/>
-      <c r="AZ4" t="inlineStr"/>
       <c r="BA4" t="inlineStr">
         <is>
           <t>CY 2022</t>
         </is>
       </c>
-      <c r="BB4" t="inlineStr"/>
-      <c r="BC4" t="inlineStr"/>
       <c r="BD4" t="n">
         <v>0</v>
       </c>
@@ -1425,16 +1408,6 @@
       <c r="AS5" t="n">
         <v>0</v>
       </c>
-      <c r="AT5" t="inlineStr"/>
-      <c r="AU5" t="inlineStr"/>
-      <c r="AV5" t="inlineStr"/>
-      <c r="AW5" t="inlineStr"/>
-      <c r="AX5" t="inlineStr"/>
-      <c r="AY5" t="inlineStr"/>
-      <c r="AZ5" t="inlineStr"/>
-      <c r="BA5" t="inlineStr"/>
-      <c r="BB5" t="inlineStr"/>
-      <c r="BC5" t="inlineStr"/>
       <c r="BD5" t="n">
         <v>0</v>
       </c>
@@ -1605,20 +1578,12 @@
       <c r="AS6" t="n">
         <v>0</v>
       </c>
-      <c r="AT6" t="inlineStr"/>
-      <c r="AU6" t="inlineStr"/>
       <c r="AV6" t="n">
         <v>0</v>
       </c>
       <c r="AW6" t="n">
         <v>1</v>
       </c>
-      <c r="AX6" t="inlineStr"/>
-      <c r="AY6" t="inlineStr"/>
-      <c r="AZ6" t="inlineStr"/>
-      <c r="BA6" t="inlineStr"/>
-      <c r="BB6" t="inlineStr"/>
-      <c r="BC6" t="inlineStr"/>
       <c r="BD6" t="n">
         <v>1</v>
       </c>
@@ -1789,20 +1754,12 @@
       <c r="AS7" t="n">
         <v>0</v>
       </c>
-      <c r="AT7" t="inlineStr"/>
-      <c r="AU7" t="inlineStr"/>
       <c r="AV7" t="n">
         <v>0</v>
       </c>
       <c r="AW7" t="n">
         <v>1</v>
       </c>
-      <c r="AX7" t="inlineStr"/>
-      <c r="AY7" t="inlineStr"/>
-      <c r="AZ7" t="inlineStr"/>
-      <c r="BA7" t="inlineStr"/>
-      <c r="BB7" t="inlineStr"/>
-      <c r="BC7" t="inlineStr"/>
       <c r="BD7" t="n">
         <v>1</v>
       </c>
@@ -1973,20 +1930,12 @@
       <c r="AS8" t="n">
         <v>0</v>
       </c>
-      <c r="AT8" t="inlineStr"/>
-      <c r="AU8" t="inlineStr"/>
       <c r="AV8" t="n">
         <v>0</v>
       </c>
       <c r="AW8" t="n">
         <v>1</v>
       </c>
-      <c r="AX8" t="inlineStr"/>
-      <c r="AY8" t="inlineStr"/>
-      <c r="AZ8" t="inlineStr"/>
-      <c r="BA8" t="inlineStr"/>
-      <c r="BB8" t="inlineStr"/>
-      <c r="BC8" t="inlineStr"/>
       <c r="BD8" t="n">
         <v>1</v>
       </c>
@@ -2157,20 +2106,12 @@
       <c r="AS9" t="n">
         <v>0</v>
       </c>
-      <c r="AT9" t="inlineStr"/>
-      <c r="AU9" t="inlineStr"/>
       <c r="AV9" t="n">
         <v>0</v>
       </c>
       <c r="AW9" t="n">
         <v>1</v>
       </c>
-      <c r="AX9" t="inlineStr"/>
-      <c r="AY9" t="inlineStr"/>
-      <c r="AZ9" t="inlineStr"/>
-      <c r="BA9" t="inlineStr"/>
-      <c r="BB9" t="inlineStr"/>
-      <c r="BC9" t="inlineStr"/>
       <c r="BD9" t="n">
         <v>1</v>
       </c>
@@ -2207,7 +2148,6 @@
       <c r="G10" t="n">
         <v>2</v>
       </c>
-      <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
         <v>2</v>
       </c>
@@ -2339,20 +2279,12 @@
       <c r="AS10" t="n">
         <v>0</v>
       </c>
-      <c r="AT10" t="inlineStr"/>
-      <c r="AU10" t="inlineStr"/>
       <c r="AV10" t="n">
         <v>0</v>
       </c>
       <c r="AW10" t="n">
         <v>0</v>
       </c>
-      <c r="AX10" t="inlineStr"/>
-      <c r="AY10" t="inlineStr"/>
-      <c r="AZ10" t="inlineStr"/>
-      <c r="BA10" t="inlineStr"/>
-      <c r="BB10" t="inlineStr"/>
-      <c r="BC10" t="inlineStr"/>
       <c r="BD10" t="n">
         <v>1</v>
       </c>
@@ -2523,20 +2455,12 @@
       <c r="AS11" t="n">
         <v>0</v>
       </c>
-      <c r="AT11" t="inlineStr"/>
-      <c r="AU11" t="inlineStr"/>
       <c r="AV11" t="n">
         <v>0</v>
       </c>
       <c r="AW11" t="n">
         <v>1</v>
       </c>
-      <c r="AX11" t="inlineStr"/>
-      <c r="AY11" t="inlineStr"/>
-      <c r="AZ11" t="inlineStr"/>
-      <c r="BA11" t="inlineStr"/>
-      <c r="BB11" t="inlineStr"/>
-      <c r="BC11" t="inlineStr"/>
       <c r="BD11" t="n">
         <v>1</v>
       </c>
@@ -2598,10 +2522,10 @@
       <c r="N12" t="n">
         <v>1</v>
       </c>
-      <c r="O12" s="2" t="n">
+      <c r="O12" s="3" t="n">
         <v>45308</v>
       </c>
-      <c r="P12" s="2" t="n">
+      <c r="P12" s="3" t="n">
         <v>45156</v>
       </c>
       <c r="Q12" t="inlineStr">
@@ -2614,19 +2538,19 @@
           <t>2022-12-0327</t>
         </is>
       </c>
-      <c r="S12" s="2" t="n">
+      <c r="S12" s="3" t="n">
         <v>45041</v>
       </c>
-      <c r="T12" s="2" t="n">
+      <c r="T12" s="3" t="n">
         <v>45049</v>
       </c>
-      <c r="U12" s="2" t="n">
+      <c r="U12" s="3" t="n">
         <v>45061</v>
       </c>
-      <c r="V12" s="2" t="n">
+      <c r="V12" s="3" t="n">
         <v>45118</v>
       </c>
-      <c r="W12" s="2" t="n">
+      <c r="W12" s="3" t="n">
         <v>45121</v>
       </c>
       <c r="X12" t="inlineStr">
@@ -2702,21 +2626,14 @@
       <c r="AT12" t="n">
         <v>8.23</v>
       </c>
-      <c r="AU12" t="inlineStr"/>
       <c r="AV12" t="n">
         <v>1</v>
       </c>
-      <c r="AW12" t="inlineStr"/>
-      <c r="AX12" t="inlineStr"/>
-      <c r="AY12" t="inlineStr"/>
-      <c r="AZ12" t="inlineStr"/>
       <c r="BA12" t="inlineStr">
         <is>
           <t>CY 2023</t>
         </is>
       </c>
-      <c r="BB12" t="inlineStr"/>
-      <c r="BC12" t="inlineStr"/>
       <c r="BD12" t="n">
         <v>1</v>
       </c>
@@ -2778,10 +2695,10 @@
       <c r="N13" t="n">
         <v>1</v>
       </c>
-      <c r="O13" s="2" t="n">
+      <c r="O13" s="3" t="n">
         <v>45291</v>
       </c>
-      <c r="P13" s="2" t="n">
+      <c r="P13" s="3" t="n">
         <v>45175</v>
       </c>
       <c r="Q13" t="inlineStr">
@@ -2794,19 +2711,19 @@
           <t>2022-09-0205</t>
         </is>
       </c>
-      <c r="S13" s="2" t="n">
+      <c r="S13" s="3" t="n">
         <v>45041</v>
       </c>
-      <c r="T13" s="2" t="n">
+      <c r="T13" s="3" t="n">
         <v>45049</v>
       </c>
-      <c r="U13" s="2" t="n">
+      <c r="U13" s="3" t="n">
         <v>45061</v>
       </c>
-      <c r="V13" s="2" t="n">
+      <c r="V13" s="3" t="n">
         <v>45114</v>
       </c>
-      <c r="W13" s="2" t="n">
+      <c r="W13" s="3" t="n">
         <v>45134</v>
       </c>
       <c r="X13" t="inlineStr">
@@ -2882,21 +2799,14 @@
       <c r="AT13" t="n">
         <v>8.23</v>
       </c>
-      <c r="AU13" t="inlineStr"/>
       <c r="AV13" t="n">
         <v>1</v>
       </c>
-      <c r="AW13" t="inlineStr"/>
-      <c r="AX13" t="inlineStr"/>
-      <c r="AY13" t="inlineStr"/>
-      <c r="AZ13" t="inlineStr"/>
       <c r="BA13" t="inlineStr">
         <is>
           <t>CY 2023</t>
         </is>
       </c>
-      <c r="BB13" t="inlineStr"/>
-      <c r="BC13" t="inlineStr"/>
       <c r="BD13" t="n">
         <v>1</v>
       </c>
@@ -2958,10 +2868,10 @@
       <c r="N14" t="n">
         <v>1</v>
       </c>
-      <c r="O14" s="2" t="n">
+      <c r="O14" s="3" t="n">
         <v>45086</v>
       </c>
-      <c r="P14" s="2" t="n">
+      <c r="P14" s="3" t="n">
         <v>45087</v>
       </c>
       <c r="Q14" t="inlineStr">
@@ -2972,19 +2882,19 @@
       <c r="R14" t="n">
         <v>44958</v>
       </c>
-      <c r="S14" s="2" t="n">
+      <c r="S14" s="3" t="n">
         <v>44888</v>
       </c>
-      <c r="T14" s="2" t="n">
+      <c r="T14" s="3" t="n">
         <v>44896</v>
       </c>
-      <c r="U14" s="2" t="n">
+      <c r="U14" s="3" t="n">
         <v>44914</v>
       </c>
-      <c r="V14" s="2" t="n">
+      <c r="V14" s="3" t="n">
         <v>44935</v>
       </c>
-      <c r="W14" s="2" t="n">
+      <c r="W14" s="3" t="n">
         <v>44966</v>
       </c>
       <c r="X14" t="inlineStr">
@@ -3060,21 +2970,14 @@
       <c r="AT14" t="n">
         <v>12.23</v>
       </c>
-      <c r="AU14" t="inlineStr"/>
       <c r="AV14" t="n">
         <v>1</v>
       </c>
-      <c r="AW14" t="inlineStr"/>
-      <c r="AX14" t="inlineStr"/>
-      <c r="AY14" t="inlineStr"/>
-      <c r="AZ14" t="inlineStr"/>
       <c r="BA14" t="inlineStr">
         <is>
           <t>CY 2023</t>
         </is>
       </c>
-      <c r="BB14" t="inlineStr"/>
-      <c r="BC14" t="inlineStr"/>
       <c r="BD14" t="n">
         <v>0</v>
       </c>
@@ -3136,10 +3039,10 @@
       <c r="N15" t="n">
         <v>1</v>
       </c>
-      <c r="O15" s="2" t="n">
+      <c r="O15" s="3" t="n">
         <v>45086</v>
       </c>
-      <c r="P15" s="2" t="n">
+      <c r="P15" s="3" t="n">
         <v>45051</v>
       </c>
       <c r="Q15" t="inlineStr">
@@ -3150,19 +3053,19 @@
       <c r="R15" t="n">
         <v>44927</v>
       </c>
-      <c r="S15" s="2" t="n">
+      <c r="S15" s="3" t="n">
         <v>44888</v>
       </c>
-      <c r="T15" s="2" t="n">
+      <c r="T15" s="3" t="n">
         <v>44896</v>
       </c>
-      <c r="U15" s="2" t="n">
+      <c r="U15" s="3" t="n">
         <v>44914</v>
       </c>
-      <c r="V15" s="2" t="n">
+      <c r="V15" s="3" t="n">
         <v>44935</v>
       </c>
-      <c r="W15" s="2" t="n">
+      <c r="W15" s="3" t="n">
         <v>44966</v>
       </c>
       <c r="X15" t="inlineStr">
@@ -3238,23 +3141,17 @@
       <c r="AT15" t="n">
         <v>12.23</v>
       </c>
-      <c r="AU15" t="inlineStr"/>
       <c r="AV15" t="n">
         <v>0</v>
       </c>
       <c r="AW15" t="n">
         <v>1</v>
       </c>
-      <c r="AX15" t="inlineStr"/>
-      <c r="AY15" t="inlineStr"/>
-      <c r="AZ15" t="inlineStr"/>
       <c r="BA15" t="inlineStr">
         <is>
           <t>CY 2023</t>
         </is>
       </c>
-      <c r="BB15" t="inlineStr"/>
-      <c r="BC15" t="inlineStr"/>
       <c r="BD15" t="n">
         <v>0</v>
       </c>
@@ -3316,10 +3213,10 @@
       <c r="N16" t="n">
         <v>1</v>
       </c>
-      <c r="O16" s="2" t="n">
+      <c r="O16" s="3" t="n">
         <v>44931</v>
       </c>
-      <c r="P16" s="2" t="n">
+      <c r="P16" s="3" t="n">
         <v>45260</v>
       </c>
       <c r="Q16" t="inlineStr">
@@ -3330,19 +3227,19 @@
       <c r="R16" t="n">
         <v>44682</v>
       </c>
-      <c r="S16" s="2" t="n">
+      <c r="S16" s="3" t="n">
         <v>44671</v>
       </c>
-      <c r="T16" s="2" t="n">
+      <c r="T16" s="3" t="n">
         <v>44680</v>
       </c>
-      <c r="U16" s="2" t="n">
+      <c r="U16" s="3" t="n">
         <v>44698</v>
       </c>
-      <c r="V16" s="2" t="n">
+      <c r="V16" s="3" t="n">
         <v>44798</v>
       </c>
-      <c r="W16" s="2" t="n">
+      <c r="W16" s="3" t="n">
         <v>44811</v>
       </c>
       <c r="X16" t="inlineStr">
@@ -3418,21 +3315,14 @@
       <c r="AT16" t="n">
         <v>12.23</v>
       </c>
-      <c r="AU16" t="inlineStr"/>
       <c r="AV16" t="n">
         <v>1</v>
       </c>
-      <c r="AW16" t="inlineStr"/>
-      <c r="AX16" t="inlineStr"/>
-      <c r="AY16" t="inlineStr"/>
-      <c r="AZ16" t="inlineStr"/>
       <c r="BA16" t="inlineStr">
         <is>
           <t>CY 2023</t>
         </is>
       </c>
-      <c r="BB16" t="inlineStr"/>
-      <c r="BC16" t="inlineStr"/>
       <c r="BD16" t="n">
         <v>1</v>
       </c>
@@ -3494,31 +3384,30 @@
       <c r="N17" t="n">
         <v>1</v>
       </c>
-      <c r="O17" s="2" t="n">
+      <c r="O17" s="3" t="n">
         <v>45147</v>
       </c>
-      <c r="P17" s="2" t="n">
+      <c r="P17" s="3" t="n">
         <v>45618</v>
       </c>
-      <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
         <is>
           <t>002-2023</t>
         </is>
       </c>
-      <c r="S17" s="2" t="n">
+      <c r="S17" s="3" t="n">
         <v>44860</v>
       </c>
-      <c r="T17" s="2" t="n">
+      <c r="T17" s="3" t="n">
         <v>44868</v>
       </c>
-      <c r="U17" s="2" t="n">
+      <c r="U17" s="3" t="n">
         <v>44880</v>
       </c>
-      <c r="V17" s="2" t="n">
+      <c r="V17" s="3" t="n">
         <v>44909</v>
       </c>
-      <c r="W17" s="2" t="n">
+      <c r="W17" s="3" t="n">
         <v>44956</v>
       </c>
       <c r="X17" t="inlineStr">
@@ -3594,19 +3483,12 @@
       <c r="AT17" t="n">
         <v>10.24</v>
       </c>
-      <c r="AU17" t="inlineStr"/>
       <c r="AV17" t="n">
         <v>0</v>
       </c>
       <c r="AW17" t="n">
         <v>1</v>
       </c>
-      <c r="AX17" t="inlineStr"/>
-      <c r="AY17" t="inlineStr"/>
-      <c r="AZ17" t="inlineStr"/>
-      <c r="BA17" t="inlineStr"/>
-      <c r="BB17" t="inlineStr"/>
-      <c r="BC17" t="inlineStr"/>
       <c r="BD17" t="n">
         <v>1</v>
       </c>
@@ -3668,10 +3550,10 @@
       <c r="N18" t="n">
         <v>1</v>
       </c>
-      <c r="O18" s="2" t="n">
+      <c r="O18" s="3" t="n">
         <v>44991</v>
       </c>
-      <c r="P18" s="2" t="n">
+      <c r="P18" s="3" t="n">
         <v>45477</v>
       </c>
       <c r="Q18" t="inlineStr">
@@ -3684,19 +3566,19 @@
           <t>013-2022</t>
         </is>
       </c>
-      <c r="S18" s="2" t="n">
+      <c r="S18" s="3" t="n">
         <v>44707</v>
       </c>
-      <c r="T18" s="2" t="n">
+      <c r="T18" s="3" t="n">
         <v>44715</v>
       </c>
-      <c r="U18" s="2" t="n">
+      <c r="U18" s="3" t="n">
         <v>44727</v>
       </c>
-      <c r="V18" s="2" t="n">
+      <c r="V18" s="3" t="n">
         <v>44756</v>
       </c>
-      <c r="W18" s="2" t="n">
+      <c r="W18" s="3" t="n">
         <v>44833</v>
       </c>
       <c r="X18" t="inlineStr">
@@ -3772,17 +3654,9 @@
       <c r="AT18" t="n">
         <v>7.24</v>
       </c>
-      <c r="AU18" t="inlineStr"/>
       <c r="AV18" t="n">
         <v>1</v>
       </c>
-      <c r="AW18" t="inlineStr"/>
-      <c r="AX18" t="inlineStr"/>
-      <c r="AY18" t="inlineStr"/>
-      <c r="AZ18" t="inlineStr"/>
-      <c r="BA18" t="inlineStr"/>
-      <c r="BB18" t="inlineStr"/>
-      <c r="BC18" t="inlineStr"/>
       <c r="BD18" t="n">
         <v>1</v>
       </c>
@@ -3844,10 +3718,10 @@
       <c r="N19" t="n">
         <v>1</v>
       </c>
-      <c r="O19" s="2" t="n">
+      <c r="O19" s="3" t="n">
         <v>45115</v>
       </c>
-      <c r="P19" s="2" t="n">
+      <c r="P19" s="3" t="n">
         <v>45184</v>
       </c>
       <c r="Q19" t="inlineStr">
@@ -3860,19 +3734,19 @@
           <t>001-2023</t>
         </is>
       </c>
-      <c r="S19" s="2" t="n">
+      <c r="S19" s="3" t="n">
         <v>44860</v>
       </c>
-      <c r="T19" s="2" t="n">
+      <c r="T19" s="3" t="n">
         <v>44868</v>
       </c>
-      <c r="U19" s="2" t="n">
+      <c r="U19" s="3" t="n">
         <v>44880</v>
       </c>
-      <c r="V19" s="2" t="n">
+      <c r="V19" s="3" t="n">
         <v>44908</v>
       </c>
-      <c r="W19" s="2" t="n">
+      <c r="W19" s="3" t="n">
         <v>44953</v>
       </c>
       <c r="X19" t="inlineStr">
@@ -3948,21 +3822,14 @@
       <c r="AT19" t="n">
         <v>1.24</v>
       </c>
-      <c r="AU19" t="inlineStr"/>
       <c r="AV19" t="n">
         <v>1</v>
       </c>
-      <c r="AW19" t="inlineStr"/>
-      <c r="AX19" t="inlineStr"/>
-      <c r="AY19" t="inlineStr"/>
-      <c r="AZ19" t="inlineStr"/>
       <c r="BA19" t="inlineStr">
         <is>
           <t>CY 2024</t>
         </is>
       </c>
-      <c r="BB19" t="inlineStr"/>
-      <c r="BC19" t="inlineStr"/>
       <c r="BD19" t="n">
         <v>1</v>
       </c>
@@ -4024,10 +3891,10 @@
       <c r="N20" t="n">
         <v>1</v>
       </c>
-      <c r="O20" s="2" t="n">
+      <c r="O20" s="3" t="n">
         <v>45028</v>
       </c>
-      <c r="P20" s="2" t="n">
+      <c r="P20" s="3" t="n">
         <v>45118</v>
       </c>
       <c r="Q20" t="inlineStr">
@@ -4035,20 +3902,19 @@
           <t>PB-Infra 2022-001</t>
         </is>
       </c>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" s="2" t="n">
+      <c r="S20" s="3" t="n">
         <v>44783</v>
       </c>
-      <c r="T20" s="2" t="n">
+      <c r="T20" s="3" t="n">
         <v>44783</v>
       </c>
-      <c r="U20" s="2" t="n">
+      <c r="U20" s="3" t="n">
         <v>44803</v>
       </c>
-      <c r="V20" s="2" t="n">
+      <c r="V20" s="3" t="n">
         <v>44826</v>
       </c>
-      <c r="W20" s="2" t="n">
+      <c r="W20" s="3" t="n">
         <v>44892</v>
       </c>
       <c r="X20" t="inlineStr">
@@ -4132,17 +3998,11 @@
       <c r="AV20" t="n">
         <v>1</v>
       </c>
-      <c r="AW20" t="inlineStr"/>
-      <c r="AX20" t="inlineStr"/>
-      <c r="AY20" t="inlineStr"/>
-      <c r="AZ20" t="inlineStr"/>
       <c r="BA20" t="inlineStr">
         <is>
           <t>CY 2024</t>
         </is>
       </c>
-      <c r="BB20" t="inlineStr"/>
-      <c r="BC20" t="inlineStr"/>
       <c r="BD20" t="n">
         <v>1</v>
       </c>
@@ -4204,10 +4064,10 @@
       <c r="N21" t="n">
         <v>1</v>
       </c>
-      <c r="O21" s="2" t="n">
+      <c r="O21" s="3" t="n">
         <v>45447</v>
       </c>
-      <c r="P21" s="2" t="n">
+      <c r="P21" s="3" t="n">
         <v>45442</v>
       </c>
       <c r="Q21" t="inlineStr">
@@ -4218,19 +4078,19 @@
       <c r="R21" t="n">
         <v>44927</v>
       </c>
-      <c r="S21" s="2" t="n">
+      <c r="S21" s="3" t="n">
         <v>45135</v>
       </c>
-      <c r="T21" s="2" t="n">
+      <c r="T21" s="3" t="n">
         <v>45145</v>
       </c>
-      <c r="U21" s="2" t="n">
+      <c r="U21" s="3" t="n">
         <v>45160</v>
       </c>
-      <c r="V21" s="2" t="n">
+      <c r="V21" s="3" t="n">
         <v>45170</v>
       </c>
-      <c r="W21" s="2" t="n">
+      <c r="W21" s="3" t="n">
         <v>45267</v>
       </c>
       <c r="X21" t="inlineStr">
@@ -4317,14 +4177,9 @@
       <c r="AW21" t="n">
         <v>1</v>
       </c>
-      <c r="AX21" t="inlineStr"/>
-      <c r="AY21" t="inlineStr"/>
-      <c r="AZ21" t="inlineStr"/>
-      <c r="BA21" t="inlineStr"/>
       <c r="BB21" t="n">
         <v>1</v>
       </c>
-      <c r="BC21" t="inlineStr"/>
       <c r="BD21" t="n">
         <v>1</v>
       </c>
@@ -4386,10 +4241,10 @@
       <c r="N22" t="n">
         <v>1</v>
       </c>
-      <c r="O22" s="2" t="n">
+      <c r="O22" s="3" t="n">
         <v>45736</v>
       </c>
-      <c r="P22" s="2" t="n">
+      <c r="P22" s="3" t="n">
         <v>45736</v>
       </c>
       <c r="Q22" t="inlineStr">
@@ -4400,19 +4255,19 @@
       <c r="R22" t="n">
         <v>45536</v>
       </c>
-      <c r="S22" s="2" t="n">
+      <c r="S22" s="3" t="n">
         <v>45449</v>
       </c>
-      <c r="T22" s="2" t="n">
+      <c r="T22" s="3" t="n">
         <v>45457</v>
       </c>
-      <c r="U22" s="2" t="n">
+      <c r="U22" s="3" t="n">
         <v>45478</v>
       </c>
-      <c r="V22" s="2" t="n">
+      <c r="V22" s="3" t="n">
         <v>45509</v>
       </c>
-      <c r="W22" s="2" t="n">
+      <c r="W22" s="3" t="n">
         <v>45530</v>
       </c>
       <c r="X22" t="inlineStr">
@@ -4499,14 +4354,9 @@
       <c r="AW22" t="n">
         <v>1</v>
       </c>
-      <c r="AX22" t="inlineStr"/>
-      <c r="AY22" t="inlineStr"/>
-      <c r="AZ22" t="inlineStr"/>
-      <c r="BA22" t="inlineStr"/>
       <c r="BB22" t="n">
         <v>1</v>
       </c>
-      <c r="BC22" t="inlineStr"/>
       <c r="BD22" t="n">
         <v>1</v>
       </c>
@@ -4568,7 +4418,7 @@
       <c r="N23" t="n">
         <v>0.95</v>
       </c>
-      <c r="O23" s="2" t="n">
+      <c r="O23" s="3" t="n">
         <v>45404</v>
       </c>
       <c r="P23" t="inlineStr">
@@ -4586,19 +4436,19 @@
           <t>016-2023</t>
         </is>
       </c>
-      <c r="S23" s="2" t="n">
+      <c r="S23" s="3" t="n">
         <v>45140</v>
       </c>
-      <c r="T23" s="2" t="n">
+      <c r="T23" s="3" t="n">
         <v>45148</v>
       </c>
-      <c r="U23" s="2" t="n">
+      <c r="U23" s="3" t="n">
         <v>45163</v>
       </c>
-      <c r="V23" s="2" t="n">
+      <c r="V23" s="3" t="n">
         <v>45175</v>
       </c>
-      <c r="W23" s="2" t="n">
+      <c r="W23" s="3" t="n">
         <v>45216</v>
       </c>
       <c r="X23" t="inlineStr">
@@ -4671,7 +4521,6 @@
       <c r="AS23" t="n">
         <v>0</v>
       </c>
-      <c r="AT23" t="inlineStr"/>
       <c r="AU23" t="inlineStr">
         <is>
           <t>-</t>
@@ -4683,14 +4532,9 @@
       <c r="AW23" t="n">
         <v>1</v>
       </c>
-      <c r="AX23" t="inlineStr"/>
-      <c r="AY23" t="inlineStr"/>
-      <c r="AZ23" t="inlineStr"/>
-      <c r="BA23" t="inlineStr"/>
       <c r="BB23" t="n">
         <v>1</v>
       </c>
-      <c r="BC23" t="inlineStr"/>
       <c r="BD23" t="n">
         <v>1</v>
       </c>
@@ -4752,10 +4596,10 @@
       <c r="N24" t="n">
         <v>1</v>
       </c>
-      <c r="O24" s="2" t="n">
+      <c r="O24" s="3" t="n">
         <v>45418</v>
       </c>
-      <c r="P24" s="2" t="n">
+      <c r="P24" s="3" t="n">
         <v>45456</v>
       </c>
       <c r="Q24" t="inlineStr">
@@ -4768,19 +4612,19 @@
           <t>017-2023</t>
         </is>
       </c>
-      <c r="S24" s="2" t="n">
+      <c r="S24" s="3" t="n">
         <v>45140</v>
       </c>
-      <c r="T24" s="2" t="n">
+      <c r="T24" s="3" t="n">
         <v>45148</v>
       </c>
-      <c r="U24" s="2" t="n">
+      <c r="U24" s="3" t="n">
         <v>45163</v>
       </c>
-      <c r="V24" s="2" t="n">
+      <c r="V24" s="3" t="n">
         <v>45175</v>
       </c>
-      <c r="W24" s="2" t="n">
+      <c r="W24" s="3" t="n">
         <v>45238</v>
       </c>
       <c r="X24" t="inlineStr">
@@ -4867,14 +4711,9 @@
       <c r="AW24" t="n">
         <v>1</v>
       </c>
-      <c r="AX24" t="inlineStr"/>
-      <c r="AY24" t="inlineStr"/>
-      <c r="AZ24" t="inlineStr"/>
-      <c r="BA24" t="inlineStr"/>
       <c r="BB24" t="n">
         <v>1</v>
       </c>
-      <c r="BC24" t="inlineStr"/>
       <c r="BD24" t="n">
         <v>1</v>
       </c>
@@ -4936,10 +4775,10 @@
       <c r="N25" t="n">
         <v>1</v>
       </c>
-      <c r="O25" s="2" t="n">
+      <c r="O25" s="3" t="n">
         <v>45416</v>
       </c>
-      <c r="P25" s="2" t="n">
+      <c r="P25" s="3" t="n">
         <v>45641</v>
       </c>
       <c r="Q25" t="inlineStr">
@@ -4970,7 +4809,7 @@
           <t>July 27,2023</t>
         </is>
       </c>
-      <c r="W25" s="2" t="n">
+      <c r="W25" s="3" t="n">
         <v>45289</v>
       </c>
       <c r="X25" t="inlineStr">
@@ -5057,14 +4896,9 @@
       <c r="AW25" t="n">
         <v>1</v>
       </c>
-      <c r="AX25" t="inlineStr"/>
-      <c r="AY25" t="inlineStr"/>
-      <c r="AZ25" t="inlineStr"/>
-      <c r="BA25" t="inlineStr"/>
       <c r="BB25" t="n">
         <v>1</v>
       </c>
-      <c r="BC25" t="inlineStr"/>
       <c r="BD25" t="n">
         <v>1</v>
       </c>
@@ -5148,19 +4982,19 @@
           <t>012-2024</t>
         </is>
       </c>
-      <c r="S26" s="2" t="n">
+      <c r="S26" s="3" t="n">
         <v>45256</v>
       </c>
-      <c r="T26" s="2" t="n">
+      <c r="T26" s="3" t="n">
         <v>45264</v>
       </c>
-      <c r="U26" s="2" t="n">
+      <c r="U26" s="3" t="n">
         <v>45278</v>
       </c>
-      <c r="V26" s="2" t="n">
+      <c r="V26" s="3" t="n">
         <v>45287</v>
       </c>
-      <c r="W26" s="2" t="n">
+      <c r="W26" s="3" t="n">
         <v>45432</v>
       </c>
       <c r="X26" t="inlineStr">
@@ -5233,15 +5067,6 @@
       <c r="AS26" t="n">
         <v>0</v>
       </c>
-      <c r="AT26" t="inlineStr"/>
-      <c r="AU26" t="inlineStr"/>
-      <c r="AV26" t="inlineStr"/>
-      <c r="AW26" t="inlineStr"/>
-      <c r="AX26" t="inlineStr"/>
-      <c r="AY26" t="inlineStr"/>
-      <c r="AZ26" t="inlineStr"/>
-      <c r="BA26" t="inlineStr"/>
-      <c r="BB26" t="inlineStr"/>
       <c r="BC26" t="inlineStr">
         <is>
           <t>1st</t>
@@ -5285,7 +5110,6 @@
           <t xml:space="preserve">2nd </t>
         </is>
       </c>
-      <c r="H27" t="inlineStr"/>
       <c r="I27" t="n">
         <v>2</v>
       </c>
@@ -5328,19 +5152,19 @@
           <t>012-2024</t>
         </is>
       </c>
-      <c r="S27" s="2" t="n">
+      <c r="S27" s="3" t="n">
         <v>45256</v>
       </c>
-      <c r="T27" s="2" t="n">
+      <c r="T27" s="3" t="n">
         <v>45264</v>
       </c>
-      <c r="U27" s="2" t="n">
+      <c r="U27" s="3" t="n">
         <v>45278</v>
       </c>
-      <c r="V27" s="2" t="n">
+      <c r="V27" s="3" t="n">
         <v>45287</v>
       </c>
-      <c r="W27" s="2" t="n">
+      <c r="W27" s="3" t="n">
         <v>45432</v>
       </c>
       <c r="X27" t="inlineStr">
@@ -5413,15 +5237,6 @@
       <c r="AS27" t="n">
         <v>0.09999999999999998</v>
       </c>
-      <c r="AT27" t="inlineStr"/>
-      <c r="AU27" t="inlineStr"/>
-      <c r="AV27" t="inlineStr"/>
-      <c r="AW27" t="inlineStr"/>
-      <c r="AX27" t="inlineStr"/>
-      <c r="AY27" t="inlineStr"/>
-      <c r="AZ27" t="inlineStr"/>
-      <c r="BA27" t="inlineStr"/>
-      <c r="BB27" t="inlineStr"/>
       <c r="BC27" t="inlineStr">
         <is>
           <t>1st</t>
@@ -5490,10 +5305,10 @@
       <c r="N28" t="n">
         <v>1</v>
       </c>
-      <c r="O28" s="2" t="n">
+      <c r="O28" s="3" t="n">
         <v>45580</v>
       </c>
-      <c r="P28" s="2" t="n">
+      <c r="P28" s="3" t="n">
         <v>45608</v>
       </c>
       <c r="Q28" t="inlineStr">
@@ -5506,19 +5321,19 @@
           <t>2024-02-0002</t>
         </is>
       </c>
-      <c r="S28" s="2" t="n">
+      <c r="S28" s="3" t="n">
         <v>45295</v>
       </c>
-      <c r="T28" s="2" t="n">
+      <c r="T28" s="3" t="n">
         <v>45314</v>
       </c>
-      <c r="U28" s="2" t="n">
+      <c r="U28" s="3" t="n">
         <v>45329</v>
       </c>
-      <c r="V28" s="2" t="n">
+      <c r="V28" s="3" t="n">
         <v>45420</v>
       </c>
-      <c r="W28" s="2" t="n">
+      <c r="W28" s="3" t="n">
         <v>45433</v>
       </c>
       <c r="X28" t="inlineStr">
@@ -5594,14 +5409,6 @@
       <c r="AT28" t="n">
         <v>12.24</v>
       </c>
-      <c r="AU28" t="inlineStr"/>
-      <c r="AV28" t="inlineStr"/>
-      <c r="AW28" t="inlineStr"/>
-      <c r="AX28" t="inlineStr"/>
-      <c r="AY28" t="inlineStr"/>
-      <c r="AZ28" t="inlineStr"/>
-      <c r="BA28" t="inlineStr"/>
-      <c r="BB28" t="inlineStr"/>
       <c r="BC28" t="inlineStr">
         <is>
           <t>1st</t>
@@ -5670,7 +5477,7 @@
       <c r="N29" t="n">
         <v>0.5</v>
       </c>
-      <c r="O29" s="2" t="n">
+      <c r="O29" s="3" t="n">
         <v>45802</v>
       </c>
       <c r="P29" t="inlineStr">
@@ -5688,19 +5495,19 @@
           <t>BMB-F-24-0000862</t>
         </is>
       </c>
-      <c r="S29" s="2" t="n">
+      <c r="S29" s="3" t="n">
         <v>45233</v>
       </c>
-      <c r="T29" s="2" t="n">
+      <c r="T29" s="3" t="n">
         <v>45240</v>
       </c>
-      <c r="U29" s="2" t="n">
+      <c r="U29" s="3" t="n">
         <v>45251</v>
       </c>
-      <c r="V29" s="2" t="n">
+      <c r="V29" s="3" t="n">
         <v>45433</v>
       </c>
-      <c r="W29" s="2" t="n">
+      <c r="W29" s="3" t="n">
         <v>45446</v>
       </c>
       <c r="X29" t="inlineStr">
@@ -5773,15 +5580,6 @@
       <c r="AS29" t="n">
         <v>0</v>
       </c>
-      <c r="AT29" t="inlineStr"/>
-      <c r="AU29" t="inlineStr"/>
-      <c r="AV29" t="inlineStr"/>
-      <c r="AW29" t="inlineStr"/>
-      <c r="AX29" t="inlineStr"/>
-      <c r="AY29" t="inlineStr"/>
-      <c r="AZ29" t="inlineStr"/>
-      <c r="BA29" t="inlineStr"/>
-      <c r="BB29" t="inlineStr"/>
       <c r="BC29" t="inlineStr">
         <is>
           <t>1st</t>
@@ -5850,10 +5648,10 @@
       <c r="N30" t="n">
         <v>1</v>
       </c>
-      <c r="O30" s="2" t="n">
+      <c r="O30" s="3" t="n">
         <v>45667</v>
       </c>
-      <c r="P30" s="2" t="n">
+      <c r="P30" s="3" t="n">
         <v>45700</v>
       </c>
       <c r="Q30" t="inlineStr">
@@ -5866,19 +5664,19 @@
           <t>INFRA-2023-11-03</t>
         </is>
       </c>
-      <c r="S30" s="2" t="n">
+      <c r="S30" s="3" t="n">
         <v>45258</v>
       </c>
-      <c r="T30" s="2" t="n">
+      <c r="T30" s="3" t="n">
         <v>45266</v>
       </c>
-      <c r="U30" s="2" t="n">
+      <c r="U30" s="3" t="n">
         <v>45280</v>
       </c>
-      <c r="V30" s="2" t="n">
+      <c r="V30" s="3" t="n">
         <v>45317</v>
       </c>
-      <c r="W30" s="2" t="n">
+      <c r="W30" s="3" t="n">
         <v>45443</v>
       </c>
       <c r="X30" t="inlineStr">
@@ -5954,14 +5752,6 @@
       <c r="AT30" t="n">
         <v>2.25</v>
       </c>
-      <c r="AU30" t="inlineStr"/>
-      <c r="AV30" t="inlineStr"/>
-      <c r="AW30" t="inlineStr"/>
-      <c r="AX30" t="inlineStr"/>
-      <c r="AY30" t="inlineStr"/>
-      <c r="AZ30" t="inlineStr"/>
-      <c r="BA30" t="inlineStr"/>
-      <c r="BB30" t="inlineStr"/>
       <c r="BC30" t="inlineStr">
         <is>
           <t>1st</t>
@@ -6008,7 +5798,6 @@
       <c r="H31" t="n">
         <v>1</v>
       </c>
-      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr">
         <is>
           <t xml:space="preserve">CONSTRUCTION OF SCHOOL BUILDING (WITH TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, WATER SYSTEM AND FLOOD MARKER </t>
@@ -6028,7 +5817,7 @@
       <c r="N31" t="n">
         <v>0.9</v>
       </c>
-      <c r="O31" s="2" t="n">
+      <c r="O31" s="3" t="n">
         <v>45754</v>
       </c>
       <c r="P31" t="inlineStr">
@@ -6046,19 +5835,19 @@
           <t>003-INFRA-2023</t>
         </is>
       </c>
-      <c r="S31" s="2" t="n">
+      <c r="S31" s="3" t="n">
         <v>45259</v>
       </c>
-      <c r="T31" s="2" t="n">
+      <c r="T31" s="3" t="n">
         <v>45267</v>
       </c>
-      <c r="U31" s="2" t="n">
+      <c r="U31" s="3" t="n">
         <v>45279</v>
       </c>
-      <c r="V31" s="2" t="n">
+      <c r="V31" s="3" t="n">
         <v>45279</v>
       </c>
-      <c r="W31" s="2" t="n">
+      <c r="W31" s="3" t="n">
         <v>45544</v>
       </c>
       <c r="X31" t="inlineStr">
@@ -6131,15 +5920,6 @@
       <c r="AS31" t="n">
         <v>0.05000000000000004</v>
       </c>
-      <c r="AT31" t="inlineStr"/>
-      <c r="AU31" t="inlineStr"/>
-      <c r="AV31" t="inlineStr"/>
-      <c r="AW31" t="inlineStr"/>
-      <c r="AX31" t="inlineStr"/>
-      <c r="AY31" t="inlineStr"/>
-      <c r="AZ31" t="inlineStr"/>
-      <c r="BA31" t="inlineStr"/>
-      <c r="BB31" t="inlineStr"/>
       <c r="BC31" t="inlineStr">
         <is>
           <t>1st</t>
@@ -6208,7 +5988,7 @@
       <c r="N32" t="n">
         <v>0.95</v>
       </c>
-      <c r="O32" s="2" t="n">
+      <c r="O32" s="3" t="n">
         <v>45370</v>
       </c>
       <c r="P32" t="inlineStr">
@@ -6226,19 +6006,19 @@
           <t>011-2024</t>
         </is>
       </c>
-      <c r="S32" s="2" t="n">
+      <c r="S32" s="3" t="n">
         <v>45307</v>
       </c>
-      <c r="T32" s="2" t="n">
+      <c r="T32" s="3" t="n">
         <v>45315</v>
       </c>
-      <c r="U32" s="2" t="n">
+      <c r="U32" s="3" t="n">
         <v>45327</v>
       </c>
-      <c r="V32" s="2" t="n">
+      <c r="V32" s="3" t="n">
         <v>45375</v>
       </c>
-      <c r="W32" s="2" t="n">
+      <c r="W32" s="3" t="n">
         <v>45495</v>
       </c>
       <c r="X32" t="inlineStr">
@@ -6311,15 +6091,6 @@
       <c r="AS32" t="n">
         <v>0.09999999999999998</v>
       </c>
-      <c r="AT32" t="inlineStr"/>
-      <c r="AU32" t="inlineStr"/>
-      <c r="AV32" t="inlineStr"/>
-      <c r="AW32" t="inlineStr"/>
-      <c r="AX32" t="inlineStr"/>
-      <c r="AY32" t="inlineStr"/>
-      <c r="AZ32" t="inlineStr"/>
-      <c r="BA32" t="inlineStr"/>
-      <c r="BB32" t="inlineStr"/>
       <c r="BC32" t="inlineStr">
         <is>
           <t>2nd</t>
@@ -6388,10 +6159,10 @@
       <c r="N33" t="n">
         <v>1</v>
       </c>
-      <c r="O33" s="2" t="n">
+      <c r="O33" s="3" t="n">
         <v>45613</v>
       </c>
-      <c r="P33" s="2" t="n">
+      <c r="P33" s="3" t="n">
         <v>45644</v>
       </c>
       <c r="Q33" t="inlineStr">
@@ -6402,19 +6173,19 @@
       <c r="R33" t="n">
         <v>4919317</v>
       </c>
-      <c r="S33" s="2" t="n">
+      <c r="S33" s="3" t="n">
         <v>45308</v>
       </c>
-      <c r="T33" s="2" t="n">
+      <c r="T33" s="3" t="n">
         <v>45315</v>
       </c>
-      <c r="U33" s="2" t="n">
+      <c r="U33" s="3" t="n">
         <v>45327</v>
       </c>
-      <c r="V33" s="2" t="n">
+      <c r="V33" s="3" t="n">
         <v>45343</v>
       </c>
-      <c r="W33" s="2" t="n">
+      <c r="W33" s="3" t="n">
         <v>45456</v>
       </c>
       <c r="X33" t="inlineStr">
@@ -6490,14 +6261,6 @@
       <c r="AT33" t="n">
         <v>2.25</v>
       </c>
-      <c r="AU33" t="inlineStr"/>
-      <c r="AV33" t="inlineStr"/>
-      <c r="AW33" t="inlineStr"/>
-      <c r="AX33" t="inlineStr"/>
-      <c r="AY33" t="inlineStr"/>
-      <c r="AZ33" t="inlineStr"/>
-      <c r="BA33" t="inlineStr"/>
-      <c r="BB33" t="inlineStr"/>
       <c r="BC33" t="inlineStr">
         <is>
           <t>1st</t>
@@ -6566,10 +6329,10 @@
       <c r="N34" t="n">
         <v>1</v>
       </c>
-      <c r="O34" s="2" t="n">
+      <c r="O34" s="3" t="n">
         <v>45613</v>
       </c>
-      <c r="P34" s="2" t="n">
+      <c r="P34" s="3" t="n">
         <v>45736</v>
       </c>
       <c r="Q34" t="inlineStr">
@@ -6580,19 +6343,19 @@
       <c r="R34" t="n">
         <v>4919350</v>
       </c>
-      <c r="S34" s="2" t="n">
+      <c r="S34" s="3" t="n">
         <v>45308</v>
       </c>
-      <c r="T34" s="2" t="n">
+      <c r="T34" s="3" t="n">
         <v>45315</v>
       </c>
-      <c r="U34" s="2" t="n">
+      <c r="U34" s="3" t="n">
         <v>45327</v>
       </c>
-      <c r="V34" s="2" t="n">
+      <c r="V34" s="3" t="n">
         <v>45343</v>
       </c>
-      <c r="W34" s="2" t="n">
+      <c r="W34" s="3" t="n">
         <v>45456</v>
       </c>
       <c r="X34" t="inlineStr">
@@ -6668,14 +6431,6 @@
       <c r="AT34" t="n">
         <v>4.25</v>
       </c>
-      <c r="AU34" t="inlineStr"/>
-      <c r="AV34" t="inlineStr"/>
-      <c r="AW34" t="inlineStr"/>
-      <c r="AX34" t="inlineStr"/>
-      <c r="AY34" t="inlineStr"/>
-      <c r="AZ34" t="inlineStr"/>
-      <c r="BA34" t="inlineStr"/>
-      <c r="BB34" t="inlineStr"/>
       <c r="BC34" t="inlineStr">
         <is>
           <t>2nd</t>
@@ -6744,27 +6499,25 @@
       <c r="N35" t="n">
         <v>1</v>
       </c>
-      <c r="O35" s="2" t="n">
+      <c r="O35" s="3" t="n">
         <v>45575</v>
       </c>
-      <c r="P35" s="2" t="n">
+      <c r="P35" s="3" t="n">
         <v>45635</v>
       </c>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" s="2" t="n">
+      <c r="S35" s="3" t="n">
         <v>45619</v>
       </c>
-      <c r="T35" s="2" t="n">
+      <c r="T35" s="3" t="n">
         <v>45626</v>
       </c>
-      <c r="U35" s="2" t="n">
+      <c r="U35" s="3" t="n">
         <v>45274</v>
       </c>
-      <c r="V35" s="2" t="n">
+      <c r="V35" s="3" t="n">
         <v>45415</v>
       </c>
-      <c r="W35" s="2" t="n">
+      <c r="W35" s="3" t="n">
         <v>45422</v>
       </c>
       <c r="X35" t="inlineStr">
@@ -6840,14 +6593,6 @@
       <c r="AT35" t="n">
         <v>2.25</v>
       </c>
-      <c r="AU35" t="inlineStr"/>
-      <c r="AV35" t="inlineStr"/>
-      <c r="AW35" t="inlineStr"/>
-      <c r="AX35" t="inlineStr"/>
-      <c r="AY35" t="inlineStr"/>
-      <c r="AZ35" t="inlineStr"/>
-      <c r="BA35" t="inlineStr"/>
-      <c r="BB35" t="inlineStr"/>
       <c r="BC35" t="inlineStr">
         <is>
           <t>2nd</t>
@@ -6916,10 +6661,10 @@
       <c r="N36" t="n">
         <v>1</v>
       </c>
-      <c r="O36" s="2" t="n">
+      <c r="O36" s="3" t="n">
         <v>45625</v>
       </c>
-      <c r="P36" s="2" t="n">
+      <c r="P36" s="3" t="n">
         <v>45655</v>
       </c>
       <c r="Q36" t="inlineStr">
@@ -6932,19 +6677,19 @@
           <t>092-CIVIL 2023-003 (EPA)</t>
         </is>
       </c>
-      <c r="S36" s="2" t="n">
+      <c r="S36" s="3" t="n">
         <v>45252</v>
       </c>
-      <c r="T36" s="2" t="n">
+      <c r="T36" s="3" t="n">
         <v>45259</v>
       </c>
-      <c r="U36" s="2" t="n">
+      <c r="U36" s="3" t="n">
         <v>45275</v>
       </c>
-      <c r="V36" s="2" t="n">
+      <c r="V36" s="3" t="n">
         <v>45293</v>
       </c>
-      <c r="W36" s="2" t="n">
+      <c r="W36" s="3" t="n">
         <v>45470</v>
       </c>
       <c r="X36" t="inlineStr">
@@ -7020,14 +6765,6 @@
       <c r="AT36" t="n">
         <v>12.24</v>
       </c>
-      <c r="AU36" t="inlineStr"/>
-      <c r="AV36" t="inlineStr"/>
-      <c r="AW36" t="inlineStr"/>
-      <c r="AX36" t="inlineStr"/>
-      <c r="AY36" t="inlineStr"/>
-      <c r="AZ36" t="inlineStr"/>
-      <c r="BA36" t="inlineStr"/>
-      <c r="BB36" t="inlineStr"/>
       <c r="BC36" t="inlineStr">
         <is>
           <t>3rd</t>
@@ -7096,10 +6833,10 @@
       <c r="N37" t="n">
         <v>1</v>
       </c>
-      <c r="O37" s="2" t="n">
+      <c r="O37" s="3" t="n">
         <v>45652</v>
       </c>
-      <c r="P37" s="2" t="n">
+      <c r="P37" s="3" t="n">
         <v>45691</v>
       </c>
       <c r="Q37" t="inlineStr">
@@ -7107,20 +6844,19 @@
           <t>LMS 2023-Region X-Tangub 001</t>
         </is>
       </c>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" s="2" t="n">
+      <c r="S37" s="3" t="n">
         <v>45619</v>
       </c>
-      <c r="T37" s="2" t="n">
+      <c r="T37" s="3" t="n">
         <v>45626</v>
       </c>
-      <c r="U37" s="2" t="n">
+      <c r="U37" s="3" t="n">
         <v>45272</v>
       </c>
-      <c r="V37" s="2" t="n">
+      <c r="V37" s="3" t="n">
         <v>45280</v>
       </c>
-      <c r="W37" s="2" t="n">
+      <c r="W37" s="3" t="n">
         <v>45477</v>
       </c>
       <c r="X37" t="inlineStr">
@@ -7196,14 +6932,6 @@
       <c r="AT37" t="n">
         <v>3.25</v>
       </c>
-      <c r="AU37" t="inlineStr"/>
-      <c r="AV37" t="inlineStr"/>
-      <c r="AW37" t="inlineStr"/>
-      <c r="AX37" t="inlineStr"/>
-      <c r="AY37" t="inlineStr"/>
-      <c r="AZ37" t="inlineStr"/>
-      <c r="BA37" t="inlineStr"/>
-      <c r="BB37" t="inlineStr"/>
       <c r="BC37" t="inlineStr">
         <is>
           <t>5th</t>
@@ -7272,7 +7000,7 @@
       <c r="N38" t="n">
         <v>0.24</v>
       </c>
-      <c r="O38" s="2" t="n">
+      <c r="O38" s="3" t="n">
         <v>45940</v>
       </c>
       <c r="P38" t="inlineStr">
@@ -7288,19 +7016,19 @@
           <t>009 s. 2024</t>
         </is>
       </c>
-      <c r="S38" s="2" t="n">
+      <c r="S38" s="3" t="n">
         <v>45446</v>
       </c>
-      <c r="T38" s="2" t="n">
+      <c r="T38" s="3" t="n">
         <v>45324</v>
       </c>
-      <c r="U38" s="2" t="n">
+      <c r="U38" s="3" t="n">
         <v>45338</v>
       </c>
-      <c r="V38" s="2" t="n">
+      <c r="V38" s="3" t="n">
         <v>45362</v>
       </c>
-      <c r="W38" s="2" t="n">
+      <c r="W38" s="3" t="n">
         <v>45439</v>
       </c>
       <c r="X38" t="inlineStr">
@@ -7373,15 +7101,6 @@
       <c r="AS38" t="n">
         <v>0</v>
       </c>
-      <c r="AT38" t="inlineStr"/>
-      <c r="AU38" t="inlineStr"/>
-      <c r="AV38" t="inlineStr"/>
-      <c r="AW38" t="inlineStr"/>
-      <c r="AX38" t="inlineStr"/>
-      <c r="AY38" t="inlineStr"/>
-      <c r="AZ38" t="inlineStr"/>
-      <c r="BA38" t="inlineStr"/>
-      <c r="BB38" t="inlineStr"/>
       <c r="BC38" t="inlineStr">
         <is>
           <t>1st</t>
@@ -7389,6 +7108,79 @@
       </c>
       <c r="BD38" t="n">
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="BE2:BE38" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>=DropdownOptions!$A$1:$A$7</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>0% - 10%: Foundation completed: Groundwork finished; no vertical structure yet.</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>11% - 25%: Structure and rough-in started: Structural framing in progress; initial MEP rough-in.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>26% - 50%: Structure erected, partial roofing: Building shape defined; roof and systems advancing.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>51% - 75%: Exterior sealed, interior work underway: Enclosed structure; painting, flooring, and testing begin.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">76% - 90%: Final finishes and inspections: Systems tested; </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>91% - 99%: Final touches and punch list: Minor adjustments; final inspections and approvals.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>100% - Construction complete: Ready for handover and occupancy.</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Filtered_By_Region/Region X/Region X_LMS.xlsx
+++ b/Filtered_By_Region/Region X/Region X_LMS.xlsx
@@ -32,12 +32,18 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -58,15 +64,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -435,3908 +447,3937 @@
   <dimension ref="A1:Z38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
+    <col width="39" customWidth="1" min="5" max="5"/>
+    <col width="27" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="11" customWidth="1" min="9" max="9"/>
+    <col width="287" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="11" max="11"/>
+    <col width="17" customWidth="1" min="12" max="12"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="26" customWidth="1" min="14" max="14"/>
+    <col width="26" customWidth="1" min="15" max="15"/>
+    <col width="27" customWidth="1" min="16" max="16"/>
+    <col width="46" customWidth="1" min="17" max="17"/>
+    <col width="26" customWidth="1" min="18" max="18"/>
+    <col width="31" customWidth="1" min="19" max="19"/>
+    <col width="27" customWidth="1" min="20" max="20"/>
+    <col width="21" customWidth="1" min="21" max="21"/>
+    <col width="33" customWidth="1" min="22" max="22"/>
+    <col width="31" customWidth="1" min="23" max="23"/>
+    <col width="42" customWidth="1" min="24" max="24"/>
+    <col width="190" customWidth="1" min="25" max="25"/>
+    <col width="28" customWidth="1" min="26" max="26"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>CATEGORY</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>REGION</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>DIVISION</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>SCHOOL ID</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>SCHOOL NAME</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>MUNICIPALITY</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>LD</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>NO. OF SITES</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>NO. OF CL</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>SCOPE OF WORK</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>PROJECT ALLOCATION</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>CONTRACT AMOUNT</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>STATUS</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" s="3" t="inlineStr">
         <is>
           <t>PERCENTAGE OF COMPLETION</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> Target Completion Date </t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" s="3" t="inlineStr">
         <is>
           <t>Actual Date of Completion</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" s="3" t="inlineStr">
         <is>
           <t>Project ID</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" s="3" t="inlineStr">
         <is>
           <t>Contract ID</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" s="3" t="inlineStr">
         <is>
           <t>Issuance of Invitation to Bid</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" s="3" t="inlineStr">
         <is>
           <t>Pre-Submission Conference</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" s="3" t="inlineStr">
         <is>
           <t>Bid Opening</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="V1" s="3" t="inlineStr">
         <is>
           <t>Issuance of Resolution to Award</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W1" s="3" t="inlineStr">
         <is>
           <t>Issuance of Notice to Proceed</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="X1" s="3" t="inlineStr">
         <is>
           <t>Name of Contractor</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Y1" s="3" t="inlineStr">
         <is>
           <t>Other Remarks</t>
         </is>
       </c>
-      <c r="Z1" s="3" t="inlineStr">
-        <is>
-          <t>Status as of July 4, 2025</t>
+      <c r="Z1" s="4" t="inlineStr">
+        <is>
+          <t>Status as of July 11, 2025</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="inlineStr">
+      <c r="A2" s="5" t="inlineStr">
         <is>
           <t>LMS 2020</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>Bukidnon</t>
         </is>
       </c>
-      <c r="D2" s="4" t="n">
+      <c r="D2" s="5" t="n">
         <v>113623</v>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="E2" s="5" t="inlineStr">
         <is>
           <t>Lumatong Pangukayan Ta Apu Manohay</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
+      <c r="F2" s="5" t="inlineStr">
         <is>
           <t>MARAMAG</t>
         </is>
       </c>
-      <c r="G2" s="4" t="n">
+      <c r="G2" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" s="4" t="n">
+      <c r="H2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J2" s="4" t="inlineStr">
+      <c r="J2" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K2" s="4" t="n">
+      <c r="K2" s="5" t="n">
         <v>18157630.90356173</v>
       </c>
-      <c r="L2" s="4" t="n">
+      <c r="L2" s="5" t="n">
         <v>13617950.39</v>
       </c>
-      <c r="M2" s="4" t="inlineStr">
+      <c r="M2" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N2" s="4" t="n">
+      <c r="N2" s="5" t="n">
         <v>0.89</v>
       </c>
-      <c r="O2" s="5" t="n">
+      <c r="O2" s="6" t="n">
         <v>45746</v>
       </c>
-      <c r="P2" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q2" s="4" t="inlineStr">
+      <c r="P2" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q2" s="5" t="inlineStr">
         <is>
           <t>PB-02-05-2024-005</t>
         </is>
       </c>
-      <c r="R2" s="4" t="inlineStr">
+      <c r="R2" s="5" t="inlineStr">
         <is>
           <t>0016-2024</t>
         </is>
       </c>
-      <c r="S2" s="5" t="n">
+      <c r="S2" s="6" t="n">
         <v>45423</v>
       </c>
-      <c r="T2" s="5" t="n">
+      <c r="T2" s="6" t="n">
         <v>45432</v>
       </c>
-      <c r="U2" s="5" t="n">
+      <c r="U2" s="6" t="n">
         <v>45446</v>
       </c>
-      <c r="V2" s="5" t="n">
+      <c r="V2" s="6" t="n">
         <v>45449</v>
       </c>
-      <c r="W2" s="5" t="n">
+      <c r="W2" s="6" t="n">
         <v>45471</v>
       </c>
-      <c r="X2" s="4" t="inlineStr">
+      <c r="X2" s="5" t="inlineStr">
         <is>
           <t>CQ Haribon Construction</t>
         </is>
       </c>
-      <c r="Y2" s="4" t="inlineStr">
+      <c r="Y2" s="5" t="inlineStr">
         <is>
           <t>Terminated Contract No. 08-2021 with FFJJ Construction, New Contract No. 0016-2024, Php 4,579,658.48</t>
         </is>
       </c>
-      <c r="Z2" s="4" t="n"/>
+      <c r="Z2" s="7" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="inlineStr">
+      <c r="A3" s="5" t="inlineStr">
         <is>
           <t>LMS 2020</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr">
+      <c r="B3" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
+      <c r="C3" s="5" t="inlineStr">
         <is>
           <t>Gingoog City</t>
         </is>
       </c>
-      <c r="D3" s="4" t="n">
+      <c r="D3" s="5" t="n">
         <v>128071</v>
       </c>
-      <c r="E3" s="4" t="inlineStr">
+      <c r="E3" s="5" t="inlineStr">
         <is>
           <t>Mimbuntong Elementary School</t>
         </is>
       </c>
-      <c r="F3" s="4" t="inlineStr">
+      <c r="F3" s="5" t="inlineStr">
         <is>
           <t>GINGOOG CITY</t>
         </is>
       </c>
-      <c r="G3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="4" t="n">
+      <c r="G3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J3" s="4" t="inlineStr">
+      <c r="J3" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE,\ SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K3" s="4" t="n">
+      <c r="K3" s="5" t="n">
         <v>19025682.242914</v>
       </c>
-      <c r="L3" s="4" t="n">
+      <c r="L3" s="5" t="n">
         <v>17827523.07</v>
       </c>
-      <c r="M3" s="4" t="inlineStr">
+      <c r="M3" s="5" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="N3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O3" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="P3" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q3" s="4" t="n">
+      <c r="N3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="P3" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q3" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="R3" s="4" t="n">
+      <c r="R3" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="S3" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="T3" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="U3" s="5" t="n">
+      <c r="S3" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="T3" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="U3" s="6" t="n">
         <v>44434</v>
       </c>
-      <c r="V3" s="5" t="n">
+      <c r="V3" s="6" t="n">
         <v>44436</v>
       </c>
-      <c r="W3" s="5" t="n">
+      <c r="W3" s="6" t="n">
         <v>44439</v>
       </c>
-      <c r="X3" s="4" t="inlineStr">
+      <c r="X3" s="5" t="inlineStr">
         <is>
           <t>IMBDC</t>
         </is>
       </c>
-      <c r="Y3" s="4" t="n">
+      <c r="Y3" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Z3" s="4" t="n"/>
+      <c r="Z3" s="7" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="inlineStr">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>LMS 2020</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr">
+      <c r="B4" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
+      <c r="C4" s="5" t="inlineStr">
         <is>
           <t>Lanao del Norte</t>
         </is>
       </c>
-      <c r="D4" s="4" t="n">
+      <c r="D4" s="5" t="n">
         <v>127123</v>
       </c>
-      <c r="E4" s="4" t="inlineStr">
+      <c r="E4" s="5" t="inlineStr">
         <is>
           <t>Sta. Cruz ES</t>
         </is>
       </c>
-      <c r="F4" s="4" t="inlineStr">
+      <c r="F4" s="5" t="inlineStr">
         <is>
           <t>MAIGO</t>
         </is>
       </c>
-      <c r="G4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="4" t="n">
+      <c r="G4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J4" s="4" t="inlineStr">
+      <c r="J4" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - THREE (3) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF   RAINWATER COLLECTOR, SCHOOL FURNITURE,  AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K4" s="4" t="n">
+      <c r="K4" s="5" t="n">
         <v>16818990.191764</v>
       </c>
-      <c r="L4" s="4" t="n">
+      <c r="L4" s="5" t="n">
         <v>13774087.91</v>
       </c>
-      <c r="M4" s="4" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="N4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O4" s="5" t="n">
+      <c r="N4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" s="6" t="n">
         <v>44255</v>
       </c>
-      <c r="P4" s="5" t="n">
+      <c r="P4" s="6" t="n">
         <v>44340</v>
       </c>
-      <c r="Q4" s="4" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>2020-01(Infra)</t>
         </is>
       </c>
-      <c r="R4" s="4" t="n">
+      <c r="R4" s="5" t="n">
         <v>43831</v>
       </c>
-      <c r="S4" s="5" t="n">
+      <c r="S4" s="6" t="n">
         <v>44062</v>
       </c>
-      <c r="T4" s="5" t="n">
+      <c r="T4" s="6" t="n">
         <v>44070</v>
       </c>
-      <c r="U4" s="5" t="n">
+      <c r="U4" s="6" t="n">
         <v>44095</v>
       </c>
-      <c r="V4" s="5" t="n">
+      <c r="V4" s="6" t="n">
         <v>44116</v>
       </c>
-      <c r="W4" s="5" t="n">
+      <c r="W4" s="6" t="n">
         <v>44158</v>
       </c>
-      <c r="X4" s="4" t="inlineStr">
+      <c r="X4" s="5" t="inlineStr">
         <is>
           <t>Lanao Genesis Construction Supply</t>
         </is>
       </c>
-      <c r="Y4" s="4" t="inlineStr">
+      <c r="Y4" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="Z4" s="4" t="n"/>
+      <c r="Z4" s="7" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="inlineStr">
+      <c r="A5" s="5" t="inlineStr">
         <is>
           <t>LMS 2020</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr">
+      <c r="B5" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr">
+      <c r="C5" s="5" t="inlineStr">
         <is>
           <t>Lanao del Norte</t>
         </is>
       </c>
-      <c r="D5" s="4" t="n">
+      <c r="D5" s="5" t="n">
         <v>200523</v>
       </c>
-      <c r="E5" s="4" t="inlineStr">
+      <c r="E5" s="5" t="inlineStr">
         <is>
           <t>Pelingkingan PS</t>
         </is>
       </c>
-      <c r="F5" s="4" t="inlineStr">
+      <c r="F5" s="5" t="inlineStr">
         <is>
           <t>TANGCAL</t>
         </is>
       </c>
-      <c r="G5" s="4" t="n">
+      <c r="G5" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="4" t="n">
+      <c r="H5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J5" s="4" t="inlineStr">
+      <c r="J5" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K5" s="4" t="n">
+      <c r="K5" s="5" t="n">
         <v>19741282.51640528</v>
       </c>
-      <c r="L5" s="4" t="n">
+      <c r="L5" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="M5" s="4" t="inlineStr">
+      <c r="M5" s="5" t="inlineStr">
         <is>
           <t>Reverted</t>
         </is>
       </c>
-      <c r="N5" s="4" t="n">
+      <c r="N5" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="O5" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="P5" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q5" s="4" t="n">
+      <c r="O5" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="P5" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q5" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="R5" s="4" t="n">
+      <c r="R5" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="S5" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="T5" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="U5" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="V5" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="W5" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="X5" s="4" t="n">
+      <c r="S5" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="T5" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="U5" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="V5" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="W5" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="X5" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Y5" s="4" t="inlineStr">
+      <c r="Y5" s="5" t="inlineStr">
         <is>
           <t>failure of bid (under negotiation); return of funds</t>
         </is>
       </c>
-      <c r="Z5" s="4" t="n"/>
+      <c r="Z5" s="7" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
+      <c r="A6" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="B6" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="C6" s="5" t="inlineStr">
         <is>
           <t>Bukidnon</t>
         </is>
       </c>
-      <c r="D6" s="4" t="n">
+      <c r="D6" s="5" t="n">
         <v>113721</v>
       </c>
-      <c r="E6" s="4" t="inlineStr">
+      <c r="E6" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Makabugwas Ta San Dionesio </t>
         </is>
       </c>
-      <c r="F6" s="4" t="inlineStr">
+      <c r="F6" s="5" t="inlineStr">
         <is>
           <t>TALAKAG</t>
         </is>
       </c>
-      <c r="G6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="4" t="n">
+      <c r="G6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J6" s="4" t="inlineStr">
+      <c r="J6" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K6" s="4" t="n">
+      <c r="K6" s="5" t="n">
         <v>16205887.9248</v>
       </c>
-      <c r="L6" s="4" t="n">
+      <c r="L6" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="M6" s="4" t="inlineStr">
+      <c r="M6" s="5" t="inlineStr">
         <is>
           <t>ABANDONED</t>
         </is>
       </c>
-      <c r="N6" s="4" t="n">
+      <c r="N6" s="5" t="n">
         <v>0.41</v>
       </c>
-      <c r="O6" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="P6" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q6" s="4" t="n">
+      <c r="O6" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="P6" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q6" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="R6" s="4" t="n">
+      <c r="R6" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="S6" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="T6" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="U6" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="V6" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="W6" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="X6" s="4" t="n">
+      <c r="S6" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="T6" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="U6" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="V6" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="W6" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="X6" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Y6" s="4" t="inlineStr">
+      <c r="Y6" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Letter request for suspension was sent to the Central Office. No Response from CO. This is a CO Implemented project. We cannot fill in the details. </t>
         </is>
       </c>
-      <c r="Z6" s="4" t="n"/>
+      <c r="Z6" s="7" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
+      <c r="A7" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr">
+      <c r="B7" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C7" s="4" t="inlineStr">
+      <c r="C7" s="5" t="inlineStr">
         <is>
           <t>Misamis Occidental</t>
         </is>
       </c>
-      <c r="D7" s="4" t="n">
+      <c r="D7" s="5" t="n">
         <v>127367</v>
       </c>
-      <c r="E7" s="4" t="inlineStr">
+      <c r="E7" s="5" t="inlineStr">
         <is>
           <t>Migubay PS</t>
         </is>
       </c>
-      <c r="F7" s="4" t="inlineStr">
+      <c r="F7" s="5" t="inlineStr">
         <is>
           <t>Concepcion</t>
         </is>
       </c>
-      <c r="G7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="4" t="n">
+      <c r="G7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J7" s="4" t="inlineStr">
+      <c r="J7" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K7" s="4" t="n">
+      <c r="K7" s="5" t="n">
         <v>13433577.8053</v>
       </c>
-      <c r="L7" s="4" t="n">
+      <c r="L7" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="M7" s="4" t="inlineStr">
+      <c r="M7" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N7" s="4" t="n">
+      <c r="N7" s="5" t="n">
         <v>0.14</v>
       </c>
-      <c r="O7" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="P7" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q7" s="4" t="n">
+      <c r="O7" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="P7" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q7" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="R7" s="4" t="n">
+      <c r="R7" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="S7" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="T7" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="U7" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="V7" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="W7" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="X7" s="4" t="n">
+      <c r="S7" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="T7" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="U7" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="V7" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="W7" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="X7" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Y7" s="4" t="inlineStr">
+      <c r="Y7" s="5" t="inlineStr">
         <is>
           <t>Waiting for approved DAED</t>
         </is>
       </c>
-      <c r="Z7" s="4" t="n"/>
+      <c r="Z7" s="7" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="inlineStr">
+      <c r="A8" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B8" s="4" t="inlineStr">
+      <c r="B8" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C8" s="4" t="inlineStr">
+      <c r="C8" s="5" t="inlineStr">
         <is>
           <t>Misamis Occidental</t>
         </is>
       </c>
-      <c r="D8" s="4" t="n">
+      <c r="D8" s="5" t="n">
         <v>127496</v>
       </c>
-      <c r="E8" s="4" t="inlineStr">
+      <c r="E8" s="5" t="inlineStr">
         <is>
           <t>Deboloc ES</t>
         </is>
       </c>
-      <c r="F8" s="4" t="inlineStr">
+      <c r="F8" s="5" t="inlineStr">
         <is>
           <t>Plaridel</t>
         </is>
       </c>
-      <c r="G8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" s="4" t="n">
+      <c r="G8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J8" s="4" t="inlineStr">
+      <c r="J8" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - THREE (3) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K8" s="4" t="n">
+      <c r="K8" s="5" t="n">
         <v>15202037.93501043</v>
       </c>
-      <c r="L8" s="4" t="n">
+      <c r="L8" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="M8" s="4" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N8" s="4" t="n">
+      <c r="N8" s="5" t="n">
         <v>0.1</v>
       </c>
-      <c r="O8" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="P8" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q8" s="4" t="n">
+      <c r="O8" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="P8" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q8" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="R8" s="4" t="n">
+      <c r="R8" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="S8" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="T8" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="U8" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="V8" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="W8" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="X8" s="4" t="n">
+      <c r="S8" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="T8" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="U8" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="V8" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="W8" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="X8" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Y8" s="4" t="inlineStr">
+      <c r="Y8" s="5" t="inlineStr">
         <is>
           <t>Waiting for approved DAED</t>
         </is>
       </c>
-      <c r="Z8" s="4" t="n"/>
+      <c r="Z8" s="7" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="inlineStr">
+      <c r="A9" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B9" s="4" t="inlineStr">
+      <c r="B9" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C9" s="4" t="inlineStr">
+      <c r="C9" s="5" t="inlineStr">
         <is>
           <t>Misamis Oriental</t>
         </is>
       </c>
-      <c r="D9" s="4" t="n">
+      <c r="D9" s="5" t="n">
         <v>130200</v>
       </c>
-      <c r="E9" s="4" t="inlineStr">
+      <c r="E9" s="5" t="inlineStr">
         <is>
           <t>Aligodon Higaonon Tulogan Nauhanan</t>
         </is>
       </c>
-      <c r="F9" s="4" t="inlineStr">
+      <c r="F9" s="5" t="inlineStr">
         <is>
           <t>CLAVERIA</t>
         </is>
       </c>
-      <c r="G9" s="4" t="n">
+      <c r="G9" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="4" t="n">
+      <c r="H9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J9" s="4" t="inlineStr">
+      <c r="J9" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K9" s="4" t="n">
+      <c r="K9" s="5" t="n">
         <v>19652994.9643233</v>
       </c>
-      <c r="L9" s="4" t="n">
+      <c r="L9" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="M9" s="4" t="inlineStr">
+      <c r="M9" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N9" s="4" t="n">
+      <c r="N9" s="5" t="n">
         <v>0.33</v>
       </c>
-      <c r="O9" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="P9" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q9" s="4" t="n">
+      <c r="O9" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="P9" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q9" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="R9" s="4" t="n">
+      <c r="R9" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="S9" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="T9" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="U9" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="V9" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="W9" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="X9" s="4" t="n">
+      <c r="S9" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="T9" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="U9" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="V9" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="W9" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="X9" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Y9" s="4" t="inlineStr">
+      <c r="Y9" s="5" t="inlineStr">
         <is>
           <t>No Movement in Site (Abandoned); Building permit on Process, Contractor requested fot Time extension due to weather condition</t>
         </is>
       </c>
-      <c r="Z9" s="4" t="n"/>
+      <c r="Z9" s="7" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="inlineStr">
+      <c r="A10" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B10" s="4" t="inlineStr">
+      <c r="B10" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C10" s="4" t="inlineStr">
+      <c r="C10" s="5" t="inlineStr">
         <is>
           <t>Misamis Oriental</t>
         </is>
       </c>
-      <c r="D10" s="4" t="n">
+      <c r="D10" s="5" t="n">
         <v>130200</v>
       </c>
-      <c r="E10" s="4" t="inlineStr">
+      <c r="E10" s="5" t="inlineStr">
         <is>
           <t>Aligodon Higaonon Tulogan Nauhanan</t>
         </is>
       </c>
-      <c r="F10" s="4" t="inlineStr">
+      <c r="F10" s="5" t="inlineStr">
         <is>
           <t>CLAVERIA</t>
         </is>
       </c>
-      <c r="G10" s="4" t="n">
+      <c r="G10" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H10" s="4" t="inlineStr"/>
-      <c r="I10" s="4" t="n">
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J10" s="4" t="inlineStr">
+      <c r="J10" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K10" s="4" t="n">
+      <c r="K10" s="5" t="n">
         <v>6520</v>
       </c>
-      <c r="L10" s="4" t="n">
+      <c r="L10" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="M10" s="4" t="inlineStr">
+      <c r="M10" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N10" s="4" t="n">
+      <c r="N10" s="5" t="n">
         <v>0.33</v>
       </c>
-      <c r="O10" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="P10" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q10" s="4" t="n">
+      <c r="O10" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="P10" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q10" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="R10" s="4" t="n">
+      <c r="R10" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="S10" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="T10" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="U10" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="V10" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="W10" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="X10" s="4" t="n">
+      <c r="S10" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="T10" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="U10" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="V10" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="W10" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="X10" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Y10" s="4" t="inlineStr">
+      <c r="Y10" s="5" t="inlineStr">
         <is>
           <t>No Movement in Site (Abandoned); Building permit on Process, Contractor requested fot Time extension due to weather condition</t>
         </is>
       </c>
-      <c r="Z10" s="4" t="n"/>
+      <c r="Z10" s="7" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="inlineStr">
+      <c r="A11" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B11" s="4" t="inlineStr">
+      <c r="B11" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C11" s="4" t="inlineStr">
+      <c r="C11" s="5" t="inlineStr">
         <is>
           <t>Ozamis City</t>
         </is>
       </c>
-      <c r="D11" s="4" t="n">
+      <c r="D11" s="5" t="n">
         <v>128190</v>
       </c>
-      <c r="E11" s="4" t="inlineStr">
+      <c r="E11" s="5" t="inlineStr">
         <is>
           <t>Balintawak Elementary School</t>
         </is>
       </c>
-      <c r="F11" s="4" t="inlineStr">
+      <c r="F11" s="5" t="inlineStr">
         <is>
           <t>OZAMIS CITY</t>
         </is>
       </c>
-      <c r="G11" s="4" t="n">
+      <c r="G11" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" s="4" t="n">
+      <c r="H11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J11" s="4" t="inlineStr">
+      <c r="J11" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K11" s="4" t="n">
+      <c r="K11" s="5" t="n">
         <v>18244962.88</v>
       </c>
-      <c r="L11" s="4" t="n">
+      <c r="L11" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="M11" s="4" t="inlineStr">
+      <c r="M11" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N11" s="4" t="n">
+      <c r="N11" s="5" t="n">
         <v>0.13</v>
       </c>
-      <c r="O11" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="P11" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q11" s="4" t="n">
+      <c r="O11" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="P11" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q11" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="R11" s="4" t="n">
+      <c r="R11" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="S11" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="T11" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="U11" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="V11" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="W11" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="X11" s="4" t="n">
+      <c r="S11" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="T11" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="U11" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="V11" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="W11" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="X11" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Y11" s="4" t="inlineStr">
+      <c r="Y11" s="5" t="inlineStr">
         <is>
           <t>Under Work Suspension</t>
         </is>
       </c>
-      <c r="Z11" s="4" t="n"/>
+      <c r="Z11" s="7" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="inlineStr">
+      <c r="A12" s="5" t="inlineStr">
         <is>
           <t>LMS 2022</t>
         </is>
       </c>
-      <c r="B12" s="4" t="inlineStr">
+      <c r="B12" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C12" s="4" t="inlineStr">
+      <c r="C12" s="5" t="inlineStr">
         <is>
           <t>El Salvador</t>
         </is>
       </c>
-      <c r="D12" s="4" t="n">
+      <c r="D12" s="5" t="n">
         <v>304768</v>
       </c>
-      <c r="E12" s="4" t="inlineStr">
+      <c r="E12" s="5" t="inlineStr">
         <is>
           <t>Himaya National High School</t>
         </is>
       </c>
-      <c r="F12" s="4" t="inlineStr">
+      <c r="F12" s="5" t="inlineStr">
         <is>
           <t>CITY OF EL SALVADOR</t>
         </is>
       </c>
-      <c r="G12" s="4" t="n">
+      <c r="G12" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H12" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" s="4" t="n">
+      <c r="H12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J12" s="4" t="inlineStr">
+      <c r="J12" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - THREE (3) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K12" s="4" t="n">
+      <c r="K12" s="5" t="n">
         <v>16459251.5365</v>
       </c>
-      <c r="L12" s="4" t="n">
+      <c r="L12" s="5" t="n">
         <v>11765349.85</v>
       </c>
-      <c r="M12" s="4" t="inlineStr">
+      <c r="M12" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N12" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O12" s="5" t="n">
+      <c r="N12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O12" s="6" t="n">
         <v>45308</v>
       </c>
-      <c r="P12" s="5" t="n">
+      <c r="P12" s="6" t="n">
         <v>45156</v>
       </c>
-      <c r="Q12" s="4" t="inlineStr">
+      <c r="Q12" s="5" t="inlineStr">
         <is>
           <t>2022-10-0228</t>
         </is>
       </c>
-      <c r="R12" s="4" t="inlineStr">
+      <c r="R12" s="5" t="inlineStr">
         <is>
           <t>2022-12-0327</t>
         </is>
       </c>
-      <c r="S12" s="5" t="n">
+      <c r="S12" s="6" t="n">
         <v>45041</v>
       </c>
-      <c r="T12" s="5" t="n">
+      <c r="T12" s="6" t="n">
         <v>45049</v>
       </c>
-      <c r="U12" s="5" t="n">
+      <c r="U12" s="6" t="n">
         <v>45061</v>
       </c>
-      <c r="V12" s="5" t="n">
+      <c r="V12" s="6" t="n">
         <v>45118</v>
       </c>
-      <c r="W12" s="5" t="n">
+      <c r="W12" s="6" t="n">
         <v>45121</v>
       </c>
-      <c r="X12" s="4" t="inlineStr">
+      <c r="X12" s="5" t="inlineStr">
         <is>
           <t>ROVINVAL ENGINEERING AND CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Y12" s="4" t="inlineStr">
+      <c r="Y12" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="Z12" s="4" t="n"/>
+      <c r="Z12" s="7" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="inlineStr">
+      <c r="A13" s="5" t="inlineStr">
         <is>
           <t>LMS 2022</t>
         </is>
       </c>
-      <c r="B13" s="4" t="inlineStr">
+      <c r="B13" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C13" s="4" t="inlineStr">
+      <c r="C13" s="5" t="inlineStr">
         <is>
           <t>El Salvador</t>
         </is>
       </c>
-      <c r="D13" s="4" t="n">
+      <c r="D13" s="5" t="n">
         <v>305683</v>
       </c>
-      <c r="E13" s="4" t="inlineStr">
+      <c r="E13" s="5" t="inlineStr">
         <is>
           <t>Sambulawan National High School</t>
         </is>
       </c>
-      <c r="F13" s="4" t="inlineStr">
+      <c r="F13" s="5" t="inlineStr">
         <is>
           <t>CITY OF EL SALVADOR</t>
         </is>
       </c>
-      <c r="G13" s="4" t="n">
+      <c r="G13" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H13" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" s="4" t="n">
+      <c r="H13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J13" s="4" t="inlineStr">
+      <c r="J13" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - THREE (3) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K13" s="4" t="n">
+      <c r="K13" s="5" t="n">
         <v>16469856.5365</v>
       </c>
-      <c r="L13" s="4" t="n">
+      <c r="L13" s="5" t="n">
         <v>12076295.82</v>
       </c>
-      <c r="M13" s="4" t="inlineStr">
+      <c r="M13" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N13" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O13" s="5" t="n">
+      <c r="N13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O13" s="6" t="n">
         <v>45291</v>
       </c>
-      <c r="P13" s="5" t="n">
+      <c r="P13" s="6" t="n">
         <v>45175</v>
       </c>
-      <c r="Q13" s="4" t="inlineStr">
+      <c r="Q13" s="5" t="inlineStr">
         <is>
           <t>2022-04-0065</t>
         </is>
       </c>
-      <c r="R13" s="4" t="inlineStr">
+      <c r="R13" s="5" t="inlineStr">
         <is>
           <t>2022-09-0205</t>
         </is>
       </c>
-      <c r="S13" s="5" t="n">
+      <c r="S13" s="6" t="n">
         <v>45041</v>
       </c>
-      <c r="T13" s="5" t="n">
+      <c r="T13" s="6" t="n">
         <v>45049</v>
       </c>
-      <c r="U13" s="5" t="n">
+      <c r="U13" s="6" t="n">
         <v>45061</v>
       </c>
-      <c r="V13" s="5" t="n">
+      <c r="V13" s="6" t="n">
         <v>45114</v>
       </c>
-      <c r="W13" s="5" t="n">
+      <c r="W13" s="6" t="n">
         <v>45134</v>
       </c>
-      <c r="X13" s="4" t="inlineStr">
+      <c r="X13" s="5" t="inlineStr">
         <is>
           <t>LJPM BUILDERS AND CONSTRUCTION SUPPLY</t>
         </is>
       </c>
-      <c r="Y13" s="4" t="inlineStr">
+      <c r="Y13" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="Z13" s="4" t="n"/>
+      <c r="Z13" s="7" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="inlineStr">
+      <c r="A14" s="5" t="inlineStr">
         <is>
           <t>LMS 2022</t>
         </is>
       </c>
-      <c r="B14" s="4" t="inlineStr">
+      <c r="B14" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C14" s="4" t="inlineStr">
+      <c r="C14" s="5" t="inlineStr">
         <is>
           <t>Lanao del Norte</t>
         </is>
       </c>
-      <c r="D14" s="4" t="n">
+      <c r="D14" s="5" t="n">
         <v>127171</v>
       </c>
-      <c r="E14" s="4" t="inlineStr">
+      <c r="E14" s="5" t="inlineStr">
         <is>
           <t>Sigayan Adil PS</t>
         </is>
       </c>
-      <c r="F14" s="4" t="inlineStr">
+      <c r="F14" s="5" t="inlineStr">
         <is>
           <t>PANTAR</t>
         </is>
       </c>
-      <c r="G14" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" s="4" t="n">
+      <c r="G14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J14" s="4" t="inlineStr">
+      <c r="J14" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF   RAINWATER COLLECTOR, SCHOOL FURNITURE, WATER SYSTEM AND REPAIR &amp; REHABILITATION OF CLASSROOMS.</t>
         </is>
       </c>
-      <c r="K14" s="4" t="n">
+      <c r="K14" s="5" t="n">
         <v>17137950.7406</v>
       </c>
-      <c r="L14" s="4" t="n">
+      <c r="L14" s="5" t="n">
         <v>12954954.09</v>
       </c>
-      <c r="M14" s="4" t="inlineStr">
+      <c r="M14" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N14" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O14" s="5" t="n">
+      <c r="N14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O14" s="6" t="n">
         <v>45086</v>
       </c>
-      <c r="P14" s="5" t="n">
+      <c r="P14" s="6" t="n">
         <v>45087</v>
       </c>
-      <c r="Q14" s="4" t="inlineStr">
+      <c r="Q14" s="5" t="inlineStr">
         <is>
           <t>2023-02(Infra)</t>
         </is>
       </c>
-      <c r="R14" s="4" t="n">
+      <c r="R14" s="5" t="n">
         <v>44958</v>
       </c>
-      <c r="S14" s="5" t="n">
+      <c r="S14" s="6" t="n">
         <v>44888</v>
       </c>
-      <c r="T14" s="5" t="n">
+      <c r="T14" s="6" t="n">
         <v>44896</v>
       </c>
-      <c r="U14" s="5" t="n">
+      <c r="U14" s="6" t="n">
         <v>44914</v>
       </c>
-      <c r="V14" s="5" t="n">
+      <c r="V14" s="6" t="n">
         <v>44935</v>
       </c>
-      <c r="W14" s="5" t="n">
+      <c r="W14" s="6" t="n">
         <v>44966</v>
       </c>
-      <c r="X14" s="4" t="inlineStr">
+      <c r="X14" s="5" t="inlineStr">
         <is>
           <t>S&amp; J BUILDERS</t>
         </is>
       </c>
-      <c r="Y14" s="4" t="inlineStr">
+      <c r="Y14" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="Z14" s="4" t="n"/>
+      <c r="Z14" s="7" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="inlineStr">
+      <c r="A15" s="5" t="inlineStr">
         <is>
           <t>LMS 2022</t>
         </is>
       </c>
-      <c r="B15" s="4" t="inlineStr">
+      <c r="B15" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C15" s="4" t="inlineStr">
+      <c r="C15" s="5" t="inlineStr">
         <is>
           <t>Lanao del Norte</t>
         </is>
       </c>
-      <c r="D15" s="4" t="n">
+      <c r="D15" s="5" t="n">
         <v>127101</v>
       </c>
-      <c r="E15" s="4" t="inlineStr">
+      <c r="E15" s="5" t="inlineStr">
         <is>
           <t>Durianon Primary School</t>
         </is>
       </c>
-      <c r="F15" s="4" t="inlineStr">
+      <c r="F15" s="5" t="inlineStr">
         <is>
           <t>MAGSAYSAY</t>
         </is>
       </c>
-      <c r="G15" s="4" t="n">
+      <c r="G15" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H15" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" s="4" t="n">
+      <c r="H15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J15" s="4" t="inlineStr">
+      <c r="J15" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF   RAINWATER COLLECTOR, SCHOOL FURNITURE, WATER SYSTEM AND REPAIR &amp; REHABILITATION OF CLASSROOMS.</t>
         </is>
       </c>
-      <c r="K15" s="4" t="n">
+      <c r="K15" s="5" t="n">
         <v>15730677.8052</v>
       </c>
-      <c r="L15" s="4" t="n">
+      <c r="L15" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="M15" s="4" t="inlineStr">
+      <c r="M15" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="N15" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O15" s="5" t="n">
+      <c r="N15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O15" s="6" t="n">
         <v>45086</v>
       </c>
-      <c r="P15" s="5" t="n">
+      <c r="P15" s="6" t="n">
         <v>45051</v>
       </c>
-      <c r="Q15" s="4" t="inlineStr">
+      <c r="Q15" s="5" t="inlineStr">
         <is>
           <t>2023-01(Infra)</t>
         </is>
       </c>
-      <c r="R15" s="4" t="n">
+      <c r="R15" s="5" t="n">
         <v>44927</v>
       </c>
-      <c r="S15" s="5" t="n">
+      <c r="S15" s="6" t="n">
         <v>44888</v>
       </c>
-      <c r="T15" s="5" t="n">
+      <c r="T15" s="6" t="n">
         <v>44896</v>
       </c>
-      <c r="U15" s="5" t="n">
+      <c r="U15" s="6" t="n">
         <v>44914</v>
       </c>
-      <c r="V15" s="5" t="n">
+      <c r="V15" s="6" t="n">
         <v>44935</v>
       </c>
-      <c r="W15" s="5" t="n">
+      <c r="W15" s="6" t="n">
         <v>44966</v>
       </c>
-      <c r="X15" s="4" t="inlineStr">
+      <c r="X15" s="5" t="inlineStr">
         <is>
           <t>AHM BUILDERS</t>
         </is>
       </c>
-      <c r="Y15" s="4" t="inlineStr">
+      <c r="Y15" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="Z15" s="4" t="n"/>
+      <c r="Z15" s="7" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="4" t="inlineStr">
+      <c r="A16" s="5" t="inlineStr">
         <is>
           <t>LMS 2022</t>
         </is>
       </c>
-      <c r="B16" s="4" t="inlineStr">
+      <c r="B16" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C16" s="4" t="inlineStr">
+      <c r="C16" s="5" t="inlineStr">
         <is>
           <t>Lanao del Norte</t>
         </is>
       </c>
-      <c r="D16" s="4" t="n">
+      <c r="D16" s="5" t="n">
         <v>501602</v>
       </c>
-      <c r="E16" s="4" t="inlineStr">
+      <c r="E16" s="5" t="inlineStr">
         <is>
           <t>Pelingkingan Integrated School</t>
         </is>
       </c>
-      <c r="F16" s="4" t="inlineStr">
+      <c r="F16" s="5" t="inlineStr">
         <is>
           <t>TANGCAL</t>
         </is>
       </c>
-      <c r="G16" s="4" t="n">
+      <c r="G16" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H16" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" s="4" t="n">
+      <c r="H16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J16" s="4" t="inlineStr">
+      <c r="J16" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K16" s="4" t="n">
+      <c r="K16" s="5" t="n">
         <v>19938695.3452</v>
       </c>
-      <c r="L16" s="4" t="n">
+      <c r="L16" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="M16" s="4" t="inlineStr">
+      <c r="M16" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="N16" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O16" s="5" t="n">
+      <c r="N16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O16" s="6" t="n">
         <v>44931</v>
       </c>
-      <c r="P16" s="5" t="n">
+      <c r="P16" s="6" t="n">
         <v>45260</v>
       </c>
-      <c r="Q16" s="4" t="inlineStr">
+      <c r="Q16" s="5" t="inlineStr">
         <is>
           <t>2022-05(infra)</t>
         </is>
       </c>
-      <c r="R16" s="4" t="n">
+      <c r="R16" s="5" t="n">
         <v>44682</v>
       </c>
-      <c r="S16" s="5" t="n">
+      <c r="S16" s="6" t="n">
         <v>44671</v>
       </c>
-      <c r="T16" s="5" t="n">
+      <c r="T16" s="6" t="n">
         <v>44680</v>
       </c>
-      <c r="U16" s="5" t="n">
+      <c r="U16" s="6" t="n">
         <v>44698</v>
       </c>
-      <c r="V16" s="5" t="n">
+      <c r="V16" s="6" t="n">
         <v>44798</v>
       </c>
-      <c r="W16" s="5" t="n">
+      <c r="W16" s="6" t="n">
         <v>44811</v>
       </c>
-      <c r="X16" s="4" t="inlineStr">
+      <c r="X16" s="5" t="inlineStr">
         <is>
           <t>N-ASIACOM</t>
         </is>
       </c>
-      <c r="Y16" s="4" t="inlineStr">
+      <c r="Y16" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="Z16" s="4" t="n"/>
+      <c r="Z16" s="7" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="4" t="inlineStr">
+      <c r="A17" s="5" t="inlineStr">
         <is>
           <t>LMS 2022</t>
         </is>
       </c>
-      <c r="B17" s="4" t="inlineStr">
+      <c r="B17" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C17" s="4" t="inlineStr">
+      <c r="C17" s="5" t="inlineStr">
         <is>
           <t>Misamis Occidental</t>
         </is>
       </c>
-      <c r="D17" s="4" t="n">
+      <c r="D17" s="5" t="n">
         <v>127281</v>
       </c>
-      <c r="E17" s="4" t="inlineStr">
+      <c r="E17" s="5" t="inlineStr">
         <is>
           <t>Naburos ES</t>
         </is>
       </c>
-      <c r="F17" s="4" t="inlineStr">
+      <c r="F17" s="5" t="inlineStr">
         <is>
           <t>BALIANGAO</t>
         </is>
       </c>
-      <c r="G17" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H17" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" s="4" t="n">
+      <c r="G17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="J17" s="4" t="inlineStr">
+      <c r="J17" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND REPAIR AND REHABILITATION OF ONE STOREY THREE (3) - CLASSROOM SCHOOL BUILDING (BLSB - TYPE 1) - (6.40m x 8.00m)</t>
         </is>
       </c>
-      <c r="K17" s="4" t="n">
+      <c r="K17" s="5" t="n">
         <v>16494219.41995726</v>
       </c>
-      <c r="L17" s="4" t="n">
+      <c r="L17" s="5" t="n">
         <v>16279166.49</v>
       </c>
-      <c r="M17" s="4" t="inlineStr">
+      <c r="M17" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N17" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O17" s="5" t="n">
+      <c r="N17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O17" s="6" t="n">
         <v>45147</v>
       </c>
-      <c r="P17" s="5" t="n">
+      <c r="P17" s="6" t="n">
         <v>45618</v>
       </c>
-      <c r="Q17" s="4" t="inlineStr"/>
-      <c r="R17" s="4" t="inlineStr">
+      <c r="Q17" s="5" t="inlineStr"/>
+      <c r="R17" s="5" t="inlineStr">
         <is>
           <t>002-2023</t>
         </is>
       </c>
-      <c r="S17" s="5" t="n">
+      <c r="S17" s="6" t="n">
         <v>44860</v>
       </c>
-      <c r="T17" s="5" t="n">
+      <c r="T17" s="6" t="n">
         <v>44868</v>
       </c>
-      <c r="U17" s="5" t="n">
+      <c r="U17" s="6" t="n">
         <v>44880</v>
       </c>
-      <c r="V17" s="5" t="n">
+      <c r="V17" s="6" t="n">
         <v>44909</v>
       </c>
-      <c r="W17" s="5" t="n">
+      <c r="W17" s="6" t="n">
         <v>44956</v>
       </c>
-      <c r="X17" s="4" t="inlineStr">
+      <c r="X17" s="5" t="inlineStr">
         <is>
           <t>RRJ Builders</t>
         </is>
       </c>
-      <c r="Y17" s="4" t="inlineStr">
+      <c r="Y17" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="Z17" s="4" t="n"/>
+      <c r="Z17" s="7" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="inlineStr">
+      <c r="A18" s="5" t="inlineStr">
         <is>
           <t>LMS 2022</t>
         </is>
       </c>
-      <c r="B18" s="4" t="inlineStr">
+      <c r="B18" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C18" s="4" t="inlineStr">
+      <c r="C18" s="5" t="inlineStr">
         <is>
           <t>Misamis Occidental</t>
         </is>
       </c>
-      <c r="D18" s="4" t="n">
+      <c r="D18" s="5" t="n">
         <v>127371</v>
       </c>
-      <c r="E18" s="4" t="inlineStr">
+      <c r="E18" s="5" t="inlineStr">
         <is>
           <t>Soso-on Elementary School</t>
         </is>
       </c>
-      <c r="F18" s="4" t="inlineStr">
+      <c r="F18" s="5" t="inlineStr">
         <is>
           <t>CONCEPCION</t>
         </is>
       </c>
-      <c r="G18" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H18" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" s="4" t="n">
+      <c r="G18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J18" s="4" t="inlineStr">
+      <c r="J18" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - THREE (3) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K18" s="4" t="n">
+      <c r="K18" s="5" t="n">
         <v>17603739.1268</v>
       </c>
-      <c r="L18" s="4" t="n">
+      <c r="L18" s="5" t="n">
         <v>17030172.22</v>
       </c>
-      <c r="M18" s="4" t="inlineStr">
+      <c r="M18" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N18" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O18" s="5" t="n">
+      <c r="N18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O18" s="6" t="n">
         <v>44991</v>
       </c>
-      <c r="P18" s="5" t="n">
+      <c r="P18" s="6" t="n">
         <v>45477</v>
       </c>
-      <c r="Q18" s="4" t="inlineStr">
+      <c r="Q18" s="5" t="inlineStr">
         <is>
           <t>LMS 2022-RX-Misamis Occidental-001</t>
         </is>
       </c>
-      <c r="R18" s="4" t="inlineStr">
+      <c r="R18" s="5" t="inlineStr">
         <is>
           <t>013-2022</t>
         </is>
       </c>
-      <c r="S18" s="5" t="n">
+      <c r="S18" s="6" t="n">
         <v>44707</v>
       </c>
-      <c r="T18" s="5" t="n">
+      <c r="T18" s="6" t="n">
         <v>44715</v>
       </c>
-      <c r="U18" s="5" t="n">
+      <c r="U18" s="6" t="n">
         <v>44727</v>
       </c>
-      <c r="V18" s="5" t="n">
+      <c r="V18" s="6" t="n">
         <v>44756</v>
       </c>
-      <c r="W18" s="5" t="n">
+      <c r="W18" s="6" t="n">
         <v>44833</v>
       </c>
-      <c r="X18" s="4" t="inlineStr">
+      <c r="X18" s="5" t="inlineStr">
         <is>
           <t>RRJ Builders</t>
         </is>
       </c>
-      <c r="Y18" s="4" t="inlineStr">
+      <c r="Y18" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="Z18" s="4" t="n"/>
+      <c r="Z18" s="7" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="4" t="inlineStr">
+      <c r="A19" s="5" t="inlineStr">
         <is>
           <t>LMS 2022</t>
         </is>
       </c>
-      <c r="B19" s="4" t="inlineStr">
+      <c r="B19" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C19" s="4" t="inlineStr">
+      <c r="C19" s="5" t="inlineStr">
         <is>
           <t>Misamis Occidental</t>
         </is>
       </c>
-      <c r="D19" s="4" t="n">
+      <c r="D19" s="5" t="n">
         <v>501874</v>
       </c>
-      <c r="E19" s="4" t="inlineStr">
+      <c r="E19" s="5" t="inlineStr">
         <is>
           <t>Manla Integrated School</t>
         </is>
       </c>
-      <c r="F19" s="4" t="inlineStr">
+      <c r="F19" s="5" t="inlineStr">
         <is>
           <t>SAPANG DALAGA</t>
         </is>
       </c>
-      <c r="G19" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H19" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" s="4" t="n">
+      <c r="G19" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J19" s="4" t="inlineStr">
+      <c r="J19" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - THREE (3) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, AND SOLAR PV ENERGY SYSTEM</t>
         </is>
       </c>
-      <c r="K19" s="4" t="n">
+      <c r="K19" s="5" t="n">
         <v>16435255.6737</v>
       </c>
-      <c r="L19" s="4" t="n">
+      <c r="L19" s="5" t="n">
         <v>15385260.39</v>
       </c>
-      <c r="M19" s="4" t="inlineStr">
+      <c r="M19" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N19" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O19" s="5" t="n">
+      <c r="N19" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O19" s="6" t="n">
         <v>45115</v>
       </c>
-      <c r="P19" s="5" t="n">
+      <c r="P19" s="6" t="n">
         <v>45184</v>
       </c>
-      <c r="Q19" s="4" t="inlineStr">
+      <c r="Q19" s="5" t="inlineStr">
         <is>
           <t>LMS 2022-RX-Misamis Occidental-002</t>
         </is>
       </c>
-      <c r="R19" s="4" t="inlineStr">
+      <c r="R19" s="5" t="inlineStr">
         <is>
           <t>001-2023</t>
         </is>
       </c>
-      <c r="S19" s="5" t="n">
+      <c r="S19" s="6" t="n">
         <v>44860</v>
       </c>
-      <c r="T19" s="5" t="n">
+      <c r="T19" s="6" t="n">
         <v>44868</v>
       </c>
-      <c r="U19" s="5" t="n">
+      <c r="U19" s="6" t="n">
         <v>44880</v>
       </c>
-      <c r="V19" s="5" t="n">
+      <c r="V19" s="6" t="n">
         <v>44908</v>
       </c>
-      <c r="W19" s="5" t="n">
+      <c r="W19" s="6" t="n">
         <v>44953</v>
       </c>
-      <c r="X19" s="4" t="inlineStr">
+      <c r="X19" s="5" t="inlineStr">
         <is>
           <t>3R's Builders</t>
         </is>
       </c>
-      <c r="Y19" s="4" t="inlineStr">
+      <c r="Y19" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="Z19" s="4" t="n"/>
+      <c r="Z19" s="7" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="4" t="inlineStr">
+      <c r="A20" s="5" t="inlineStr">
         <is>
           <t>LMS 2022</t>
         </is>
       </c>
-      <c r="B20" s="4" t="inlineStr">
+      <c r="B20" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C20" s="4" t="inlineStr">
+      <c r="C20" s="5" t="inlineStr">
         <is>
           <t>Misamis Oriental</t>
         </is>
       </c>
-      <c r="D20" s="4" t="n">
+      <c r="D20" s="5" t="n">
         <v>201509</v>
       </c>
-      <c r="E20" s="4" t="inlineStr">
+      <c r="E20" s="5" t="inlineStr">
         <is>
           <t>Dahilig ES</t>
         </is>
       </c>
-      <c r="F20" s="4" t="inlineStr">
+      <c r="F20" s="5" t="inlineStr">
         <is>
           <t>BALINGOAN</t>
         </is>
       </c>
-      <c r="G20" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H20" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" s="4" t="n">
+      <c r="G20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J20" s="4" t="inlineStr">
+      <c r="J20" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF 2UNITS ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K20" s="4" t="n">
+      <c r="K20" s="5" t="n">
         <v>14773677.2926</v>
       </c>
-      <c r="L20" s="4" t="n">
+      <c r="L20" s="5" t="n">
         <v>13824219.59</v>
       </c>
-      <c r="M20" s="4" t="inlineStr">
+      <c r="M20" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N20" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O20" s="5" t="n">
+      <c r="N20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O20" s="6" t="n">
         <v>45028</v>
       </c>
-      <c r="P20" s="5" t="n">
+      <c r="P20" s="6" t="n">
         <v>45118</v>
       </c>
-      <c r="Q20" s="4" t="inlineStr">
+      <c r="Q20" s="5" t="inlineStr">
         <is>
           <t>PB-Infra 2022-001</t>
         </is>
       </c>
-      <c r="R20" s="4" t="inlineStr"/>
-      <c r="S20" s="5" t="n">
+      <c r="R20" s="5" t="inlineStr"/>
+      <c r="S20" s="6" t="n">
         <v>44783</v>
       </c>
-      <c r="T20" s="5" t="n">
+      <c r="T20" s="6" t="n">
         <v>44783</v>
       </c>
-      <c r="U20" s="5" t="n">
+      <c r="U20" s="6" t="n">
         <v>44803</v>
       </c>
-      <c r="V20" s="5" t="n">
+      <c r="V20" s="6" t="n">
         <v>44826</v>
       </c>
-      <c r="W20" s="5" t="n">
+      <c r="W20" s="6" t="n">
         <v>44892</v>
       </c>
-      <c r="X20" s="4" t="inlineStr">
+      <c r="X20" s="5" t="inlineStr">
         <is>
           <t>Meterking Inc.</t>
         </is>
       </c>
-      <c r="Y20" s="4" t="inlineStr">
+      <c r="Y20" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="Z20" s="4" t="n"/>
+      <c r="Z20" s="7" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="4" t="inlineStr">
+      <c r="A21" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B21" s="4" t="inlineStr">
+      <c r="B21" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C21" s="4" t="inlineStr">
+      <c r="C21" s="5" t="inlineStr">
         <is>
           <t>Lanao del Norte</t>
         </is>
       </c>
-      <c r="D21" s="4" t="n">
+      <c r="D21" s="5" t="n">
         <v>127159</v>
       </c>
-      <c r="E21" s="4" t="inlineStr">
+      <c r="E21" s="5" t="inlineStr">
         <is>
           <t>Bowi PS</t>
         </is>
       </c>
-      <c r="F21" s="4" t="inlineStr">
+      <c r="F21" s="5" t="inlineStr">
         <is>
           <t>PANTAR</t>
         </is>
       </c>
-      <c r="G21" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H21" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" s="4" t="n">
+      <c r="G21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J21" s="4" t="inlineStr">
+      <c r="J21" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF   RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM AND WATER SYSTEM </t>
         </is>
       </c>
-      <c r="K21" s="4" t="n">
+      <c r="K21" s="5" t="n">
         <v>17600258.64</v>
       </c>
-      <c r="L21" s="4" t="n">
+      <c r="L21" s="5" t="n">
         <v>14152726.43</v>
       </c>
-      <c r="M21" s="4" t="inlineStr">
+      <c r="M21" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N21" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O21" s="5" t="n">
+      <c r="N21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O21" s="6" t="n">
         <v>45447</v>
       </c>
-      <c r="P21" s="5" t="n">
+      <c r="P21" s="6" t="n">
         <v>45442</v>
       </c>
-      <c r="Q21" s="4" t="inlineStr">
+      <c r="Q21" s="5" t="inlineStr">
         <is>
           <t>2023 - 01(Infra)</t>
         </is>
       </c>
-      <c r="R21" s="4" t="n">
+      <c r="R21" s="5" t="n">
         <v>44927</v>
       </c>
-      <c r="S21" s="5" t="n">
+      <c r="S21" s="6" t="n">
         <v>45135</v>
       </c>
-      <c r="T21" s="5" t="n">
+      <c r="T21" s="6" t="n">
         <v>45145</v>
       </c>
-      <c r="U21" s="5" t="n">
+      <c r="U21" s="6" t="n">
         <v>45160</v>
       </c>
-      <c r="V21" s="5" t="n">
+      <c r="V21" s="6" t="n">
         <v>45170</v>
       </c>
-      <c r="W21" s="5" t="n">
+      <c r="W21" s="6" t="n">
         <v>45267</v>
       </c>
-      <c r="X21" s="4" t="inlineStr">
+      <c r="X21" s="5" t="inlineStr">
         <is>
           <t>SBM Builder's</t>
         </is>
       </c>
-      <c r="Y21" s="4" t="inlineStr">
+      <c r="Y21" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="Z21" s="4" t="n"/>
+      <c r="Z21" s="7" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="4" t="inlineStr">
+      <c r="A22" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B22" s="4" t="inlineStr">
+      <c r="B22" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C22" s="4" t="inlineStr">
+      <c r="C22" s="5" t="inlineStr">
         <is>
           <t>Lanao del Norte</t>
         </is>
       </c>
-      <c r="D22" s="4" t="n">
+      <c r="D22" s="5" t="n">
         <v>127175</v>
       </c>
-      <c r="E22" s="4" t="inlineStr">
+      <c r="E22" s="5" t="inlineStr">
         <is>
           <t>Bulacon PS</t>
         </is>
       </c>
-      <c r="F22" s="4" t="inlineStr">
+      <c r="F22" s="5" t="inlineStr">
         <is>
           <t>SALVADOR</t>
         </is>
       </c>
-      <c r="G22" s="4" t="n">
+      <c r="G22" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H22" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" s="4" t="n">
+      <c r="H22" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J22" s="4" t="inlineStr">
+      <c r="J22" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF   RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM AND WATER SYSTEM </t>
         </is>
       </c>
-      <c r="K22" s="4" t="n">
+      <c r="K22" s="5" t="n">
         <v>17609276.98</v>
       </c>
-      <c r="L22" s="4" t="n">
+      <c r="L22" s="5" t="n">
         <v>17116471.79</v>
       </c>
-      <c r="M22" s="4" t="inlineStr">
+      <c r="M22" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N22" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O22" s="5" t="n">
+      <c r="N22" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O22" s="6" t="n">
         <v>45736</v>
       </c>
-      <c r="P22" s="5" t="n">
+      <c r="P22" s="6" t="n">
         <v>45736</v>
       </c>
-      <c r="Q22" s="4" t="inlineStr">
+      <c r="Q22" s="5" t="inlineStr">
         <is>
           <t>2024 - 09(Infra)</t>
         </is>
       </c>
-      <c r="R22" s="4" t="n">
+      <c r="R22" s="5" t="n">
         <v>45536</v>
       </c>
-      <c r="S22" s="5" t="n">
+      <c r="S22" s="6" t="n">
         <v>45449</v>
       </c>
-      <c r="T22" s="5" t="n">
+      <c r="T22" s="6" t="n">
         <v>45457</v>
       </c>
-      <c r="U22" s="5" t="n">
+      <c r="U22" s="6" t="n">
         <v>45478</v>
       </c>
-      <c r="V22" s="5" t="n">
+      <c r="V22" s="6" t="n">
         <v>45509</v>
       </c>
-      <c r="W22" s="5" t="n">
+      <c r="W22" s="6" t="n">
         <v>45530</v>
       </c>
-      <c r="X22" s="4" t="inlineStr">
+      <c r="X22" s="5" t="inlineStr">
         <is>
           <t>Lanao Genesis Construction Supply</t>
         </is>
       </c>
-      <c r="Y22" s="4" t="inlineStr">
+      <c r="Y22" s="5" t="inlineStr">
         <is>
           <t>1st contract was terminated; 2nd contract NTP on Aug. 2024, looking for source of water for watersystem</t>
         </is>
       </c>
-      <c r="Z22" s="4" t="n"/>
+      <c r="Z22" s="7" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="4" t="inlineStr">
+      <c r="A23" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B23" s="4" t="inlineStr">
+      <c r="B23" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C23" s="4" t="inlineStr">
+      <c r="C23" s="5" t="inlineStr">
         <is>
           <t>Misamis Occidental</t>
         </is>
       </c>
-      <c r="D23" s="4" t="n">
+      <c r="D23" s="5" t="n">
         <v>501873</v>
       </c>
-      <c r="E23" s="4" t="inlineStr">
+      <c r="E23" s="5" t="inlineStr">
         <is>
           <t>Locus Integrated School</t>
         </is>
       </c>
-      <c r="F23" s="4" t="inlineStr">
+      <c r="F23" s="5" t="inlineStr">
         <is>
           <t>SAPANG DALAGA</t>
         </is>
       </c>
-      <c r="G23" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H23" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" s="4" t="n">
+      <c r="G23" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J23" s="4" t="inlineStr">
+      <c r="J23" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - THREE (3) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE AND SOLAR PV ENERGY SYSTEM</t>
         </is>
       </c>
-      <c r="K23" s="4" t="n">
+      <c r="K23" s="5" t="n">
         <v>17750076.13</v>
       </c>
-      <c r="L23" s="4" t="n">
+      <c r="L23" s="5" t="n">
         <v>17392036.74</v>
       </c>
-      <c r="M23" s="4" t="inlineStr">
+      <c r="M23" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N23" s="4" t="n">
+      <c r="N23" s="5" t="n">
         <v>0.95</v>
       </c>
-      <c r="O23" s="5" t="n">
+      <c r="O23" s="6" t="n">
         <v>45404</v>
       </c>
-      <c r="P23" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q23" s="4" t="inlineStr">
+      <c r="P23" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q23" s="5" t="inlineStr">
         <is>
           <t>LMS 2023 - RX - MISAMIS OCCIDENTAL - 001 - R</t>
         </is>
       </c>
-      <c r="R23" s="4" t="inlineStr">
+      <c r="R23" s="5" t="inlineStr">
         <is>
           <t>016-2023</t>
         </is>
       </c>
-      <c r="S23" s="5" t="n">
+      <c r="S23" s="6" t="n">
         <v>45140</v>
       </c>
-      <c r="T23" s="5" t="n">
+      <c r="T23" s="6" t="n">
         <v>45148</v>
       </c>
-      <c r="U23" s="5" t="n">
+      <c r="U23" s="6" t="n">
         <v>45163</v>
       </c>
-      <c r="V23" s="5" t="n">
+      <c r="V23" s="6" t="n">
         <v>45175</v>
       </c>
-      <c r="W23" s="5" t="n">
+      <c r="W23" s="6" t="n">
         <v>45216</v>
       </c>
-      <c r="X23" s="4" t="inlineStr">
+      <c r="X23" s="5" t="inlineStr">
         <is>
           <t>Genetian Builders &amp; Enterprises, Inc.</t>
         </is>
       </c>
-      <c r="Y23" s="4" t="inlineStr">
+      <c r="Y23" s="5" t="inlineStr">
         <is>
           <t>Schedule for Final Inspection on June 4, 2025.</t>
         </is>
       </c>
-      <c r="Z23" s="4" t="n"/>
+      <c r="Z23" s="7" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="4" t="inlineStr">
+      <c r="A24" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B24" s="4" t="inlineStr">
+      <c r="B24" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C24" s="4" t="inlineStr">
+      <c r="C24" s="5" t="inlineStr">
         <is>
           <t>Misamis Occidental</t>
         </is>
       </c>
-      <c r="D24" s="4" t="n">
+      <c r="D24" s="5" t="n">
         <v>127539</v>
       </c>
-      <c r="E24" s="4" t="inlineStr">
+      <c r="E24" s="5" t="inlineStr">
         <is>
           <t>Camanse ES</t>
         </is>
       </c>
-      <c r="F24" s="4" t="inlineStr">
+      <c r="F24" s="5" t="inlineStr">
         <is>
           <t>SINACABAN</t>
         </is>
       </c>
-      <c r="G24" s="4" t="n">
+      <c r="G24" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H24" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" s="4" t="n">
+      <c r="H24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J24" s="4" t="inlineStr">
+      <c r="J24" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - THREE (3) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE AND SOLAR PV ENERGY SYSTEM</t>
         </is>
       </c>
-      <c r="K24" s="4" t="n">
+      <c r="K24" s="5" t="n">
         <v>17472250.06</v>
       </c>
-      <c r="L24" s="4" t="n">
+      <c r="L24" s="5" t="n">
         <v>16780281.43</v>
       </c>
-      <c r="M24" s="4" t="inlineStr">
+      <c r="M24" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N24" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O24" s="5" t="n">
+      <c r="N24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O24" s="6" t="n">
         <v>45418</v>
       </c>
-      <c r="P24" s="5" t="n">
+      <c r="P24" s="6" t="n">
         <v>45456</v>
       </c>
-      <c r="Q24" s="4" t="inlineStr">
+      <c r="Q24" s="5" t="inlineStr">
         <is>
           <t>LMS 2023 - RX - MISAMIS OCCIDENTAL - 002 - R</t>
         </is>
       </c>
-      <c r="R24" s="4" t="inlineStr">
+      <c r="R24" s="5" t="inlineStr">
         <is>
           <t>017-2023</t>
         </is>
       </c>
-      <c r="S24" s="5" t="n">
+      <c r="S24" s="6" t="n">
         <v>45140</v>
       </c>
-      <c r="T24" s="5" t="n">
+      <c r="T24" s="6" t="n">
         <v>45148</v>
       </c>
-      <c r="U24" s="5" t="n">
+      <c r="U24" s="6" t="n">
         <v>45163</v>
       </c>
-      <c r="V24" s="5" t="n">
+      <c r="V24" s="6" t="n">
         <v>45175</v>
       </c>
-      <c r="W24" s="5" t="n">
+      <c r="W24" s="6" t="n">
         <v>45238</v>
       </c>
-      <c r="X24" s="4" t="inlineStr">
+      <c r="X24" s="5" t="inlineStr">
         <is>
           <t>Genetian Builders &amp; Enterprises, Inc.</t>
         </is>
       </c>
-      <c r="Y24" s="4" t="inlineStr">
+      <c r="Y24" s="5" t="inlineStr">
         <is>
           <t>Completed with occupancy permit</t>
         </is>
       </c>
-      <c r="Z24" s="4" t="n"/>
+      <c r="Z24" s="7" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="4" t="inlineStr">
+      <c r="A25" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B25" s="4" t="inlineStr">
+      <c r="B25" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C25" s="4" t="inlineStr">
+      <c r="C25" s="5" t="inlineStr">
         <is>
           <t>Misamis Oriental</t>
         </is>
       </c>
-      <c r="D25" s="4" t="n">
+      <c r="D25" s="5" t="n">
         <v>130154</v>
       </c>
-      <c r="E25" s="4" t="inlineStr">
+      <c r="E25" s="5" t="inlineStr">
         <is>
           <t>Kinanao Pamalihi ES</t>
         </is>
       </c>
-      <c r="F25" s="4" t="inlineStr">
+      <c r="F25" s="5" t="inlineStr">
         <is>
           <t>BALINGASAG</t>
         </is>
       </c>
-      <c r="G25" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H25" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" s="4" t="n">
+      <c r="G25" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J25" s="4" t="inlineStr">
+      <c r="J25" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF 2 UNITS ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K25" s="4" t="n">
+      <c r="K25" s="5" t="n">
         <v>19632409.94</v>
       </c>
-      <c r="L25" s="4" t="n">
+      <c r="L25" s="5" t="n">
         <v>17364431.28</v>
       </c>
-      <c r="M25" s="4" t="inlineStr">
+      <c r="M25" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N25" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O25" s="5" t="n">
+      <c r="N25" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O25" s="6" t="n">
         <v>45416</v>
       </c>
-      <c r="P25" s="5" t="n">
+      <c r="P25" s="6" t="n">
         <v>45641</v>
       </c>
-      <c r="Q25" s="4" t="inlineStr">
+      <c r="Q25" s="5" t="inlineStr">
         <is>
           <t>PB - Construction-2023-002</t>
         </is>
       </c>
-      <c r="R25" s="4" t="n">
+      <c r="R25" s="5" t="n">
         <v>4673305</v>
       </c>
-      <c r="S25" s="4" t="inlineStr">
+      <c r="S25" s="5" t="inlineStr">
         <is>
           <t>June 3,2023</t>
         </is>
       </c>
-      <c r="T25" s="4" t="inlineStr">
+      <c r="T25" s="5" t="inlineStr">
         <is>
           <t>June 13,2023</t>
         </is>
       </c>
-      <c r="U25" s="4" t="inlineStr">
+      <c r="U25" s="5" t="inlineStr">
         <is>
           <t>June 27,2023</t>
         </is>
       </c>
-      <c r="V25" s="4" t="inlineStr">
+      <c r="V25" s="5" t="inlineStr">
         <is>
           <t>July 27,2023</t>
         </is>
       </c>
-      <c r="W25" s="5" t="n">
+      <c r="W25" s="6" t="n">
         <v>45289</v>
       </c>
-      <c r="X25" s="4" t="inlineStr">
+      <c r="X25" s="5" t="inlineStr">
         <is>
           <t>Minkonstrak Engineering and Gen Services</t>
         </is>
       </c>
-      <c r="Y25" s="4" t="inlineStr">
+      <c r="Y25" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="Z25" s="4" t="n"/>
+      <c r="Z25" s="7" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="4" t="inlineStr">
+      <c r="A26" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B26" s="4" t="inlineStr">
+      <c r="B26" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C26" s="4" t="inlineStr">
+      <c r="C26" s="5" t="inlineStr">
         <is>
           <t>Bukidnon</t>
         </is>
       </c>
-      <c r="D26" s="4" t="n">
+      <c r="D26" s="5" t="n">
         <v>113847</v>
       </c>
-      <c r="E26" s="4" t="inlineStr">
+      <c r="E26" s="5" t="inlineStr">
         <is>
           <t>Basbasanan To Goynawa To Balakayo</t>
         </is>
       </c>
-      <c r="F26" s="4" t="inlineStr">
+      <c r="F26" s="5" t="inlineStr">
         <is>
           <t>SAN FERNANDO</t>
         </is>
       </c>
-      <c r="G26" s="4" t="inlineStr">
+      <c r="G26" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">2nd </t>
         </is>
       </c>
-      <c r="H26" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" s="4" t="n">
+      <c r="H26" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J26" s="4" t="inlineStr">
+      <c r="J26" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF BUILDING NO.1- 1 STOREY 3 CLASSROOM BUILDING with TOILET ATTACHED, wITH  PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, WATER SYSTEM, PERIMETER GATE AND FENCE</t>
         </is>
       </c>
-      <c r="K26" s="4" t="n">
+      <c r="K26" s="5" t="n">
         <v>11198312.24</v>
       </c>
-      <c r="L26" s="4" t="n">
+      <c r="L26" s="5" t="n">
         <v>8493552.5</v>
       </c>
-      <c r="M26" s="4" t="inlineStr">
+      <c r="M26" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N26" s="4" t="n">
+      <c r="N26" s="5" t="n">
         <v>0.95</v>
       </c>
-      <c r="O26" s="4" t="inlineStr">
+      <c r="O26" s="5" t="inlineStr">
         <is>
           <t>Revised to June 10, 2025</t>
         </is>
       </c>
-      <c r="P26" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q26" s="4" t="inlineStr">
+      <c r="P26" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q26" s="5" t="inlineStr">
         <is>
           <t>PB-02-11-2023-0026</t>
         </is>
       </c>
-      <c r="R26" s="4" t="inlineStr">
+      <c r="R26" s="5" t="inlineStr">
         <is>
           <t>012-2024</t>
         </is>
       </c>
-      <c r="S26" s="5" t="n">
+      <c r="S26" s="6" t="n">
         <v>45256</v>
       </c>
-      <c r="T26" s="5" t="n">
+      <c r="T26" s="6" t="n">
         <v>45264</v>
       </c>
-      <c r="U26" s="5" t="n">
+      <c r="U26" s="6" t="n">
         <v>45278</v>
       </c>
-      <c r="V26" s="5" t="n">
+      <c r="V26" s="6" t="n">
         <v>45287</v>
       </c>
-      <c r="W26" s="5" t="n">
+      <c r="W26" s="6" t="n">
         <v>45432</v>
       </c>
-      <c r="X26" s="4" t="inlineStr">
+      <c r="X26" s="5" t="inlineStr">
         <is>
           <t>Vibranium Builders Corporation</t>
         </is>
       </c>
-      <c r="Y26" s="4" t="inlineStr">
+      <c r="Y26" s="5" t="inlineStr">
         <is>
           <t>Substantially Completed; with Approved Time extension no.'s 1&amp;2, variation order no.'s 1&amp;2 and due to unfavorable weather conditions. Request a extension  awaits the delivery of furniture.</t>
         </is>
       </c>
-      <c r="Z26" s="4" t="n"/>
+      <c r="Z26" s="7" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="4" t="inlineStr">
+      <c r="A27" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B27" s="4" t="inlineStr">
+      <c r="B27" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C27" s="4" t="inlineStr">
+      <c r="C27" s="5" t="inlineStr">
         <is>
           <t>Bukidnon</t>
         </is>
       </c>
-      <c r="D27" s="4" t="n">
+      <c r="D27" s="5" t="n">
         <v>113847</v>
       </c>
-      <c r="E27" s="4" t="inlineStr">
+      <c r="E27" s="5" t="inlineStr">
         <is>
           <t>Basbasanan To Goynawa To Balakayo</t>
         </is>
       </c>
-      <c r="F27" s="4" t="inlineStr">
+      <c r="F27" s="5" t="inlineStr">
         <is>
           <t>SAN FERNANDO</t>
         </is>
       </c>
-      <c r="G27" s="4" t="inlineStr">
+      <c r="G27" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">2nd </t>
         </is>
       </c>
-      <c r="H27" s="4" t="inlineStr"/>
-      <c r="I27" s="4" t="n">
+      <c r="H27" s="5" t="inlineStr"/>
+      <c r="I27" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J27" s="4" t="inlineStr">
+      <c r="J27" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION BUILDING NO. 2- 1 STOREY 2 CLASSROOM BUILDING WITH TOILET ATTACHED WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM AND PERIMETER SOLAR LIGHTS</t>
         </is>
       </c>
-      <c r="K27" s="4" t="n">
+      <c r="K27" s="5" t="n">
         <v>14860395.24</v>
       </c>
-      <c r="L27" s="4" t="n">
+      <c r="L27" s="5" t="n">
         <v>8493552.5</v>
       </c>
-      <c r="M27" s="4" t="inlineStr">
+      <c r="M27" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N27" s="4" t="n">
+      <c r="N27" s="5" t="n">
         <v>0.95</v>
       </c>
-      <c r="O27" s="4" t="inlineStr">
+      <c r="O27" s="5" t="inlineStr">
         <is>
           <t>Revised to June 10, 2025</t>
         </is>
       </c>
-      <c r="P27" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q27" s="4" t="inlineStr">
+      <c r="P27" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q27" s="5" t="inlineStr">
         <is>
           <t>PB-02-11-2023-0026</t>
         </is>
       </c>
-      <c r="R27" s="4" t="inlineStr">
+      <c r="R27" s="5" t="inlineStr">
         <is>
           <t>012-2024</t>
         </is>
       </c>
-      <c r="S27" s="5" t="n">
+      <c r="S27" s="6" t="n">
         <v>45256</v>
       </c>
-      <c r="T27" s="5" t="n">
+      <c r="T27" s="6" t="n">
         <v>45264</v>
       </c>
-      <c r="U27" s="5" t="n">
+      <c r="U27" s="6" t="n">
         <v>45278</v>
       </c>
-      <c r="V27" s="5" t="n">
+      <c r="V27" s="6" t="n">
         <v>45287</v>
       </c>
-      <c r="W27" s="5" t="n">
+      <c r="W27" s="6" t="n">
         <v>45432</v>
       </c>
-      <c r="X27" s="4" t="inlineStr">
+      <c r="X27" s="5" t="inlineStr">
         <is>
           <t>Vibranium Builders Corporation</t>
         </is>
       </c>
-      <c r="Y27" s="4" t="inlineStr">
+      <c r="Y27" s="5" t="inlineStr">
         <is>
           <t>substantially completed; with Approved Time extension no.'s 1&amp;2, variation order no.'s 1&amp;2 and due to unfavorable weather conditions. Request a extension  awaits the delivery of furniture.</t>
         </is>
       </c>
-      <c r="Z27" s="4" t="n"/>
+      <c r="Z27" s="7" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="4" t="inlineStr">
+      <c r="A28" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B28" s="4" t="inlineStr">
+      <c r="B28" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C28" s="4" t="inlineStr">
+      <c r="C28" s="5" t="inlineStr">
         <is>
           <t>El Salvador</t>
         </is>
       </c>
-      <c r="D28" s="4" t="n">
+      <c r="D28" s="5" t="n">
         <v>305683</v>
       </c>
-      <c r="E28" s="4" t="inlineStr">
+      <c r="E28" s="5" t="inlineStr">
         <is>
           <t>Sambulawan National High School</t>
         </is>
       </c>
-      <c r="F28" s="4" t="inlineStr">
+      <c r="F28" s="5" t="inlineStr">
         <is>
           <t>CITY OF EL SALVADOR</t>
         </is>
       </c>
-      <c r="G28" s="4" t="inlineStr">
+      <c r="G28" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">2nd </t>
         </is>
       </c>
-      <c r="H28" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" s="4" t="n">
+      <c r="H28" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J28" s="4" t="inlineStr">
+      <c r="J28" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">CONSTRUCTION OF 1STY3CL SCHOOL BUILDING (WITH TOILET) WITH PROVISION SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, WATER SYSTEM AND FLOOD MARKER </t>
         </is>
       </c>
-      <c r="K28" s="4" t="n">
+      <c r="K28" s="5" t="n">
         <v>16488351.52</v>
       </c>
-      <c r="L28" s="4" t="n">
+      <c r="L28" s="5" t="n">
         <v>12568813.6</v>
       </c>
-      <c r="M28" s="4" t="inlineStr">
+      <c r="M28" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N28" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O28" s="5" t="n">
+      <c r="N28" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O28" s="6" t="n">
         <v>45580</v>
       </c>
-      <c r="P28" s="5" t="n">
+      <c r="P28" s="6" t="n">
         <v>45608</v>
       </c>
-      <c r="Q28" s="4" t="inlineStr">
+      <c r="Q28" s="5" t="inlineStr">
         <is>
           <t>2024-01-0003</t>
         </is>
       </c>
-      <c r="R28" s="4" t="inlineStr">
+      <c r="R28" s="5" t="inlineStr">
         <is>
           <t>2024-02-0002</t>
         </is>
       </c>
-      <c r="S28" s="5" t="n">
+      <c r="S28" s="6" t="n">
         <v>45295</v>
       </c>
-      <c r="T28" s="5" t="n">
+      <c r="T28" s="6" t="n">
         <v>45314</v>
       </c>
-      <c r="U28" s="5" t="n">
+      <c r="U28" s="6" t="n">
         <v>45329</v>
       </c>
-      <c r="V28" s="5" t="n">
+      <c r="V28" s="6" t="n">
         <v>45420</v>
       </c>
-      <c r="W28" s="5" t="n">
+      <c r="W28" s="6" t="n">
         <v>45433</v>
       </c>
-      <c r="X28" s="4" t="inlineStr">
+      <c r="X28" s="5" t="inlineStr">
         <is>
           <t>JDE Construction</t>
         </is>
       </c>
-      <c r="Y28" s="4" t="inlineStr">
+      <c r="Y28" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="Z28" s="4" t="n"/>
+      <c r="Z28" s="7" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="4" t="inlineStr">
+      <c r="A29" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B29" s="4" t="inlineStr">
+      <c r="B29" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C29" s="4" t="inlineStr">
+      <c r="C29" s="5" t="inlineStr">
         <is>
           <t>Gingoog City</t>
         </is>
       </c>
-      <c r="D29" s="4" t="n">
+      <c r="D29" s="5" t="n">
         <v>111092</v>
       </c>
-      <c r="E29" s="4" t="inlineStr">
+      <c r="E29" s="5" t="inlineStr">
         <is>
           <t>Sagu-Ilaw Ta Kabuka Elementary School</t>
         </is>
       </c>
-      <c r="F29" s="4" t="inlineStr">
+      <c r="F29" s="5" t="inlineStr">
         <is>
           <t>GINGOOG CITY</t>
         </is>
       </c>
-      <c r="G29" s="4" t="inlineStr">
+      <c r="G29" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">1st </t>
         </is>
       </c>
-      <c r="H29" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" s="4" t="n">
+      <c r="H29" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J29" s="4" t="inlineStr">
+      <c r="J29" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE AND SOLAR PV ENERGY SYSTEM </t>
         </is>
       </c>
-      <c r="K29" s="4" t="n">
+      <c r="K29" s="5" t="n">
         <v>22120108.86</v>
       </c>
-      <c r="L29" s="4" t="n">
+      <c r="L29" s="5" t="n">
         <v>21858003.57</v>
       </c>
-      <c r="M29" s="4" t="inlineStr">
+      <c r="M29" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N29" s="4" t="n">
+      <c r="N29" s="5" t="n">
         <v>0.5</v>
       </c>
-      <c r="O29" s="5" t="n">
+      <c r="O29" s="6" t="n">
         <v>45802</v>
       </c>
-      <c r="P29" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q29" s="4" t="inlineStr">
+      <c r="P29" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q29" s="5" t="inlineStr">
         <is>
           <t>LMS 2023 - RX - GINGOOG CITY - 004</t>
         </is>
       </c>
-      <c r="R29" s="4" t="inlineStr">
+      <c r="R29" s="5" t="inlineStr">
         <is>
           <t>BMB-F-24-0000862</t>
         </is>
       </c>
-      <c r="S29" s="5" t="n">
+      <c r="S29" s="6" t="n">
         <v>45233</v>
       </c>
-      <c r="T29" s="5" t="n">
+      <c r="T29" s="6" t="n">
         <v>45240</v>
       </c>
-      <c r="U29" s="5" t="n">
+      <c r="U29" s="6" t="n">
         <v>45251</v>
       </c>
-      <c r="V29" s="5" t="n">
+      <c r="V29" s="6" t="n">
         <v>45433</v>
       </c>
-      <c r="W29" s="5" t="n">
+      <c r="W29" s="6" t="n">
         <v>45446</v>
       </c>
-      <c r="X29" s="4" t="inlineStr">
+      <c r="X29" s="5" t="inlineStr">
         <is>
           <t>Blaff Construction and Supplies</t>
         </is>
       </c>
-      <c r="Y29" s="4" t="inlineStr">
+      <c r="Y29" s="5" t="inlineStr">
         <is>
           <t>On-going Construction (under time suspension - due to actual site condition)</t>
         </is>
       </c>
-      <c r="Z29" s="4" t="n"/>
+      <c r="Z29" s="7" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="4" t="inlineStr">
+      <c r="A30" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B30" s="4" t="inlineStr">
+      <c r="B30" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C30" s="4" t="inlineStr">
+      <c r="C30" s="5" t="inlineStr">
         <is>
           <t>Iligan City</t>
         </is>
       </c>
-      <c r="D30" s="4" t="n">
+      <c r="D30" s="5" t="n">
         <v>128131</v>
       </c>
-      <c r="E30" s="4" t="inlineStr">
+      <c r="E30" s="5" t="inlineStr">
         <is>
           <t>Panoroganan ES</t>
         </is>
       </c>
-      <c r="F30" s="4" t="inlineStr">
+      <c r="F30" s="5" t="inlineStr">
         <is>
           <t>ILIGAN CITY</t>
         </is>
       </c>
-      <c r="G30" s="4" t="inlineStr">
+      <c r="G30" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Lone </t>
         </is>
       </c>
-      <c r="H30" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" s="4" t="n">
+      <c r="H30" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J30" s="4" t="inlineStr">
+      <c r="J30" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE AND SOLAR PV ENERGY SYSTEM</t>
         </is>
       </c>
-      <c r="K30" s="4" t="n">
+      <c r="K30" s="5" t="n">
         <v>15851835.73</v>
       </c>
-      <c r="L30" s="4" t="n">
+      <c r="L30" s="5" t="n">
         <v>12555775.14</v>
       </c>
-      <c r="M30" s="4" t="inlineStr">
+      <c r="M30" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N30" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O30" s="5" t="n">
+      <c r="N30" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O30" s="6" t="n">
         <v>45667</v>
       </c>
-      <c r="P30" s="5" t="n">
+      <c r="P30" s="6" t="n">
         <v>45700</v>
       </c>
-      <c r="Q30" s="4" t="inlineStr">
+      <c r="Q30" s="5" t="inlineStr">
         <is>
           <t>INFRA-2023-11-03</t>
         </is>
       </c>
-      <c r="R30" s="4" t="inlineStr">
+      <c r="R30" s="5" t="inlineStr">
         <is>
           <t>INFRA-2023-11-03</t>
         </is>
       </c>
-      <c r="S30" s="5" t="n">
+      <c r="S30" s="6" t="n">
         <v>45258</v>
       </c>
-      <c r="T30" s="5" t="n">
+      <c r="T30" s="6" t="n">
         <v>45266</v>
       </c>
-      <c r="U30" s="5" t="n">
+      <c r="U30" s="6" t="n">
         <v>45280</v>
       </c>
-      <c r="V30" s="5" t="n">
+      <c r="V30" s="6" t="n">
         <v>45317</v>
       </c>
-      <c r="W30" s="5" t="n">
+      <c r="W30" s="6" t="n">
         <v>45443</v>
       </c>
-      <c r="X30" s="4" t="inlineStr">
+      <c r="X30" s="5" t="inlineStr">
         <is>
           <t>Brima Construction and Enterprise</t>
         </is>
       </c>
-      <c r="Y30" s="4" t="inlineStr">
+      <c r="Y30" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="Z30" s="4" t="n"/>
+      <c r="Z30" s="7" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="4" t="inlineStr">
+      <c r="A31" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B31" s="4" t="inlineStr">
+      <c r="B31" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C31" s="4" t="inlineStr">
+      <c r="C31" s="5" t="inlineStr">
         <is>
           <t>Malaybalay City</t>
         </is>
       </c>
-      <c r="D31" s="4" t="n">
+      <c r="D31" s="5" t="n">
         <v>501853</v>
       </c>
-      <c r="E31" s="4" t="inlineStr">
+      <c r="E31" s="5" t="inlineStr">
         <is>
           <t>Mapayag Integrated School</t>
         </is>
       </c>
-      <c r="F31" s="4" t="inlineStr">
+      <c r="F31" s="5" t="inlineStr">
         <is>
           <t>CITY MALAYBALAY (Capital)</t>
         </is>
       </c>
-      <c r="G31" s="4" t="inlineStr">
+      <c r="G31" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">2nd </t>
         </is>
       </c>
-      <c r="H31" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" s="4" t="inlineStr"/>
-      <c r="J31" s="4" t="inlineStr">
+      <c r="H31" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" s="5" t="inlineStr"/>
+      <c r="J31" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">CONSTRUCTION OF SCHOOL BUILDING (WITH TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, WATER SYSTEM AND FLOOD MARKER </t>
         </is>
       </c>
-      <c r="K31" s="4" t="n">
+      <c r="K31" s="5" t="n">
         <v>18241095.24</v>
       </c>
-      <c r="L31" s="4" t="n">
+      <c r="L31" s="5" t="n">
         <v>14778549.81</v>
       </c>
-      <c r="M31" s="4" t="inlineStr">
+      <c r="M31" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N31" s="4" t="n">
+      <c r="N31" s="5" t="n">
         <v>0.9</v>
       </c>
-      <c r="O31" s="5" t="n">
+      <c r="O31" s="6" t="n">
         <v>45754</v>
       </c>
-      <c r="P31" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q31" s="4" t="inlineStr">
+      <c r="P31" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q31" s="5" t="inlineStr">
         <is>
           <t>003-INFRA-2023</t>
         </is>
       </c>
-      <c r="R31" s="4" t="inlineStr">
+      <c r="R31" s="5" t="inlineStr">
         <is>
           <t>003-INFRA-2023</t>
         </is>
       </c>
-      <c r="S31" s="5" t="n">
+      <c r="S31" s="6" t="n">
         <v>45259</v>
       </c>
-      <c r="T31" s="5" t="n">
+      <c r="T31" s="6" t="n">
         <v>45267</v>
       </c>
-      <c r="U31" s="5" t="n">
+      <c r="U31" s="6" t="n">
         <v>45279</v>
       </c>
-      <c r="V31" s="5" t="n">
+      <c r="V31" s="6" t="n">
         <v>45279</v>
       </c>
-      <c r="W31" s="5" t="n">
+      <c r="W31" s="6" t="n">
         <v>45544</v>
       </c>
-      <c r="X31" s="4" t="inlineStr">
+      <c r="X31" s="5" t="inlineStr">
         <is>
           <t>Vimbranium Builder's Corporation</t>
         </is>
       </c>
-      <c r="Y31" s="4" t="inlineStr">
+      <c r="Y31" s="5" t="inlineStr">
         <is>
           <t>Approved Time Extension equivalent to 30 CDs.</t>
         </is>
       </c>
-      <c r="Z31" s="4" t="n"/>
+      <c r="Z31" s="7" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="4" t="inlineStr">
+      <c r="A32" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B32" s="4" t="inlineStr">
+      <c r="B32" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C32" s="4" t="inlineStr">
+      <c r="C32" s="5" t="inlineStr">
         <is>
           <t>Misamis Occidental</t>
         </is>
       </c>
-      <c r="D32" s="4" t="n">
+      <c r="D32" s="5" t="n">
         <v>127568</v>
       </c>
-      <c r="E32" s="4" t="inlineStr">
+      <c r="E32" s="5" t="inlineStr">
         <is>
           <t>Gala ES</t>
         </is>
       </c>
-      <c r="F32" s="4" t="inlineStr">
+      <c r="F32" s="5" t="inlineStr">
         <is>
           <t>TUDELA</t>
         </is>
       </c>
-      <c r="G32" s="4" t="inlineStr">
+      <c r="G32" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">2nd </t>
         </is>
       </c>
-      <c r="H32" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" s="4" t="n">
+      <c r="H32" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I32" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J32" s="4" t="inlineStr">
+      <c r="J32" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE AND SOLAR PV ENERGY SYSTEM</t>
         </is>
       </c>
-      <c r="K32" s="4" t="n">
+      <c r="K32" s="5" t="n">
         <v>16544911.02</v>
       </c>
-      <c r="L32" s="4" t="n">
+      <c r="L32" s="5" t="n">
         <v>16369981.76</v>
       </c>
-      <c r="M32" s="4" t="inlineStr">
+      <c r="M32" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N32" s="4" t="n">
+      <c r="N32" s="5" t="n">
         <v>0.95</v>
       </c>
-      <c r="O32" s="5" t="n">
+      <c r="O32" s="6" t="n">
         <v>45370</v>
       </c>
-      <c r="P32" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q32" s="4" t="inlineStr">
+      <c r="P32" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q32" s="5" t="inlineStr">
         <is>
           <t>LMS 2024 - RX - MISAMIS OCCIDENTAL - 002</t>
         </is>
       </c>
-      <c r="R32" s="4" t="inlineStr">
+      <c r="R32" s="5" t="inlineStr">
         <is>
           <t>011-2024</t>
         </is>
       </c>
-      <c r="S32" s="5" t="n">
+      <c r="S32" s="6" t="n">
         <v>45307</v>
       </c>
-      <c r="T32" s="5" t="n">
+      <c r="T32" s="6" t="n">
         <v>45315</v>
       </c>
-      <c r="U32" s="5" t="n">
+      <c r="U32" s="6" t="n">
         <v>45327</v>
       </c>
-      <c r="V32" s="5" t="n">
+      <c r="V32" s="6" t="n">
         <v>45375</v>
       </c>
-      <c r="W32" s="5" t="n">
+      <c r="W32" s="6" t="n">
         <v>45495</v>
       </c>
-      <c r="X32" s="4" t="inlineStr">
+      <c r="X32" s="5" t="inlineStr">
         <is>
           <t>RJLG CONSTRUCTION AND SUPPLIES</t>
         </is>
       </c>
-      <c r="Y32" s="4" t="inlineStr">
+      <c r="Y32" s="5" t="inlineStr">
         <is>
           <t>For final inspection on June 11, 2025</t>
         </is>
       </c>
-      <c r="Z32" s="4" t="n"/>
+      <c r="Z32" s="7" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" s="4" t="inlineStr">
+      <c r="A33" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B33" s="4" t="inlineStr">
+      <c r="B33" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C33" s="4" t="inlineStr">
+      <c r="C33" s="5" t="inlineStr">
         <is>
           <t>Misamis Oriental</t>
         </is>
       </c>
-      <c r="D33" s="4" t="n">
+      <c r="D33" s="5" t="n">
         <v>201506</v>
       </c>
-      <c r="E33" s="4" t="inlineStr">
+      <c r="E33" s="5" t="inlineStr">
         <is>
           <t>Kalitian ES</t>
         </is>
       </c>
-      <c r="F33" s="4" t="inlineStr">
+      <c r="F33" s="5" t="inlineStr">
         <is>
           <t>KINOGUITAN</t>
         </is>
       </c>
-      <c r="G33" s="4" t="inlineStr">
+      <c r="G33" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">1st </t>
         </is>
       </c>
-      <c r="H33" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" s="4" t="n">
+      <c r="H33" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I33" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J33" s="4" t="inlineStr">
+      <c r="J33" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF   RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K33" s="4" t="n">
+      <c r="K33" s="5" t="n">
         <v>17917491.26</v>
       </c>
-      <c r="L33" s="4" t="n">
+      <c r="L33" s="5" t="n">
         <v>14458743.76</v>
       </c>
-      <c r="M33" s="4" t="inlineStr">
+      <c r="M33" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N33" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O33" s="5" t="n">
+      <c r="N33" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O33" s="6" t="n">
         <v>45613</v>
       </c>
-      <c r="P33" s="5" t="n">
+      <c r="P33" s="6" t="n">
         <v>45644</v>
       </c>
-      <c r="Q33" s="4" t="inlineStr">
+      <c r="Q33" s="5" t="inlineStr">
         <is>
           <t>PB-BAC1-Construction 2024-001</t>
         </is>
       </c>
-      <c r="R33" s="4" t="n">
+      <c r="R33" s="5" t="n">
         <v>4919317</v>
       </c>
-      <c r="S33" s="5" t="n">
+      <c r="S33" s="6" t="n">
         <v>45308</v>
       </c>
-      <c r="T33" s="5" t="n">
+      <c r="T33" s="6" t="n">
         <v>45315</v>
       </c>
-      <c r="U33" s="5" t="n">
+      <c r="U33" s="6" t="n">
         <v>45327</v>
       </c>
-      <c r="V33" s="5" t="n">
+      <c r="V33" s="6" t="n">
         <v>45343</v>
       </c>
-      <c r="W33" s="5" t="n">
+      <c r="W33" s="6" t="n">
         <v>45456</v>
       </c>
-      <c r="X33" s="4" t="inlineStr">
+      <c r="X33" s="5" t="inlineStr">
         <is>
           <t>CLC Construction Services &amp; Supply</t>
         </is>
       </c>
-      <c r="Y33" s="4" t="inlineStr">
+      <c r="Y33" s="5" t="inlineStr">
         <is>
           <t>Completed (Including Variation Order)</t>
         </is>
       </c>
-      <c r="Z33" s="4" t="n"/>
+      <c r="Z33" s="7" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="4" t="inlineStr">
+      <c r="A34" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B34" s="4" t="inlineStr">
+      <c r="B34" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C34" s="4" t="inlineStr">
+      <c r="C34" s="5" t="inlineStr">
         <is>
           <t>Misamis Oriental</t>
         </is>
       </c>
-      <c r="D34" s="4" t="n">
+      <c r="D34" s="5" t="n">
         <v>201503</v>
       </c>
-      <c r="E34" s="4" t="inlineStr">
+      <c r="E34" s="5" t="inlineStr">
         <is>
           <t>Lonsi ES</t>
         </is>
       </c>
-      <c r="F34" s="4" t="inlineStr">
+      <c r="F34" s="5" t="inlineStr">
         <is>
           <t>ALUBIJID</t>
         </is>
       </c>
-      <c r="G34" s="4" t="inlineStr">
+      <c r="G34" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">2nd </t>
         </is>
       </c>
-      <c r="H34" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" s="4" t="n">
+      <c r="H34" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I34" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J34" s="4" t="inlineStr">
+      <c r="J34" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF   RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K34" s="4" t="n">
+      <c r="K34" s="5" t="n">
         <v>16902227.11</v>
       </c>
-      <c r="L34" s="4" t="n">
+      <c r="L34" s="5" t="n">
         <v>13216388.97</v>
       </c>
-      <c r="M34" s="4" t="inlineStr">
+      <c r="M34" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N34" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O34" s="5" t="n">
+      <c r="N34" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O34" s="6" t="n">
         <v>45613</v>
       </c>
-      <c r="P34" s="5" t="n">
+      <c r="P34" s="6" t="n">
         <v>45736</v>
       </c>
-      <c r="Q34" s="4" t="inlineStr">
+      <c r="Q34" s="5" t="inlineStr">
         <is>
           <t>PB-BAC1-Construction 2024-002</t>
         </is>
       </c>
-      <c r="R34" s="4" t="n">
+      <c r="R34" s="5" t="n">
         <v>4919350</v>
       </c>
-      <c r="S34" s="5" t="n">
+      <c r="S34" s="6" t="n">
         <v>45308</v>
       </c>
-      <c r="T34" s="5" t="n">
+      <c r="T34" s="6" t="n">
         <v>45315</v>
       </c>
-      <c r="U34" s="5" t="n">
+      <c r="U34" s="6" t="n">
         <v>45327</v>
       </c>
-      <c r="V34" s="5" t="n">
+      <c r="V34" s="6" t="n">
         <v>45343</v>
       </c>
-      <c r="W34" s="5" t="n">
+      <c r="W34" s="6" t="n">
         <v>45456</v>
       </c>
-      <c r="X34" s="4" t="inlineStr">
+      <c r="X34" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Trench </t>
         </is>
       </c>
-      <c r="Y34" s="4" t="inlineStr">
+      <c r="Y34" s="5" t="inlineStr">
         <is>
           <t>Completed (Including Variation Order )</t>
         </is>
       </c>
-      <c r="Z34" s="4" t="n"/>
+      <c r="Z34" s="7" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="4" t="inlineStr">
+      <c r="A35" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B35" s="4" t="inlineStr">
+      <c r="B35" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C35" s="4" t="inlineStr">
+      <c r="C35" s="5" t="inlineStr">
         <is>
           <t>Oroquieta City</t>
         </is>
       </c>
-      <c r="D35" s="4" t="n">
+      <c r="D35" s="5" t="n">
         <v>238501</v>
       </c>
-      <c r="E35" s="4" t="inlineStr">
+      <c r="E35" s="5" t="inlineStr">
         <is>
           <t>Kanowanan Tribal ES</t>
         </is>
       </c>
-      <c r="F35" s="4" t="inlineStr">
+      <c r="F35" s="5" t="inlineStr">
         <is>
           <t>OROQUIETA CITY (Capital)</t>
         </is>
       </c>
-      <c r="G35" s="4" t="inlineStr">
+      <c r="G35" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">1st </t>
         </is>
       </c>
-      <c r="H35" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" s="4" t="n">
+      <c r="H35" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I35" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J35" s="4" t="inlineStr">
+      <c r="J35" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">CONSTRUCTION OF 1STY2CL SCHOOL BUILDING (WITH TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM  AND FLOOD MARKER </t>
         </is>
       </c>
-      <c r="K35" s="4" t="n">
+      <c r="K35" s="5" t="n">
         <v>15701425.95</v>
       </c>
-      <c r="L35" s="4" t="n">
+      <c r="L35" s="5" t="n">
         <v>13445916.11</v>
       </c>
-      <c r="M35" s="4" t="inlineStr">
+      <c r="M35" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N35" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O35" s="5" t="n">
+      <c r="N35" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O35" s="6" t="n">
         <v>45575</v>
       </c>
-      <c r="P35" s="5" t="n">
+      <c r="P35" s="6" t="n">
         <v>45635</v>
       </c>
-      <c r="Q35" s="4" t="inlineStr"/>
-      <c r="R35" s="4" t="inlineStr"/>
-      <c r="S35" s="5" t="n">
+      <c r="Q35" s="5" t="inlineStr"/>
+      <c r="R35" s="5" t="inlineStr"/>
+      <c r="S35" s="6" t="n">
         <v>45619</v>
       </c>
-      <c r="T35" s="5" t="n">
+      <c r="T35" s="6" t="n">
         <v>45626</v>
       </c>
-      <c r="U35" s="5" t="n">
+      <c r="U35" s="6" t="n">
         <v>45274</v>
       </c>
-      <c r="V35" s="5" t="n">
+      <c r="V35" s="6" t="n">
         <v>45415</v>
       </c>
-      <c r="W35" s="5" t="n">
+      <c r="W35" s="6" t="n">
         <v>45422</v>
       </c>
-      <c r="X35" s="4" t="inlineStr">
+      <c r="X35" s="5" t="inlineStr">
         <is>
           <t>RSMA BUILDERS &amp; GEN. MDSE</t>
         </is>
       </c>
-      <c r="Y35" s="4" t="inlineStr">
+      <c r="Y35" s="5" t="inlineStr">
         <is>
           <t>Processing for Occupancy Permit.</t>
         </is>
       </c>
-      <c r="Z35" s="4" t="n"/>
+      <c r="Z35" s="7" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="4" t="inlineStr">
+      <c r="A36" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B36" s="4" t="inlineStr">
+      <c r="B36" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C36" s="4" t="inlineStr">
+      <c r="C36" s="5" t="inlineStr">
         <is>
           <t>Ozamis City</t>
         </is>
       </c>
-      <c r="D36" s="4" t="n">
+      <c r="D36" s="5" t="n">
         <v>128188</v>
       </c>
-      <c r="E36" s="4" t="inlineStr">
+      <c r="E36" s="5" t="inlineStr">
         <is>
           <t>Pershing Tan Queto Sr. ES</t>
         </is>
       </c>
-      <c r="F36" s="4" t="inlineStr">
+      <c r="F36" s="5" t="inlineStr">
         <is>
           <t>OZAMIS CITY</t>
         </is>
       </c>
-      <c r="G36" s="4" t="inlineStr">
+      <c r="G36" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">2nd </t>
         </is>
       </c>
-      <c r="H36" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" s="4" t="n">
+      <c r="H36" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I36" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J36" s="4" t="inlineStr">
+      <c r="J36" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - THREE (3) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE AND SOLAR PV ENERGY SYSTEM</t>
         </is>
       </c>
-      <c r="K36" s="4" t="n">
+      <c r="K36" s="5" t="n">
         <v>18361158.83</v>
       </c>
-      <c r="L36" s="4" t="n">
+      <c r="L36" s="5" t="n">
         <v>18151162.88</v>
       </c>
-      <c r="M36" s="4" t="inlineStr">
+      <c r="M36" s="5" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="N36" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O36" s="5" t="n">
+      <c r="N36" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O36" s="6" t="n">
         <v>45625</v>
       </c>
-      <c r="P36" s="5" t="n">
+      <c r="P36" s="6" t="n">
         <v>45655</v>
       </c>
-      <c r="Q36" s="4" t="inlineStr">
+      <c r="Q36" s="5" t="inlineStr">
         <is>
           <t>092-CIVIL 2023-003 (EPA)</t>
         </is>
       </c>
-      <c r="R36" s="4" t="inlineStr">
+      <c r="R36" s="5" t="inlineStr">
         <is>
           <t>092-CIVIL 2023-003 (EPA)</t>
         </is>
       </c>
-      <c r="S36" s="5" t="n">
+      <c r="S36" s="6" t="n">
         <v>45252</v>
       </c>
-      <c r="T36" s="5" t="n">
+      <c r="T36" s="6" t="n">
         <v>45259</v>
       </c>
-      <c r="U36" s="5" t="n">
+      <c r="U36" s="6" t="n">
         <v>45275</v>
       </c>
-      <c r="V36" s="5" t="n">
+      <c r="V36" s="6" t="n">
         <v>45293</v>
       </c>
-      <c r="W36" s="5" t="n">
+      <c r="W36" s="6" t="n">
         <v>45470</v>
       </c>
-      <c r="X36" s="4" t="inlineStr">
+      <c r="X36" s="5" t="inlineStr">
         <is>
           <t>Mitz and Nick Builders</t>
         </is>
       </c>
-      <c r="Y36" s="4" t="inlineStr">
+      <c r="Y36" s="5" t="inlineStr">
         <is>
           <t>with time extension</t>
         </is>
       </c>
-      <c r="Z36" s="4" t="n"/>
+      <c r="Z36" s="7" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="4" t="inlineStr">
+      <c r="A37" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B37" s="4" t="inlineStr">
+      <c r="B37" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C37" s="4" t="inlineStr">
+      <c r="C37" s="5" t="inlineStr">
         <is>
           <t>Tangub City</t>
         </is>
       </c>
-      <c r="D37" s="4" t="n">
+      <c r="D37" s="5" t="n">
         <v>128223</v>
       </c>
-      <c r="E37" s="4" t="inlineStr">
+      <c r="E37" s="5" t="inlineStr">
         <is>
           <t>Capalaran West ES</t>
         </is>
       </c>
-      <c r="F37" s="4" t="inlineStr">
+      <c r="F37" s="5" t="inlineStr">
         <is>
           <t>TANGUB CITY</t>
         </is>
       </c>
-      <c r="G37" s="4" t="inlineStr">
+      <c r="G37" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">2nd </t>
         </is>
       </c>
-      <c r="H37" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" s="4" t="n">
+      <c r="H37" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I37" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J37" s="4" t="inlineStr">
+      <c r="J37" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE AND SOLAR PV ENERGY SYSTEM</t>
         </is>
       </c>
-      <c r="K37" s="4" t="n">
+      <c r="K37" s="5" t="n">
         <v>19993368.26</v>
       </c>
-      <c r="L37" s="4" t="n">
+      <c r="L37" s="5" t="n">
         <v>19397245.16</v>
       </c>
-      <c r="M37" s="4" t="inlineStr">
+      <c r="M37" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N37" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O37" s="5" t="n">
+      <c r="N37" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O37" s="6" t="n">
         <v>45652</v>
       </c>
-      <c r="P37" s="5" t="n">
+      <c r="P37" s="6" t="n">
         <v>45691</v>
       </c>
-      <c r="Q37" s="4" t="inlineStr">
+      <c r="Q37" s="5" t="inlineStr">
         <is>
           <t>LMS 2023-Region X-Tangub 001</t>
         </is>
       </c>
-      <c r="R37" s="4" t="inlineStr"/>
-      <c r="S37" s="5" t="n">
+      <c r="R37" s="5" t="inlineStr"/>
+      <c r="S37" s="6" t="n">
         <v>45619</v>
       </c>
-      <c r="T37" s="5" t="n">
+      <c r="T37" s="6" t="n">
         <v>45626</v>
       </c>
-      <c r="U37" s="5" t="n">
+      <c r="U37" s="6" t="n">
         <v>45272</v>
       </c>
-      <c r="V37" s="5" t="n">
+      <c r="V37" s="6" t="n">
         <v>45280</v>
       </c>
-      <c r="W37" s="5" t="n">
+      <c r="W37" s="6" t="n">
         <v>45477</v>
       </c>
-      <c r="X37" s="4" t="inlineStr">
+      <c r="X37" s="5" t="inlineStr">
         <is>
           <t>RIC Construction</t>
         </is>
       </c>
-      <c r="Y37" s="4" t="inlineStr">
+      <c r="Y37" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="Z37" s="4" t="n"/>
+      <c r="Z37" s="7" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="4" t="inlineStr">
+      <c r="A38" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B38" s="4" t="inlineStr">
+      <c r="B38" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C38" s="4" t="inlineStr">
+      <c r="C38" s="5" t="inlineStr">
         <is>
           <t>Valencia City</t>
         </is>
       </c>
-      <c r="D38" s="4" t="n">
+      <c r="D38" s="5" t="n">
         <v>137043</v>
       </c>
-      <c r="E38" s="4" t="inlineStr">
+      <c r="E38" s="5" t="inlineStr">
         <is>
           <t>MAKAILAW ELEMENTARY SCHOOL</t>
         </is>
       </c>
-      <c r="F38" s="4" t="inlineStr">
+      <c r="F38" s="5" t="inlineStr">
         <is>
           <t>VALENCIA CITY</t>
         </is>
       </c>
-      <c r="G38" s="4" t="inlineStr">
+      <c r="G38" s="5" t="inlineStr">
         <is>
           <t>4th</t>
         </is>
       </c>
-      <c r="H38" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" s="4" t="n">
+      <c r="H38" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I38" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J38" s="4" t="inlineStr">
+      <c r="J38" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF 2 UNITS 1ST-2CL SCHOOL BUILDING (WITH TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K38" s="4" t="n">
+      <c r="K38" s="5" t="n">
         <v>18656357.05</v>
       </c>
-      <c r="L38" s="4" t="n">
+      <c r="L38" s="5" t="n">
         <v>14580621.09</v>
       </c>
-      <c r="M38" s="4" t="inlineStr">
+      <c r="M38" s="5" t="inlineStr">
         <is>
           <t>terminated</t>
         </is>
       </c>
-      <c r="N38" s="4" t="n">
+      <c r="N38" s="5" t="n">
         <v>0.24</v>
       </c>
-      <c r="O38" s="5" t="n">
+      <c r="O38" s="6" t="n">
         <v>45940</v>
       </c>
-      <c r="P38" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q38" s="4" t="n">
+      <c r="P38" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q38" s="5" t="n">
         <v>45352</v>
       </c>
-      <c r="R38" s="4" t="inlineStr">
+      <c r="R38" s="5" t="inlineStr">
         <is>
           <t>009 s. 2024</t>
         </is>
       </c>
-      <c r="S38" s="5" t="n">
+      <c r="S38" s="6" t="n">
         <v>45446</v>
       </c>
-      <c r="T38" s="5" t="n">
+      <c r="T38" s="6" t="n">
         <v>45324</v>
       </c>
-      <c r="U38" s="5" t="n">
+      <c r="U38" s="6" t="n">
         <v>45338</v>
       </c>
-      <c r="V38" s="5" t="n">
+      <c r="V38" s="6" t="n">
         <v>45362</v>
       </c>
-      <c r="W38" s="5" t="n">
+      <c r="W38" s="6" t="n">
         <v>45439</v>
       </c>
-      <c r="X38" s="4" t="inlineStr">
+      <c r="X38" s="5" t="inlineStr">
         <is>
           <t>ALRAF CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Y38" s="4" t="inlineStr">
+      <c r="Y38" s="5" t="inlineStr">
         <is>
           <t>Contract Terminated/rescinded</t>
         </is>
       </c>
-      <c r="Z38" s="4" t="n"/>
+      <c r="Z38" s="7" t="n"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Filtered_By_Region/Region X/Region X_LMS.xlsx
+++ b/Filtered_By_Region/Region X/Region X_LMS.xlsx
@@ -489,7 +489,7 @@
       </c>
       <c r="B1" s="3" t="inlineStr">
         <is>
-          <t>REGION</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="C1" s="3" t="inlineStr">

--- a/Filtered_By_Region/Region X/Region X_LMS.xlsx
+++ b/Filtered_By_Region/Region X/Region X_LMS.xlsx
@@ -444,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z38"/>
+  <dimension ref="A1:AA38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -453,545 +453,558 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="23" customWidth="1" min="1" max="1"/>
     <col width="10" customWidth="1" min="2" max="2"/>
-    <col width="20" customWidth="1" min="3" max="3"/>
-    <col width="11" customWidth="1" min="4" max="4"/>
-    <col width="39" customWidth="1" min="5" max="5"/>
-    <col width="27" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="14" customWidth="1" min="8" max="8"/>
-    <col width="11" customWidth="1" min="9" max="9"/>
-    <col width="287" customWidth="1" min="10" max="10"/>
-    <col width="20" customWidth="1" min="11" max="11"/>
-    <col width="17" customWidth="1" min="12" max="12"/>
-    <col width="12" customWidth="1" min="13" max="13"/>
-    <col width="26" customWidth="1" min="14" max="14"/>
+    <col width="10" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="5" max="5"/>
+    <col width="39" customWidth="1" min="6" max="6"/>
+    <col width="27" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="11" customWidth="1" min="10" max="10"/>
+    <col width="287" customWidth="1" min="11" max="11"/>
+    <col width="20" customWidth="1" min="12" max="12"/>
+    <col width="17" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="14" max="14"/>
     <col width="26" customWidth="1" min="15" max="15"/>
-    <col width="27" customWidth="1" min="16" max="16"/>
-    <col width="46" customWidth="1" min="17" max="17"/>
-    <col width="26" customWidth="1" min="18" max="18"/>
-    <col width="31" customWidth="1" min="19" max="19"/>
-    <col width="27" customWidth="1" min="20" max="20"/>
-    <col width="21" customWidth="1" min="21" max="21"/>
-    <col width="33" customWidth="1" min="22" max="22"/>
-    <col width="31" customWidth="1" min="23" max="23"/>
-    <col width="42" customWidth="1" min="24" max="24"/>
-    <col width="190" customWidth="1" min="25" max="25"/>
-    <col width="28" customWidth="1" min="26" max="26"/>
+    <col width="26" customWidth="1" min="16" max="16"/>
+    <col width="27" customWidth="1" min="17" max="17"/>
+    <col width="46" customWidth="1" min="18" max="18"/>
+    <col width="26" customWidth="1" min="19" max="19"/>
+    <col width="31" customWidth="1" min="20" max="20"/>
+    <col width="27" customWidth="1" min="21" max="21"/>
+    <col width="21" customWidth="1" min="22" max="22"/>
+    <col width="33" customWidth="1" min="23" max="23"/>
+    <col width="31" customWidth="1" min="24" max="24"/>
+    <col width="42" customWidth="1" min="25" max="25"/>
+    <col width="190" customWidth="1" min="26" max="26"/>
+    <col width="28" customWidth="1" min="27" max="27"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
+          <t>INDEX (DO NOT MODIFY)</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
           <t>CATEGORY</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>Region</t>
-        </is>
-      </c>
       <c r="C1" s="3" t="inlineStr">
         <is>
+          <t>REGION</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
           <t>DIVISION</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>SCHOOL ID</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>SCHOOL NAME</t>
         </is>
       </c>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>MUNICIPALITY</t>
         </is>
       </c>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>LD</t>
         </is>
       </c>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>NO. OF SITES</t>
         </is>
       </c>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>NO. OF CL</t>
         </is>
       </c>
-      <c r="J1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>SCOPE OF WORK</t>
         </is>
       </c>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>PROJECT ALLOCATION</t>
         </is>
       </c>
-      <c r="L1" s="3" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>CONTRACT AMOUNT</t>
         </is>
       </c>
-      <c r="M1" s="3" t="inlineStr">
+      <c r="N1" s="3" t="inlineStr">
         <is>
           <t>STATUS</t>
         </is>
       </c>
-      <c r="N1" s="3" t="inlineStr">
+      <c r="O1" s="3" t="inlineStr">
         <is>
           <t>PERCENTAGE OF COMPLETION</t>
         </is>
       </c>
-      <c r="O1" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Target Completion Date </t>
-        </is>
-      </c>
       <c r="P1" s="3" t="inlineStr">
         <is>
-          <t>Actual Date of Completion</t>
+          <t xml:space="preserve"> TARGET COMPLETION DATE </t>
         </is>
       </c>
       <c r="Q1" s="3" t="inlineStr">
         <is>
-          <t>Project ID</t>
+          <t>ACTUAL DATE OF COMPLETION</t>
         </is>
       </c>
       <c r="R1" s="3" t="inlineStr">
         <is>
-          <t>Contract ID</t>
+          <t>PROJECT ID</t>
         </is>
       </c>
       <c r="S1" s="3" t="inlineStr">
         <is>
-          <t>Issuance of Invitation to Bid</t>
+          <t>CONTRACT ID</t>
         </is>
       </c>
       <c r="T1" s="3" t="inlineStr">
         <is>
-          <t>Pre-Submission Conference</t>
+          <t>ISSUANCE OF INVITATION TO BID</t>
         </is>
       </c>
       <c r="U1" s="3" t="inlineStr">
         <is>
-          <t>Bid Opening</t>
+          <t>PRE-SUBMISSION CONFERENCE</t>
         </is>
       </c>
       <c r="V1" s="3" t="inlineStr">
         <is>
-          <t>Issuance of Resolution to Award</t>
+          <t>BID OPENING</t>
         </is>
       </c>
       <c r="W1" s="3" t="inlineStr">
         <is>
-          <t>Issuance of Notice to Proceed</t>
+          <t>ISSUANCE OF RESOLUTION TO AWARD</t>
         </is>
       </c>
       <c r="X1" s="3" t="inlineStr">
         <is>
-          <t>Name of Contractor</t>
+          <t>ISSUANCE OF NOTICE TO PROCEED</t>
         </is>
       </c>
       <c r="Y1" s="3" t="inlineStr">
         <is>
-          <t>Other Remarks</t>
-        </is>
-      </c>
-      <c r="Z1" s="4" t="inlineStr">
+          <t>NAME OF CONTRACTOR</t>
+        </is>
+      </c>
+      <c r="Z1" s="3" t="inlineStr">
+        <is>
+          <t>OTHER REMARKS</t>
+        </is>
+      </c>
+      <c r="AA1" s="4" t="inlineStr">
         <is>
           <t>Status as of July 11, 2025</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="inlineStr">
+      <c r="A2" s="5" t="n">
+        <v>87</v>
+      </c>
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>LMS 2020</t>
         </is>
       </c>
-      <c r="B2" s="5" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C2" s="5" t="inlineStr">
+      <c r="D2" s="5" t="inlineStr">
         <is>
           <t>Bukidnon</t>
         </is>
       </c>
-      <c r="D2" s="5" t="n">
+      <c r="E2" s="5" t="n">
         <v>113623</v>
       </c>
-      <c r="E2" s="5" t="inlineStr">
+      <c r="F2" s="5" t="inlineStr">
         <is>
           <t>Lumatong Pangukayan Ta Apu Manohay</t>
         </is>
       </c>
-      <c r="F2" s="5" t="inlineStr">
+      <c r="G2" s="5" t="inlineStr">
         <is>
           <t>MARAMAG</t>
         </is>
       </c>
-      <c r="G2" s="5" t="n">
+      <c r="H2" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H2" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J2" s="5" t="inlineStr">
+      <c r="K2" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K2" s="5" t="n">
+      <c r="L2" s="5" t="n">
         <v>18157630.90356173</v>
       </c>
-      <c r="L2" s="5" t="n">
+      <c r="M2" s="5" t="n">
         <v>13617950.39</v>
       </c>
-      <c r="M2" s="5" t="inlineStr">
+      <c r="N2" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N2" s="5" t="n">
+      <c r="O2" s="5" t="n">
         <v>0.89</v>
       </c>
-      <c r="O2" s="6" t="n">
+      <c r="P2" s="6" t="n">
         <v>45746</v>
       </c>
-      <c r="P2" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
       <c r="Q2" s="5" t="inlineStr">
         <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="R2" s="5" t="inlineStr">
+        <is>
           <t>PB-02-05-2024-005</t>
         </is>
       </c>
-      <c r="R2" s="5" t="inlineStr">
+      <c r="S2" s="5" t="inlineStr">
         <is>
           <t>0016-2024</t>
         </is>
       </c>
-      <c r="S2" s="6" t="n">
+      <c r="T2" s="6" t="n">
         <v>45423</v>
       </c>
-      <c r="T2" s="6" t="n">
+      <c r="U2" s="6" t="n">
         <v>45432</v>
       </c>
-      <c r="U2" s="6" t="n">
+      <c r="V2" s="6" t="n">
         <v>45446</v>
       </c>
-      <c r="V2" s="6" t="n">
+      <c r="W2" s="6" t="n">
         <v>45449</v>
       </c>
-      <c r="W2" s="6" t="n">
+      <c r="X2" s="6" t="n">
         <v>45471</v>
       </c>
-      <c r="X2" s="5" t="inlineStr">
+      <c r="Y2" s="5" t="inlineStr">
         <is>
           <t>CQ Haribon Construction</t>
         </is>
       </c>
-      <c r="Y2" s="5" t="inlineStr">
+      <c r="Z2" s="5" t="inlineStr">
         <is>
           <t>Terminated Contract No. 08-2021 with FFJJ Construction, New Contract No. 0016-2024, Php 4,579,658.48</t>
         </is>
       </c>
-      <c r="Z2" s="7" t="n"/>
+      <c r="AA2" s="7" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="inlineStr">
+      <c r="A3" s="5" t="n">
+        <v>88</v>
+      </c>
+      <c r="B3" s="5" t="inlineStr">
         <is>
           <t>LMS 2020</t>
         </is>
       </c>
-      <c r="B3" s="5" t="inlineStr">
+      <c r="C3" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C3" s="5" t="inlineStr">
+      <c r="D3" s="5" t="inlineStr">
         <is>
           <t>Gingoog City</t>
         </is>
       </c>
-      <c r="D3" s="5" t="n">
+      <c r="E3" s="5" t="n">
         <v>128071</v>
       </c>
-      <c r="E3" s="5" t="inlineStr">
+      <c r="F3" s="5" t="inlineStr">
         <is>
           <t>Mimbuntong Elementary School</t>
         </is>
       </c>
-      <c r="F3" s="5" t="inlineStr">
+      <c r="G3" s="5" t="inlineStr">
         <is>
           <t>GINGOOG CITY</t>
         </is>
       </c>
-      <c r="G3" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="H3" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J3" s="5" t="inlineStr">
+      <c r="K3" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE,\ SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K3" s="5" t="n">
+      <c r="L3" s="5" t="n">
         <v>19025682.242914</v>
       </c>
-      <c r="L3" s="5" t="n">
+      <c r="M3" s="5" t="n">
         <v>17827523.07</v>
       </c>
-      <c r="M3" s="5" t="inlineStr">
+      <c r="N3" s="5" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="N3" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O3" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="O3" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="P3" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="Q3" s="5" t="n">
-        <v>0</v>
+      <c r="Q3" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="R3" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="S3" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="S3" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="T3" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U3" s="6" t="n">
+      <c r="U3" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="V3" s="6" t="n">
         <v>44434</v>
       </c>
-      <c r="V3" s="6" t="n">
+      <c r="W3" s="6" t="n">
         <v>44436</v>
       </c>
-      <c r="W3" s="6" t="n">
+      <c r="X3" s="6" t="n">
         <v>44439</v>
       </c>
-      <c r="X3" s="5" t="inlineStr">
+      <c r="Y3" s="5" t="inlineStr">
         <is>
           <t>IMBDC</t>
         </is>
       </c>
-      <c r="Y3" s="5" t="n">
+      <c r="Z3" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Z3" s="7" t="n"/>
+      <c r="AA3" s="7" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="inlineStr">
+      <c r="A4" s="5" t="n">
+        <v>89</v>
+      </c>
+      <c r="B4" s="5" t="inlineStr">
         <is>
           <t>LMS 2020</t>
         </is>
       </c>
-      <c r="B4" s="5" t="inlineStr">
+      <c r="C4" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr">
+      <c r="D4" s="5" t="inlineStr">
         <is>
           <t>Lanao del Norte</t>
         </is>
       </c>
-      <c r="D4" s="5" t="n">
+      <c r="E4" s="5" t="n">
         <v>127123</v>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="F4" s="5" t="inlineStr">
         <is>
           <t>Sta. Cruz ES</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="G4" s="5" t="inlineStr">
         <is>
           <t>MAIGO</t>
         </is>
       </c>
-      <c r="G4" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="H4" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J4" s="5" t="inlineStr">
+      <c r="K4" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - THREE (3) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF   RAINWATER COLLECTOR, SCHOOL FURNITURE,  AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K4" s="5" t="n">
+      <c r="L4" s="5" t="n">
         <v>16818990.191764</v>
       </c>
-      <c r="L4" s="5" t="n">
+      <c r="M4" s="5" t="n">
         <v>13774087.91</v>
       </c>
-      <c r="M4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="N4" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O4" s="6" t="n">
+      <c r="O4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" s="6" t="n">
         <v>44255</v>
       </c>
-      <c r="P4" s="6" t="n">
+      <c r="Q4" s="6" t="n">
         <v>44340</v>
       </c>
-      <c r="Q4" s="5" t="inlineStr">
+      <c r="R4" s="5" t="inlineStr">
         <is>
           <t>2020-01(Infra)</t>
         </is>
       </c>
-      <c r="R4" s="5" t="n">
+      <c r="S4" s="5" t="n">
         <v>43831</v>
       </c>
-      <c r="S4" s="6" t="n">
+      <c r="T4" s="6" t="n">
         <v>44062</v>
       </c>
-      <c r="T4" s="6" t="n">
+      <c r="U4" s="6" t="n">
         <v>44070</v>
       </c>
-      <c r="U4" s="6" t="n">
+      <c r="V4" s="6" t="n">
         <v>44095</v>
       </c>
-      <c r="V4" s="6" t="n">
+      <c r="W4" s="6" t="n">
         <v>44116</v>
       </c>
-      <c r="W4" s="6" t="n">
+      <c r="X4" s="6" t="n">
         <v>44158</v>
       </c>
-      <c r="X4" s="5" t="inlineStr">
+      <c r="Y4" s="5" t="inlineStr">
         <is>
           <t>Lanao Genesis Construction Supply</t>
         </is>
       </c>
-      <c r="Y4" s="5" t="inlineStr">
+      <c r="Z4" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="Z4" s="7" t="n"/>
+      <c r="AA4" s="7" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="inlineStr">
+      <c r="A5" s="5" t="n">
+        <v>90</v>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
         <is>
           <t>LMS 2020</t>
         </is>
       </c>
-      <c r="B5" s="5" t="inlineStr">
+      <c r="C5" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr">
+      <c r="D5" s="5" t="inlineStr">
         <is>
           <t>Lanao del Norte</t>
         </is>
       </c>
-      <c r="D5" s="5" t="n">
+      <c r="E5" s="5" t="n">
         <v>200523</v>
       </c>
-      <c r="E5" s="5" t="inlineStr">
+      <c r="F5" s="5" t="inlineStr">
         <is>
           <t>Pelingkingan PS</t>
         </is>
       </c>
-      <c r="F5" s="5" t="inlineStr">
+      <c r="G5" s="5" t="inlineStr">
         <is>
           <t>TANGCAL</t>
         </is>
       </c>
-      <c r="G5" s="5" t="n">
+      <c r="H5" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H5" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J5" s="5" t="inlineStr">
+      <c r="K5" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K5" s="5" t="n">
+      <c r="L5" s="5" t="n">
         <v>19741282.51640528</v>
       </c>
-      <c r="L5" s="5" t="n">
+      <c r="M5" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="M5" s="5" t="inlineStr">
+      <c r="N5" s="5" t="inlineStr">
         <is>
           <t>Reverted</t>
         </is>
       </c>
-      <c r="N5" s="5" t="n">
+      <c r="O5" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="O5" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
       <c r="P5" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="Q5" s="5" t="n">
-        <v>0</v>
+      <c r="Q5" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="R5" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="S5" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="S5" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="T5" s="5" t="inlineStr">
         <is>
@@ -1013,93 +1026,96 @@
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="X5" s="5" t="n">
+      <c r="X5" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Y5" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Y5" s="5" t="inlineStr">
+      <c r="Z5" s="5" t="inlineStr">
         <is>
           <t>failure of bid (under negotiation); return of funds</t>
         </is>
       </c>
-      <c r="Z5" s="7" t="n"/>
+      <c r="AA5" s="7" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="inlineStr">
+      <c r="A6" s="5" t="n">
+        <v>186</v>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B6" s="5" t="inlineStr">
+      <c r="C6" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr">
+      <c r="D6" s="5" t="inlineStr">
         <is>
           <t>Bukidnon</t>
         </is>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="E6" s="5" t="n">
         <v>113721</v>
       </c>
-      <c r="E6" s="5" t="inlineStr">
+      <c r="F6" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Makabugwas Ta San Dionesio </t>
         </is>
       </c>
-      <c r="F6" s="5" t="inlineStr">
+      <c r="G6" s="5" t="inlineStr">
         <is>
           <t>TALAKAG</t>
         </is>
       </c>
-      <c r="G6" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="H6" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J6" s="5" t="inlineStr">
+      <c r="K6" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K6" s="5" t="n">
+      <c r="L6" s="5" t="n">
         <v>16205887.9248</v>
       </c>
-      <c r="L6" s="5" t="n">
+      <c r="M6" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="M6" s="5" t="inlineStr">
+      <c r="N6" s="5" t="inlineStr">
         <is>
           <t>ABANDONED</t>
         </is>
       </c>
-      <c r="N6" s="5" t="n">
+      <c r="O6" s="5" t="n">
         <v>0.41</v>
       </c>
-      <c r="O6" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
       <c r="P6" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="Q6" s="5" t="n">
-        <v>0</v>
+      <c r="Q6" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="R6" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="S6" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="S6" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="T6" s="5" t="inlineStr">
         <is>
@@ -1121,93 +1137,96 @@
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="X6" s="5" t="n">
+      <c r="X6" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Y6" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Y6" s="5" t="inlineStr">
+      <c r="Z6" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Letter request for suspension was sent to the Central Office. No Response from CO. This is a CO Implemented project. We cannot fill in the details. </t>
         </is>
       </c>
-      <c r="Z6" s="7" t="n"/>
+      <c r="AA6" s="7" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="inlineStr">
+      <c r="A7" s="5" t="n">
+        <v>187</v>
+      </c>
+      <c r="B7" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B7" s="5" t="inlineStr">
+      <c r="C7" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr">
+      <c r="D7" s="5" t="inlineStr">
         <is>
           <t>Misamis Occidental</t>
         </is>
       </c>
-      <c r="D7" s="5" t="n">
+      <c r="E7" s="5" t="n">
         <v>127367</v>
       </c>
-      <c r="E7" s="5" t="inlineStr">
+      <c r="F7" s="5" t="inlineStr">
         <is>
           <t>Migubay PS</t>
         </is>
       </c>
-      <c r="F7" s="5" t="inlineStr">
+      <c r="G7" s="5" t="inlineStr">
         <is>
           <t>Concepcion</t>
         </is>
       </c>
-      <c r="G7" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="H7" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J7" s="5" t="inlineStr">
+      <c r="K7" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K7" s="5" t="n">
+      <c r="L7" s="5" t="n">
         <v>13433577.8053</v>
       </c>
-      <c r="L7" s="5" t="n">
+      <c r="M7" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="M7" s="5" t="inlineStr">
+      <c r="N7" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N7" s="5" t="n">
+      <c r="O7" s="5" t="n">
         <v>0.14</v>
       </c>
-      <c r="O7" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
       <c r="P7" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="Q7" s="5" t="n">
-        <v>0</v>
+      <c r="Q7" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="R7" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="S7" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="S7" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="T7" s="5" t="inlineStr">
         <is>
@@ -1229,93 +1248,96 @@
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="X7" s="5" t="n">
+      <c r="X7" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Y7" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Y7" s="5" t="inlineStr">
+      <c r="Z7" s="5" t="inlineStr">
         <is>
           <t>Waiting for approved DAED</t>
         </is>
       </c>
-      <c r="Z7" s="7" t="n"/>
+      <c r="AA7" s="7" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="inlineStr">
+      <c r="A8" s="5" t="n">
+        <v>188</v>
+      </c>
+      <c r="B8" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B8" s="5" t="inlineStr">
+      <c r="C8" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr">
+      <c r="D8" s="5" t="inlineStr">
         <is>
           <t>Misamis Occidental</t>
         </is>
       </c>
-      <c r="D8" s="5" t="n">
+      <c r="E8" s="5" t="n">
         <v>127496</v>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="F8" s="5" t="inlineStr">
         <is>
           <t>Deboloc ES</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="G8" s="5" t="inlineStr">
         <is>
           <t>Plaridel</t>
         </is>
       </c>
-      <c r="G8" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="H8" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J8" s="5" t="inlineStr">
+      <c r="K8" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - THREE (3) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K8" s="5" t="n">
+      <c r="L8" s="5" t="n">
         <v>15202037.93501043</v>
       </c>
-      <c r="L8" s="5" t="n">
+      <c r="M8" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="M8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N8" s="5" t="n">
+      <c r="O8" s="5" t="n">
         <v>0.1</v>
       </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
       <c r="P8" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="Q8" s="5" t="n">
-        <v>0</v>
+      <c r="Q8" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="R8" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="S8" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="S8" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="T8" s="5" t="inlineStr">
         <is>
@@ -1337,93 +1359,96 @@
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="X8" s="5" t="n">
+      <c r="X8" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Y8" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Y8" s="5" t="inlineStr">
+      <c r="Z8" s="5" t="inlineStr">
         <is>
           <t>Waiting for approved DAED</t>
         </is>
       </c>
-      <c r="Z8" s="7" t="n"/>
+      <c r="AA8" s="7" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="inlineStr">
+      <c r="A9" s="5" t="n">
+        <v>189</v>
+      </c>
+      <c r="B9" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B9" s="5" t="inlineStr">
+      <c r="C9" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr">
+      <c r="D9" s="5" t="inlineStr">
         <is>
           <t>Misamis Oriental</t>
         </is>
       </c>
-      <c r="D9" s="5" t="n">
+      <c r="E9" s="5" t="n">
         <v>130200</v>
       </c>
-      <c r="E9" s="5" t="inlineStr">
+      <c r="F9" s="5" t="inlineStr">
         <is>
           <t>Aligodon Higaonon Tulogan Nauhanan</t>
         </is>
       </c>
-      <c r="F9" s="5" t="inlineStr">
+      <c r="G9" s="5" t="inlineStr">
         <is>
           <t>CLAVERIA</t>
         </is>
       </c>
-      <c r="G9" s="5" t="n">
+      <c r="H9" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H9" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J9" s="5" t="inlineStr">
+      <c r="K9" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K9" s="5" t="n">
+      <c r="L9" s="5" t="n">
         <v>19652994.9643233</v>
       </c>
-      <c r="L9" s="5" t="n">
+      <c r="M9" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="M9" s="5" t="inlineStr">
+      <c r="N9" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N9" s="5" t="n">
+      <c r="O9" s="5" t="n">
         <v>0.33</v>
       </c>
-      <c r="O9" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
       <c r="P9" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="Q9" s="5" t="n">
-        <v>0</v>
+      <c r="Q9" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="R9" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="S9" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="S9" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="T9" s="5" t="inlineStr">
         <is>
@@ -1445,91 +1470,94 @@
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="X9" s="5" t="n">
+      <c r="X9" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Y9" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Y9" s="5" t="inlineStr">
+      <c r="Z9" s="5" t="inlineStr">
         <is>
           <t>No Movement in Site (Abandoned); Building permit on Process, Contractor requested fot Time extension due to weather condition</t>
         </is>
       </c>
-      <c r="Z9" s="7" t="n"/>
+      <c r="AA9" s="7" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="inlineStr">
+      <c r="A10" s="5" t="n">
+        <v>190</v>
+      </c>
+      <c r="B10" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B10" s="5" t="inlineStr">
+      <c r="C10" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr">
+      <c r="D10" s="5" t="inlineStr">
         <is>
           <t>Misamis Oriental</t>
         </is>
       </c>
-      <c r="D10" s="5" t="n">
+      <c r="E10" s="5" t="n">
         <v>130200</v>
       </c>
-      <c r="E10" s="5" t="inlineStr">
+      <c r="F10" s="5" t="inlineStr">
         <is>
           <t>Aligodon Higaonon Tulogan Nauhanan</t>
         </is>
       </c>
-      <c r="F10" s="5" t="inlineStr">
+      <c r="G10" s="5" t="inlineStr">
         <is>
           <t>CLAVERIA</t>
         </is>
       </c>
-      <c r="G10" s="5" t="n">
+      <c r="H10" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H10" s="5" t="inlineStr"/>
-      <c r="I10" s="5" t="n">
+      <c r="I10" s="5" t="inlineStr"/>
+      <c r="J10" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J10" s="5" t="inlineStr">
+      <c r="K10" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K10" s="5" t="n">
+      <c r="L10" s="5" t="n">
         <v>6520</v>
       </c>
-      <c r="L10" s="5" t="n">
+      <c r="M10" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="M10" s="5" t="inlineStr">
+      <c r="N10" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N10" s="5" t="n">
+      <c r="O10" s="5" t="n">
         <v>0.33</v>
       </c>
-      <c r="O10" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
       <c r="P10" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="Q10" s="5" t="n">
-        <v>0</v>
+      <c r="Q10" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="R10" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="S10" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="S10" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="T10" s="5" t="inlineStr">
         <is>
@@ -1551,93 +1579,96 @@
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="X10" s="5" t="n">
+      <c r="X10" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Y10" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Y10" s="5" t="inlineStr">
+      <c r="Z10" s="5" t="inlineStr">
         <is>
           <t>No Movement in Site (Abandoned); Building permit on Process, Contractor requested fot Time extension due to weather condition</t>
         </is>
       </c>
-      <c r="Z10" s="7" t="n"/>
+      <c r="AA10" s="7" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="inlineStr">
+      <c r="A11" s="5" t="n">
+        <v>191</v>
+      </c>
+      <c r="B11" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B11" s="5" t="inlineStr">
+      <c r="C11" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr">
+      <c r="D11" s="5" t="inlineStr">
         <is>
           <t>Ozamis City</t>
         </is>
       </c>
-      <c r="D11" s="5" t="n">
+      <c r="E11" s="5" t="n">
         <v>128190</v>
       </c>
-      <c r="E11" s="5" t="inlineStr">
+      <c r="F11" s="5" t="inlineStr">
         <is>
           <t>Balintawak Elementary School</t>
         </is>
       </c>
-      <c r="F11" s="5" t="inlineStr">
+      <c r="G11" s="5" t="inlineStr">
         <is>
           <t>OZAMIS CITY</t>
         </is>
       </c>
-      <c r="G11" s="5" t="n">
+      <c r="H11" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H11" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J11" s="5" t="inlineStr">
+      <c r="K11" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K11" s="5" t="n">
+      <c r="L11" s="5" t="n">
         <v>18244962.88</v>
       </c>
-      <c r="L11" s="5" t="n">
+      <c r="M11" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="M11" s="5" t="inlineStr">
+      <c r="N11" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N11" s="5" t="n">
+      <c r="O11" s="5" t="n">
         <v>0.13</v>
       </c>
-      <c r="O11" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
       <c r="P11" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="Q11" s="5" t="n">
-        <v>0</v>
+      <c r="Q11" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="R11" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="S11" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="S11" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="T11" s="5" t="inlineStr">
         <is>
@@ -1659,2729 +1690,2815 @@
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="X11" s="5" t="n">
+      <c r="X11" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Y11" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Y11" s="5" t="inlineStr">
+      <c r="Z11" s="5" t="inlineStr">
         <is>
           <t>Under Work Suspension</t>
         </is>
       </c>
-      <c r="Z11" s="7" t="n"/>
+      <c r="AA11" s="7" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="5" t="inlineStr">
+      <c r="A12" s="5" t="n">
+        <v>274</v>
+      </c>
+      <c r="B12" s="5" t="inlineStr">
         <is>
           <t>LMS 2022</t>
         </is>
       </c>
-      <c r="B12" s="5" t="inlineStr">
+      <c r="C12" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr">
+      <c r="D12" s="5" t="inlineStr">
         <is>
           <t>El Salvador</t>
         </is>
       </c>
-      <c r="D12" s="5" t="n">
+      <c r="E12" s="5" t="n">
         <v>304768</v>
       </c>
-      <c r="E12" s="5" t="inlineStr">
+      <c r="F12" s="5" t="inlineStr">
         <is>
           <t>Himaya National High School</t>
         </is>
       </c>
-      <c r="F12" s="5" t="inlineStr">
+      <c r="G12" s="5" t="inlineStr">
         <is>
           <t>CITY OF EL SALVADOR</t>
         </is>
       </c>
-      <c r="G12" s="5" t="n">
+      <c r="H12" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H12" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J12" s="5" t="inlineStr">
+      <c r="K12" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - THREE (3) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K12" s="5" t="n">
+      <c r="L12" s="5" t="n">
         <v>16459251.5365</v>
       </c>
-      <c r="L12" s="5" t="n">
+      <c r="M12" s="5" t="n">
         <v>11765349.85</v>
       </c>
-      <c r="M12" s="5" t="inlineStr">
+      <c r="N12" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N12" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O12" s="6" t="n">
+      <c r="O12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" s="6" t="n">
         <v>45308</v>
       </c>
-      <c r="P12" s="6" t="n">
+      <c r="Q12" s="6" t="n">
         <v>45156</v>
       </c>
-      <c r="Q12" s="5" t="inlineStr">
+      <c r="R12" s="5" t="inlineStr">
         <is>
           <t>2022-10-0228</t>
         </is>
       </c>
-      <c r="R12" s="5" t="inlineStr">
+      <c r="S12" s="5" t="inlineStr">
         <is>
           <t>2022-12-0327</t>
         </is>
       </c>
-      <c r="S12" s="6" t="n">
+      <c r="T12" s="6" t="n">
         <v>45041</v>
       </c>
-      <c r="T12" s="6" t="n">
+      <c r="U12" s="6" t="n">
         <v>45049</v>
       </c>
-      <c r="U12" s="6" t="n">
+      <c r="V12" s="6" t="n">
         <v>45061</v>
       </c>
-      <c r="V12" s="6" t="n">
+      <c r="W12" s="6" t="n">
         <v>45118</v>
       </c>
-      <c r="W12" s="6" t="n">
+      <c r="X12" s="6" t="n">
         <v>45121</v>
       </c>
-      <c r="X12" s="5" t="inlineStr">
+      <c r="Y12" s="5" t="inlineStr">
         <is>
           <t>ROVINVAL ENGINEERING AND CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Y12" s="5" t="inlineStr">
+      <c r="Z12" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="Z12" s="7" t="n"/>
+      <c r="AA12" s="7" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="inlineStr">
+      <c r="A13" s="5" t="n">
+        <v>275</v>
+      </c>
+      <c r="B13" s="5" t="inlineStr">
         <is>
           <t>LMS 2022</t>
         </is>
       </c>
-      <c r="B13" s="5" t="inlineStr">
+      <c r="C13" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr">
+      <c r="D13" s="5" t="inlineStr">
         <is>
           <t>El Salvador</t>
         </is>
       </c>
-      <c r="D13" s="5" t="n">
+      <c r="E13" s="5" t="n">
         <v>305683</v>
       </c>
-      <c r="E13" s="5" t="inlineStr">
+      <c r="F13" s="5" t="inlineStr">
         <is>
           <t>Sambulawan National High School</t>
         </is>
       </c>
-      <c r="F13" s="5" t="inlineStr">
+      <c r="G13" s="5" t="inlineStr">
         <is>
           <t>CITY OF EL SALVADOR</t>
         </is>
       </c>
-      <c r="G13" s="5" t="n">
+      <c r="H13" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H13" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J13" s="5" t="inlineStr">
+      <c r="K13" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - THREE (3) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K13" s="5" t="n">
+      <c r="L13" s="5" t="n">
         <v>16469856.5365</v>
       </c>
-      <c r="L13" s="5" t="n">
+      <c r="M13" s="5" t="n">
         <v>12076295.82</v>
       </c>
-      <c r="M13" s="5" t="inlineStr">
+      <c r="N13" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N13" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O13" s="6" t="n">
+      <c r="O13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" s="6" t="n">
         <v>45291</v>
       </c>
-      <c r="P13" s="6" t="n">
+      <c r="Q13" s="6" t="n">
         <v>45175</v>
       </c>
-      <c r="Q13" s="5" t="inlineStr">
+      <c r="R13" s="5" t="inlineStr">
         <is>
           <t>2022-04-0065</t>
         </is>
       </c>
-      <c r="R13" s="5" t="inlineStr">
+      <c r="S13" s="5" t="inlineStr">
         <is>
           <t>2022-09-0205</t>
         </is>
       </c>
-      <c r="S13" s="6" t="n">
+      <c r="T13" s="6" t="n">
         <v>45041</v>
       </c>
-      <c r="T13" s="6" t="n">
+      <c r="U13" s="6" t="n">
         <v>45049</v>
       </c>
-      <c r="U13" s="6" t="n">
+      <c r="V13" s="6" t="n">
         <v>45061</v>
       </c>
-      <c r="V13" s="6" t="n">
+      <c r="W13" s="6" t="n">
         <v>45114</v>
       </c>
-      <c r="W13" s="6" t="n">
+      <c r="X13" s="6" t="n">
         <v>45134</v>
       </c>
-      <c r="X13" s="5" t="inlineStr">
+      <c r="Y13" s="5" t="inlineStr">
         <is>
           <t>LJPM BUILDERS AND CONSTRUCTION SUPPLY</t>
         </is>
       </c>
-      <c r="Y13" s="5" t="inlineStr">
+      <c r="Z13" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="Z13" s="7" t="n"/>
+      <c r="AA13" s="7" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="inlineStr">
+      <c r="A14" s="5" t="n">
+        <v>276</v>
+      </c>
+      <c r="B14" s="5" t="inlineStr">
         <is>
           <t>LMS 2022</t>
         </is>
       </c>
-      <c r="B14" s="5" t="inlineStr">
+      <c r="C14" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr">
+      <c r="D14" s="5" t="inlineStr">
         <is>
           <t>Lanao del Norte</t>
         </is>
       </c>
-      <c r="D14" s="5" t="n">
+      <c r="E14" s="5" t="n">
         <v>127171</v>
       </c>
-      <c r="E14" s="5" t="inlineStr">
+      <c r="F14" s="5" t="inlineStr">
         <is>
           <t>Sigayan Adil PS</t>
         </is>
       </c>
-      <c r="F14" s="5" t="inlineStr">
+      <c r="G14" s="5" t="inlineStr">
         <is>
           <t>PANTAR</t>
         </is>
       </c>
-      <c r="G14" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="H14" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J14" s="5" t="inlineStr">
+      <c r="K14" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF   RAINWATER COLLECTOR, SCHOOL FURNITURE, WATER SYSTEM AND REPAIR &amp; REHABILITATION OF CLASSROOMS.</t>
         </is>
       </c>
-      <c r="K14" s="5" t="n">
+      <c r="L14" s="5" t="n">
         <v>17137950.7406</v>
       </c>
-      <c r="L14" s="5" t="n">
+      <c r="M14" s="5" t="n">
         <v>12954954.09</v>
       </c>
-      <c r="M14" s="5" t="inlineStr">
+      <c r="N14" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N14" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O14" s="6" t="n">
+      <c r="O14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" s="6" t="n">
         <v>45086</v>
       </c>
-      <c r="P14" s="6" t="n">
+      <c r="Q14" s="6" t="n">
         <v>45087</v>
       </c>
-      <c r="Q14" s="5" t="inlineStr">
+      <c r="R14" s="5" t="inlineStr">
         <is>
           <t>2023-02(Infra)</t>
         </is>
       </c>
-      <c r="R14" s="5" t="n">
+      <c r="S14" s="5" t="n">
         <v>44958</v>
       </c>
-      <c r="S14" s="6" t="n">
+      <c r="T14" s="6" t="n">
         <v>44888</v>
       </c>
-      <c r="T14" s="6" t="n">
+      <c r="U14" s="6" t="n">
         <v>44896</v>
       </c>
-      <c r="U14" s="6" t="n">
+      <c r="V14" s="6" t="n">
         <v>44914</v>
       </c>
-      <c r="V14" s="6" t="n">
+      <c r="W14" s="6" t="n">
         <v>44935</v>
       </c>
-      <c r="W14" s="6" t="n">
+      <c r="X14" s="6" t="n">
         <v>44966</v>
       </c>
-      <c r="X14" s="5" t="inlineStr">
+      <c r="Y14" s="5" t="inlineStr">
         <is>
           <t>S&amp; J BUILDERS</t>
         </is>
       </c>
-      <c r="Y14" s="5" t="inlineStr">
+      <c r="Z14" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="Z14" s="7" t="n"/>
+      <c r="AA14" s="7" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="inlineStr">
+      <c r="A15" s="5" t="n">
+        <v>277</v>
+      </c>
+      <c r="B15" s="5" t="inlineStr">
         <is>
           <t>LMS 2022</t>
         </is>
       </c>
-      <c r="B15" s="5" t="inlineStr">
+      <c r="C15" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr">
+      <c r="D15" s="5" t="inlineStr">
         <is>
           <t>Lanao del Norte</t>
         </is>
       </c>
-      <c r="D15" s="5" t="n">
+      <c r="E15" s="5" t="n">
         <v>127101</v>
       </c>
-      <c r="E15" s="5" t="inlineStr">
+      <c r="F15" s="5" t="inlineStr">
         <is>
           <t>Durianon Primary School</t>
         </is>
       </c>
-      <c r="F15" s="5" t="inlineStr">
+      <c r="G15" s="5" t="inlineStr">
         <is>
           <t>MAGSAYSAY</t>
         </is>
       </c>
-      <c r="G15" s="5" t="n">
+      <c r="H15" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H15" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J15" s="5" t="inlineStr">
+      <c r="K15" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF   RAINWATER COLLECTOR, SCHOOL FURNITURE, WATER SYSTEM AND REPAIR &amp; REHABILITATION OF CLASSROOMS.</t>
         </is>
       </c>
-      <c r="K15" s="5" t="n">
+      <c r="L15" s="5" t="n">
         <v>15730677.8052</v>
       </c>
-      <c r="L15" s="5" t="n">
+      <c r="M15" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="M15" s="5" t="inlineStr">
+      <c r="N15" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="N15" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O15" s="6" t="n">
+      <c r="O15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" s="6" t="n">
         <v>45086</v>
       </c>
-      <c r="P15" s="6" t="n">
+      <c r="Q15" s="6" t="n">
         <v>45051</v>
       </c>
-      <c r="Q15" s="5" t="inlineStr">
+      <c r="R15" s="5" t="inlineStr">
         <is>
           <t>2023-01(Infra)</t>
         </is>
       </c>
-      <c r="R15" s="5" t="n">
+      <c r="S15" s="5" t="n">
         <v>44927</v>
       </c>
-      <c r="S15" s="6" t="n">
+      <c r="T15" s="6" t="n">
         <v>44888</v>
       </c>
-      <c r="T15" s="6" t="n">
+      <c r="U15" s="6" t="n">
         <v>44896</v>
       </c>
-      <c r="U15" s="6" t="n">
+      <c r="V15" s="6" t="n">
         <v>44914</v>
       </c>
-      <c r="V15" s="6" t="n">
+      <c r="W15" s="6" t="n">
         <v>44935</v>
       </c>
-      <c r="W15" s="6" t="n">
+      <c r="X15" s="6" t="n">
         <v>44966</v>
       </c>
-      <c r="X15" s="5" t="inlineStr">
+      <c r="Y15" s="5" t="inlineStr">
         <is>
           <t>AHM BUILDERS</t>
         </is>
       </c>
-      <c r="Y15" s="5" t="inlineStr">
+      <c r="Z15" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="Z15" s="7" t="n"/>
+      <c r="AA15" s="7" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="5" t="inlineStr">
+      <c r="A16" s="5" t="n">
+        <v>278</v>
+      </c>
+      <c r="B16" s="5" t="inlineStr">
         <is>
           <t>LMS 2022</t>
         </is>
       </c>
-      <c r="B16" s="5" t="inlineStr">
+      <c r="C16" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C16" s="5" t="inlineStr">
+      <c r="D16" s="5" t="inlineStr">
         <is>
           <t>Lanao del Norte</t>
         </is>
       </c>
-      <c r="D16" s="5" t="n">
+      <c r="E16" s="5" t="n">
         <v>501602</v>
       </c>
-      <c r="E16" s="5" t="inlineStr">
+      <c r="F16" s="5" t="inlineStr">
         <is>
           <t>Pelingkingan Integrated School</t>
         </is>
       </c>
-      <c r="F16" s="5" t="inlineStr">
+      <c r="G16" s="5" t="inlineStr">
         <is>
           <t>TANGCAL</t>
         </is>
       </c>
-      <c r="G16" s="5" t="n">
+      <c r="H16" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H16" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J16" s="5" t="inlineStr">
+      <c r="K16" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K16" s="5" t="n">
+      <c r="L16" s="5" t="n">
         <v>19938695.3452</v>
       </c>
-      <c r="L16" s="5" t="n">
+      <c r="M16" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="M16" s="5" t="inlineStr">
+      <c r="N16" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="N16" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O16" s="6" t="n">
+      <c r="O16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" s="6" t="n">
         <v>44931</v>
       </c>
-      <c r="P16" s="6" t="n">
+      <c r="Q16" s="6" t="n">
         <v>45260</v>
       </c>
-      <c r="Q16" s="5" t="inlineStr">
+      <c r="R16" s="5" t="inlineStr">
         <is>
           <t>2022-05(infra)</t>
         </is>
       </c>
-      <c r="R16" s="5" t="n">
+      <c r="S16" s="5" t="n">
         <v>44682</v>
       </c>
-      <c r="S16" s="6" t="n">
+      <c r="T16" s="6" t="n">
         <v>44671</v>
       </c>
-      <c r="T16" s="6" t="n">
+      <c r="U16" s="6" t="n">
         <v>44680</v>
       </c>
-      <c r="U16" s="6" t="n">
+      <c r="V16" s="6" t="n">
         <v>44698</v>
       </c>
-      <c r="V16" s="6" t="n">
+      <c r="W16" s="6" t="n">
         <v>44798</v>
       </c>
-      <c r="W16" s="6" t="n">
+      <c r="X16" s="6" t="n">
         <v>44811</v>
       </c>
-      <c r="X16" s="5" t="inlineStr">
+      <c r="Y16" s="5" t="inlineStr">
         <is>
           <t>N-ASIACOM</t>
         </is>
       </c>
-      <c r="Y16" s="5" t="inlineStr">
+      <c r="Z16" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="Z16" s="7" t="n"/>
+      <c r="AA16" s="7" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="5" t="inlineStr">
+      <c r="A17" s="5" t="n">
+        <v>279</v>
+      </c>
+      <c r="B17" s="5" t="inlineStr">
         <is>
           <t>LMS 2022</t>
         </is>
       </c>
-      <c r="B17" s="5" t="inlineStr">
+      <c r="C17" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C17" s="5" t="inlineStr">
+      <c r="D17" s="5" t="inlineStr">
         <is>
           <t>Misamis Occidental</t>
         </is>
       </c>
-      <c r="D17" s="5" t="n">
+      <c r="E17" s="5" t="n">
         <v>127281</v>
       </c>
-      <c r="E17" s="5" t="inlineStr">
+      <c r="F17" s="5" t="inlineStr">
         <is>
           <t>Naburos ES</t>
         </is>
       </c>
-      <c r="F17" s="5" t="inlineStr">
+      <c r="G17" s="5" t="inlineStr">
         <is>
           <t>BALIANGAO</t>
         </is>
       </c>
-      <c r="G17" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="H17" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="J17" s="5" t="inlineStr">
+      <c r="K17" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND REPAIR AND REHABILITATION OF ONE STOREY THREE (3) - CLASSROOM SCHOOL BUILDING (BLSB - TYPE 1) - (6.40m x 8.00m)</t>
         </is>
       </c>
-      <c r="K17" s="5" t="n">
+      <c r="L17" s="5" t="n">
         <v>16494219.41995726</v>
       </c>
-      <c r="L17" s="5" t="n">
+      <c r="M17" s="5" t="n">
         <v>16279166.49</v>
       </c>
-      <c r="M17" s="5" t="inlineStr">
+      <c r="N17" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N17" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O17" s="6" t="n">
+      <c r="O17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P17" s="6" t="n">
         <v>45147</v>
       </c>
-      <c r="P17" s="6" t="n">
+      <c r="Q17" s="6" t="n">
         <v>45618</v>
       </c>
-      <c r="Q17" s="5" t="inlineStr"/>
-      <c r="R17" s="5" t="inlineStr">
+      <c r="R17" s="5" t="inlineStr"/>
+      <c r="S17" s="5" t="inlineStr">
         <is>
           <t>002-2023</t>
         </is>
       </c>
-      <c r="S17" s="6" t="n">
+      <c r="T17" s="6" t="n">
         <v>44860</v>
       </c>
-      <c r="T17" s="6" t="n">
+      <c r="U17" s="6" t="n">
         <v>44868</v>
       </c>
-      <c r="U17" s="6" t="n">
+      <c r="V17" s="6" t="n">
         <v>44880</v>
       </c>
-      <c r="V17" s="6" t="n">
+      <c r="W17" s="6" t="n">
         <v>44909</v>
       </c>
-      <c r="W17" s="6" t="n">
+      <c r="X17" s="6" t="n">
         <v>44956</v>
       </c>
-      <c r="X17" s="5" t="inlineStr">
+      <c r="Y17" s="5" t="inlineStr">
         <is>
           <t>RRJ Builders</t>
         </is>
       </c>
-      <c r="Y17" s="5" t="inlineStr">
+      <c r="Z17" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="Z17" s="7" t="n"/>
+      <c r="AA17" s="7" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="5" t="inlineStr">
+      <c r="A18" s="5" t="n">
+        <v>280</v>
+      </c>
+      <c r="B18" s="5" t="inlineStr">
         <is>
           <t>LMS 2022</t>
         </is>
       </c>
-      <c r="B18" s="5" t="inlineStr">
+      <c r="C18" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C18" s="5" t="inlineStr">
+      <c r="D18" s="5" t="inlineStr">
         <is>
           <t>Misamis Occidental</t>
         </is>
       </c>
-      <c r="D18" s="5" t="n">
+      <c r="E18" s="5" t="n">
         <v>127371</v>
       </c>
-      <c r="E18" s="5" t="inlineStr">
+      <c r="F18" s="5" t="inlineStr">
         <is>
           <t>Soso-on Elementary School</t>
         </is>
       </c>
-      <c r="F18" s="5" t="inlineStr">
+      <c r="G18" s="5" t="inlineStr">
         <is>
           <t>CONCEPCION</t>
         </is>
       </c>
-      <c r="G18" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="H18" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J18" s="5" t="inlineStr">
+      <c r="K18" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - THREE (3) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K18" s="5" t="n">
+      <c r="L18" s="5" t="n">
         <v>17603739.1268</v>
       </c>
-      <c r="L18" s="5" t="n">
+      <c r="M18" s="5" t="n">
         <v>17030172.22</v>
       </c>
-      <c r="M18" s="5" t="inlineStr">
+      <c r="N18" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N18" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O18" s="6" t="n">
+      <c r="O18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P18" s="6" t="n">
         <v>44991</v>
       </c>
-      <c r="P18" s="6" t="n">
+      <c r="Q18" s="6" t="n">
         <v>45477</v>
       </c>
-      <c r="Q18" s="5" t="inlineStr">
+      <c r="R18" s="5" t="inlineStr">
         <is>
           <t>LMS 2022-RX-Misamis Occidental-001</t>
         </is>
       </c>
-      <c r="R18" s="5" t="inlineStr">
+      <c r="S18" s="5" t="inlineStr">
         <is>
           <t>013-2022</t>
         </is>
       </c>
-      <c r="S18" s="6" t="n">
+      <c r="T18" s="6" t="n">
         <v>44707</v>
       </c>
-      <c r="T18" s="6" t="n">
+      <c r="U18" s="6" t="n">
         <v>44715</v>
       </c>
-      <c r="U18" s="6" t="n">
+      <c r="V18" s="6" t="n">
         <v>44727</v>
       </c>
-      <c r="V18" s="6" t="n">
+      <c r="W18" s="6" t="n">
         <v>44756</v>
       </c>
-      <c r="W18" s="6" t="n">
+      <c r="X18" s="6" t="n">
         <v>44833</v>
       </c>
-      <c r="X18" s="5" t="inlineStr">
+      <c r="Y18" s="5" t="inlineStr">
         <is>
           <t>RRJ Builders</t>
         </is>
       </c>
-      <c r="Y18" s="5" t="inlineStr">
+      <c r="Z18" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="Z18" s="7" t="n"/>
+      <c r="AA18" s="7" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="inlineStr">
+      <c r="A19" s="5" t="n">
+        <v>281</v>
+      </c>
+      <c r="B19" s="5" t="inlineStr">
         <is>
           <t>LMS 2022</t>
         </is>
       </c>
-      <c r="B19" s="5" t="inlineStr">
+      <c r="C19" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C19" s="5" t="inlineStr">
+      <c r="D19" s="5" t="inlineStr">
         <is>
           <t>Misamis Occidental</t>
         </is>
       </c>
-      <c r="D19" s="5" t="n">
+      <c r="E19" s="5" t="n">
         <v>501874</v>
       </c>
-      <c r="E19" s="5" t="inlineStr">
+      <c r="F19" s="5" t="inlineStr">
         <is>
           <t>Manla Integrated School</t>
         </is>
       </c>
-      <c r="F19" s="5" t="inlineStr">
+      <c r="G19" s="5" t="inlineStr">
         <is>
           <t>SAPANG DALAGA</t>
         </is>
       </c>
-      <c r="G19" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="H19" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I19" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J19" s="5" t="inlineStr">
+      <c r="K19" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - THREE (3) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, AND SOLAR PV ENERGY SYSTEM</t>
         </is>
       </c>
-      <c r="K19" s="5" t="n">
+      <c r="L19" s="5" t="n">
         <v>16435255.6737</v>
       </c>
-      <c r="L19" s="5" t="n">
+      <c r="M19" s="5" t="n">
         <v>15385260.39</v>
       </c>
-      <c r="M19" s="5" t="inlineStr">
+      <c r="N19" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N19" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O19" s="6" t="n">
+      <c r="O19" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P19" s="6" t="n">
         <v>45115</v>
       </c>
-      <c r="P19" s="6" t="n">
+      <c r="Q19" s="6" t="n">
         <v>45184</v>
       </c>
-      <c r="Q19" s="5" t="inlineStr">
+      <c r="R19" s="5" t="inlineStr">
         <is>
           <t>LMS 2022-RX-Misamis Occidental-002</t>
         </is>
       </c>
-      <c r="R19" s="5" t="inlineStr">
+      <c r="S19" s="5" t="inlineStr">
         <is>
           <t>001-2023</t>
         </is>
       </c>
-      <c r="S19" s="6" t="n">
+      <c r="T19" s="6" t="n">
         <v>44860</v>
       </c>
-      <c r="T19" s="6" t="n">
+      <c r="U19" s="6" t="n">
         <v>44868</v>
       </c>
-      <c r="U19" s="6" t="n">
+      <c r="V19" s="6" t="n">
         <v>44880</v>
       </c>
-      <c r="V19" s="6" t="n">
+      <c r="W19" s="6" t="n">
         <v>44908</v>
       </c>
-      <c r="W19" s="6" t="n">
+      <c r="X19" s="6" t="n">
         <v>44953</v>
       </c>
-      <c r="X19" s="5" t="inlineStr">
+      <c r="Y19" s="5" t="inlineStr">
         <is>
           <t>3R's Builders</t>
         </is>
       </c>
-      <c r="Y19" s="5" t="inlineStr">
+      <c r="Z19" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="Z19" s="7" t="n"/>
+      <c r="AA19" s="7" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="5" t="inlineStr">
+      <c r="A20" s="5" t="n">
+        <v>282</v>
+      </c>
+      <c r="B20" s="5" t="inlineStr">
         <is>
           <t>LMS 2022</t>
         </is>
       </c>
-      <c r="B20" s="5" t="inlineStr">
+      <c r="C20" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C20" s="5" t="inlineStr">
+      <c r="D20" s="5" t="inlineStr">
         <is>
           <t>Misamis Oriental</t>
         </is>
       </c>
-      <c r="D20" s="5" t="n">
+      <c r="E20" s="5" t="n">
         <v>201509</v>
       </c>
-      <c r="E20" s="5" t="inlineStr">
+      <c r="F20" s="5" t="inlineStr">
         <is>
           <t>Dahilig ES</t>
         </is>
       </c>
-      <c r="F20" s="5" t="inlineStr">
+      <c r="G20" s="5" t="inlineStr">
         <is>
           <t>BALINGOAN</t>
         </is>
       </c>
-      <c r="G20" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="H20" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J20" s="5" t="inlineStr">
+      <c r="K20" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF 2UNITS ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K20" s="5" t="n">
+      <c r="L20" s="5" t="n">
         <v>14773677.2926</v>
       </c>
-      <c r="L20" s="5" t="n">
+      <c r="M20" s="5" t="n">
         <v>13824219.59</v>
       </c>
-      <c r="M20" s="5" t="inlineStr">
+      <c r="N20" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N20" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O20" s="6" t="n">
+      <c r="O20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P20" s="6" t="n">
         <v>45028</v>
       </c>
-      <c r="P20" s="6" t="n">
+      <c r="Q20" s="6" t="n">
         <v>45118</v>
       </c>
-      <c r="Q20" s="5" t="inlineStr">
+      <c r="R20" s="5" t="inlineStr">
         <is>
           <t>PB-Infra 2022-001</t>
         </is>
       </c>
-      <c r="R20" s="5" t="inlineStr"/>
-      <c r="S20" s="6" t="n">
-        <v>44783</v>
-      </c>
+      <c r="S20" s="5" t="inlineStr"/>
       <c r="T20" s="6" t="n">
         <v>44783</v>
       </c>
       <c r="U20" s="6" t="n">
+        <v>44783</v>
+      </c>
+      <c r="V20" s="6" t="n">
         <v>44803</v>
       </c>
-      <c r="V20" s="6" t="n">
+      <c r="W20" s="6" t="n">
         <v>44826</v>
       </c>
-      <c r="W20" s="6" t="n">
+      <c r="X20" s="6" t="n">
         <v>44892</v>
       </c>
-      <c r="X20" s="5" t="inlineStr">
+      <c r="Y20" s="5" t="inlineStr">
         <is>
           <t>Meterking Inc.</t>
         </is>
       </c>
-      <c r="Y20" s="5" t="inlineStr">
+      <c r="Z20" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="Z20" s="7" t="n"/>
+      <c r="AA20" s="7" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="5" t="inlineStr">
+      <c r="A21" s="5" t="n">
+        <v>365</v>
+      </c>
+      <c r="B21" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B21" s="5" t="inlineStr">
+      <c r="C21" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C21" s="5" t="inlineStr">
+      <c r="D21" s="5" t="inlineStr">
         <is>
           <t>Lanao del Norte</t>
         </is>
       </c>
-      <c r="D21" s="5" t="n">
+      <c r="E21" s="5" t="n">
         <v>127159</v>
       </c>
-      <c r="E21" s="5" t="inlineStr">
+      <c r="F21" s="5" t="inlineStr">
         <is>
           <t>Bowi PS</t>
         </is>
       </c>
-      <c r="F21" s="5" t="inlineStr">
+      <c r="G21" s="5" t="inlineStr">
         <is>
           <t>PANTAR</t>
         </is>
       </c>
-      <c r="G21" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="H21" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J21" s="5" t="inlineStr">
+      <c r="K21" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF   RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM AND WATER SYSTEM </t>
         </is>
       </c>
-      <c r="K21" s="5" t="n">
+      <c r="L21" s="5" t="n">
         <v>17600258.64</v>
       </c>
-      <c r="L21" s="5" t="n">
+      <c r="M21" s="5" t="n">
         <v>14152726.43</v>
       </c>
-      <c r="M21" s="5" t="inlineStr">
+      <c r="N21" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N21" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O21" s="6" t="n">
+      <c r="O21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P21" s="6" t="n">
         <v>45447</v>
       </c>
-      <c r="P21" s="6" t="n">
+      <c r="Q21" s="6" t="n">
         <v>45442</v>
       </c>
-      <c r="Q21" s="5" t="inlineStr">
+      <c r="R21" s="5" t="inlineStr">
         <is>
           <t>2023 - 01(Infra)</t>
         </is>
       </c>
-      <c r="R21" s="5" t="n">
+      <c r="S21" s="5" t="n">
         <v>44927</v>
       </c>
-      <c r="S21" s="6" t="n">
+      <c r="T21" s="6" t="n">
         <v>45135</v>
       </c>
-      <c r="T21" s="6" t="n">
+      <c r="U21" s="6" t="n">
         <v>45145</v>
       </c>
-      <c r="U21" s="6" t="n">
+      <c r="V21" s="6" t="n">
         <v>45160</v>
       </c>
-      <c r="V21" s="6" t="n">
+      <c r="W21" s="6" t="n">
         <v>45170</v>
       </c>
-      <c r="W21" s="6" t="n">
+      <c r="X21" s="6" t="n">
         <v>45267</v>
       </c>
-      <c r="X21" s="5" t="inlineStr">
+      <c r="Y21" s="5" t="inlineStr">
         <is>
           <t>SBM Builder's</t>
         </is>
       </c>
-      <c r="Y21" s="5" t="inlineStr">
+      <c r="Z21" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="Z21" s="7" t="n"/>
+      <c r="AA21" s="7" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="5" t="inlineStr">
+      <c r="A22" s="5" t="n">
+        <v>366</v>
+      </c>
+      <c r="B22" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B22" s="5" t="inlineStr">
+      <c r="C22" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C22" s="5" t="inlineStr">
+      <c r="D22" s="5" t="inlineStr">
         <is>
           <t>Lanao del Norte</t>
         </is>
       </c>
-      <c r="D22" s="5" t="n">
+      <c r="E22" s="5" t="n">
         <v>127175</v>
       </c>
-      <c r="E22" s="5" t="inlineStr">
+      <c r="F22" s="5" t="inlineStr">
         <is>
           <t>Bulacon PS</t>
         </is>
       </c>
-      <c r="F22" s="5" t="inlineStr">
+      <c r="G22" s="5" t="inlineStr">
         <is>
           <t>SALVADOR</t>
         </is>
       </c>
-      <c r="G22" s="5" t="n">
+      <c r="H22" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H22" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I22" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J22" s="5" t="inlineStr">
+      <c r="K22" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF   RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM AND WATER SYSTEM </t>
         </is>
       </c>
-      <c r="K22" s="5" t="n">
+      <c r="L22" s="5" t="n">
         <v>17609276.98</v>
       </c>
-      <c r="L22" s="5" t="n">
+      <c r="M22" s="5" t="n">
         <v>17116471.79</v>
       </c>
-      <c r="M22" s="5" t="inlineStr">
+      <c r="N22" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N22" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O22" s="6" t="n">
-        <v>45736</v>
+      <c r="O22" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="P22" s="6" t="n">
         <v>45736</v>
       </c>
-      <c r="Q22" s="5" t="inlineStr">
+      <c r="Q22" s="6" t="n">
+        <v>45736</v>
+      </c>
+      <c r="R22" s="5" t="inlineStr">
         <is>
           <t>2024 - 09(Infra)</t>
         </is>
       </c>
-      <c r="R22" s="5" t="n">
+      <c r="S22" s="5" t="n">
         <v>45536</v>
       </c>
-      <c r="S22" s="6" t="n">
+      <c r="T22" s="6" t="n">
         <v>45449</v>
       </c>
-      <c r="T22" s="6" t="n">
+      <c r="U22" s="6" t="n">
         <v>45457</v>
       </c>
-      <c r="U22" s="6" t="n">
+      <c r="V22" s="6" t="n">
         <v>45478</v>
       </c>
-      <c r="V22" s="6" t="n">
+      <c r="W22" s="6" t="n">
         <v>45509</v>
       </c>
-      <c r="W22" s="6" t="n">
+      <c r="X22" s="6" t="n">
         <v>45530</v>
       </c>
-      <c r="X22" s="5" t="inlineStr">
+      <c r="Y22" s="5" t="inlineStr">
         <is>
           <t>Lanao Genesis Construction Supply</t>
         </is>
       </c>
-      <c r="Y22" s="5" t="inlineStr">
+      <c r="Z22" s="5" t="inlineStr">
         <is>
           <t>1st contract was terminated; 2nd contract NTP on Aug. 2024, looking for source of water for watersystem</t>
         </is>
       </c>
-      <c r="Z22" s="7" t="n"/>
+      <c r="AA22" s="7" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="5" t="inlineStr">
+      <c r="A23" s="5" t="n">
+        <v>367</v>
+      </c>
+      <c r="B23" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B23" s="5" t="inlineStr">
+      <c r="C23" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C23" s="5" t="inlineStr">
+      <c r="D23" s="5" t="inlineStr">
         <is>
           <t>Misamis Occidental</t>
         </is>
       </c>
-      <c r="D23" s="5" t="n">
+      <c r="E23" s="5" t="n">
         <v>501873</v>
       </c>
-      <c r="E23" s="5" t="inlineStr">
+      <c r="F23" s="5" t="inlineStr">
         <is>
           <t>Locus Integrated School</t>
         </is>
       </c>
-      <c r="F23" s="5" t="inlineStr">
+      <c r="G23" s="5" t="inlineStr">
         <is>
           <t>SAPANG DALAGA</t>
         </is>
       </c>
-      <c r="G23" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="H23" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I23" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J23" s="5" t="inlineStr">
+      <c r="K23" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - THREE (3) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE AND SOLAR PV ENERGY SYSTEM</t>
         </is>
       </c>
-      <c r="K23" s="5" t="n">
+      <c r="L23" s="5" t="n">
         <v>17750076.13</v>
       </c>
-      <c r="L23" s="5" t="n">
+      <c r="M23" s="5" t="n">
         <v>17392036.74</v>
       </c>
-      <c r="M23" s="5" t="inlineStr">
+      <c r="N23" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N23" s="5" t="n">
+      <c r="O23" s="5" t="n">
         <v>0.95</v>
       </c>
-      <c r="O23" s="6" t="n">
+      <c r="P23" s="6" t="n">
         <v>45404</v>
       </c>
-      <c r="P23" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
       <c r="Q23" s="5" t="inlineStr">
         <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="R23" s="5" t="inlineStr">
+        <is>
           <t>LMS 2023 - RX - MISAMIS OCCIDENTAL - 001 - R</t>
         </is>
       </c>
-      <c r="R23" s="5" t="inlineStr">
+      <c r="S23" s="5" t="inlineStr">
         <is>
           <t>016-2023</t>
         </is>
       </c>
-      <c r="S23" s="6" t="n">
+      <c r="T23" s="6" t="n">
         <v>45140</v>
       </c>
-      <c r="T23" s="6" t="n">
+      <c r="U23" s="6" t="n">
         <v>45148</v>
       </c>
-      <c r="U23" s="6" t="n">
+      <c r="V23" s="6" t="n">
         <v>45163</v>
       </c>
-      <c r="V23" s="6" t="n">
+      <c r="W23" s="6" t="n">
         <v>45175</v>
       </c>
-      <c r="W23" s="6" t="n">
+      <c r="X23" s="6" t="n">
         <v>45216</v>
       </c>
-      <c r="X23" s="5" t="inlineStr">
+      <c r="Y23" s="5" t="inlineStr">
         <is>
           <t>Genetian Builders &amp; Enterprises, Inc.</t>
         </is>
       </c>
-      <c r="Y23" s="5" t="inlineStr">
+      <c r="Z23" s="5" t="inlineStr">
         <is>
           <t>Schedule for Final Inspection on June 4, 2025.</t>
         </is>
       </c>
-      <c r="Z23" s="7" t="n"/>
+      <c r="AA23" s="7" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="5" t="inlineStr">
+      <c r="A24" s="5" t="n">
+        <v>368</v>
+      </c>
+      <c r="B24" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B24" s="5" t="inlineStr">
+      <c r="C24" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C24" s="5" t="inlineStr">
+      <c r="D24" s="5" t="inlineStr">
         <is>
           <t>Misamis Occidental</t>
         </is>
       </c>
-      <c r="D24" s="5" t="n">
+      <c r="E24" s="5" t="n">
         <v>127539</v>
       </c>
-      <c r="E24" s="5" t="inlineStr">
+      <c r="F24" s="5" t="inlineStr">
         <is>
           <t>Camanse ES</t>
         </is>
       </c>
-      <c r="F24" s="5" t="inlineStr">
+      <c r="G24" s="5" t="inlineStr">
         <is>
           <t>SINACABAN</t>
         </is>
       </c>
-      <c r="G24" s="5" t="n">
+      <c r="H24" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H24" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J24" s="5" t="inlineStr">
+      <c r="K24" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - THREE (3) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE AND SOLAR PV ENERGY SYSTEM</t>
         </is>
       </c>
-      <c r="K24" s="5" t="n">
+      <c r="L24" s="5" t="n">
         <v>17472250.06</v>
       </c>
-      <c r="L24" s="5" t="n">
+      <c r="M24" s="5" t="n">
         <v>16780281.43</v>
       </c>
-      <c r="M24" s="5" t="inlineStr">
+      <c r="N24" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N24" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O24" s="6" t="n">
+      <c r="O24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P24" s="6" t="n">
         <v>45418</v>
       </c>
-      <c r="P24" s="6" t="n">
+      <c r="Q24" s="6" t="n">
         <v>45456</v>
       </c>
-      <c r="Q24" s="5" t="inlineStr">
+      <c r="R24" s="5" t="inlineStr">
         <is>
           <t>LMS 2023 - RX - MISAMIS OCCIDENTAL - 002 - R</t>
         </is>
       </c>
-      <c r="R24" s="5" t="inlineStr">
+      <c r="S24" s="5" t="inlineStr">
         <is>
           <t>017-2023</t>
         </is>
       </c>
-      <c r="S24" s="6" t="n">
+      <c r="T24" s="6" t="n">
         <v>45140</v>
       </c>
-      <c r="T24" s="6" t="n">
+      <c r="U24" s="6" t="n">
         <v>45148</v>
       </c>
-      <c r="U24" s="6" t="n">
+      <c r="V24" s="6" t="n">
         <v>45163</v>
       </c>
-      <c r="V24" s="6" t="n">
+      <c r="W24" s="6" t="n">
         <v>45175</v>
       </c>
-      <c r="W24" s="6" t="n">
+      <c r="X24" s="6" t="n">
         <v>45238</v>
       </c>
-      <c r="X24" s="5" t="inlineStr">
+      <c r="Y24" s="5" t="inlineStr">
         <is>
           <t>Genetian Builders &amp; Enterprises, Inc.</t>
         </is>
       </c>
-      <c r="Y24" s="5" t="inlineStr">
+      <c r="Z24" s="5" t="inlineStr">
         <is>
           <t>Completed with occupancy permit</t>
         </is>
       </c>
-      <c r="Z24" s="7" t="n"/>
+      <c r="AA24" s="7" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="5" t="inlineStr">
+      <c r="A25" s="5" t="n">
+        <v>369</v>
+      </c>
+      <c r="B25" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B25" s="5" t="inlineStr">
+      <c r="C25" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C25" s="5" t="inlineStr">
+      <c r="D25" s="5" t="inlineStr">
         <is>
           <t>Misamis Oriental</t>
         </is>
       </c>
-      <c r="D25" s="5" t="n">
+      <c r="E25" s="5" t="n">
         <v>130154</v>
       </c>
-      <c r="E25" s="5" t="inlineStr">
+      <c r="F25" s="5" t="inlineStr">
         <is>
           <t>Kinanao Pamalihi ES</t>
         </is>
       </c>
-      <c r="F25" s="5" t="inlineStr">
+      <c r="G25" s="5" t="inlineStr">
         <is>
           <t>BALINGASAG</t>
         </is>
       </c>
-      <c r="G25" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="H25" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I25" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J25" s="5" t="inlineStr">
+      <c r="K25" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF 2 UNITS ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K25" s="5" t="n">
+      <c r="L25" s="5" t="n">
         <v>19632409.94</v>
       </c>
-      <c r="L25" s="5" t="n">
+      <c r="M25" s="5" t="n">
         <v>17364431.28</v>
       </c>
-      <c r="M25" s="5" t="inlineStr">
+      <c r="N25" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N25" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O25" s="6" t="n">
+      <c r="O25" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P25" s="6" t="n">
         <v>45416</v>
       </c>
-      <c r="P25" s="6" t="n">
+      <c r="Q25" s="6" t="n">
         <v>45641</v>
       </c>
-      <c r="Q25" s="5" t="inlineStr">
+      <c r="R25" s="5" t="inlineStr">
         <is>
           <t>PB - Construction-2023-002</t>
         </is>
       </c>
-      <c r="R25" s="5" t="n">
+      <c r="S25" s="5" t="n">
         <v>4673305</v>
       </c>
-      <c r="S25" s="5" t="inlineStr">
+      <c r="T25" s="5" t="inlineStr">
         <is>
           <t>June 3,2023</t>
         </is>
       </c>
-      <c r="T25" s="5" t="inlineStr">
+      <c r="U25" s="5" t="inlineStr">
         <is>
           <t>June 13,2023</t>
         </is>
       </c>
-      <c r="U25" s="5" t="inlineStr">
+      <c r="V25" s="5" t="inlineStr">
         <is>
           <t>June 27,2023</t>
         </is>
       </c>
-      <c r="V25" s="5" t="inlineStr">
+      <c r="W25" s="5" t="inlineStr">
         <is>
           <t>July 27,2023</t>
         </is>
       </c>
-      <c r="W25" s="6" t="n">
+      <c r="X25" s="6" t="n">
         <v>45289</v>
       </c>
-      <c r="X25" s="5" t="inlineStr">
+      <c r="Y25" s="5" t="inlineStr">
         <is>
           <t>Minkonstrak Engineering and Gen Services</t>
         </is>
       </c>
-      <c r="Y25" s="5" t="inlineStr">
+      <c r="Z25" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="Z25" s="7" t="n"/>
+      <c r="AA25" s="7" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="5" t="inlineStr">
+      <c r="A26" s="5" t="n">
+        <v>516</v>
+      </c>
+      <c r="B26" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B26" s="5" t="inlineStr">
+      <c r="C26" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C26" s="5" t="inlineStr">
+      <c r="D26" s="5" t="inlineStr">
         <is>
           <t>Bukidnon</t>
         </is>
       </c>
-      <c r="D26" s="5" t="n">
+      <c r="E26" s="5" t="n">
         <v>113847</v>
       </c>
-      <c r="E26" s="5" t="inlineStr">
+      <c r="F26" s="5" t="inlineStr">
         <is>
           <t>Basbasanan To Goynawa To Balakayo</t>
         </is>
       </c>
-      <c r="F26" s="5" t="inlineStr">
+      <c r="G26" s="5" t="inlineStr">
         <is>
           <t>SAN FERNANDO</t>
         </is>
       </c>
-      <c r="G26" s="5" t="inlineStr">
+      <c r="H26" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">2nd </t>
         </is>
       </c>
-      <c r="H26" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I26" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J26" s="5" t="inlineStr">
+      <c r="K26" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF BUILDING NO.1- 1 STOREY 3 CLASSROOM BUILDING with TOILET ATTACHED, wITH  PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, WATER SYSTEM, PERIMETER GATE AND FENCE</t>
         </is>
       </c>
-      <c r="K26" s="5" t="n">
+      <c r="L26" s="5" t="n">
         <v>11198312.24</v>
       </c>
-      <c r="L26" s="5" t="n">
+      <c r="M26" s="5" t="n">
         <v>8493552.5</v>
       </c>
-      <c r="M26" s="5" t="inlineStr">
+      <c r="N26" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N26" s="5" t="n">
+      <c r="O26" s="5" t="n">
         <v>0.95</v>
       </c>
-      <c r="O26" s="5" t="inlineStr">
+      <c r="P26" s="5" t="inlineStr">
         <is>
           <t>Revised to June 10, 2025</t>
         </is>
       </c>
-      <c r="P26" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
       <c r="Q26" s="5" t="inlineStr">
         <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="R26" s="5" t="inlineStr">
+        <is>
           <t>PB-02-11-2023-0026</t>
         </is>
       </c>
-      <c r="R26" s="5" t="inlineStr">
+      <c r="S26" s="5" t="inlineStr">
         <is>
           <t>012-2024</t>
         </is>
       </c>
-      <c r="S26" s="6" t="n">
+      <c r="T26" s="6" t="n">
         <v>45256</v>
       </c>
-      <c r="T26" s="6" t="n">
+      <c r="U26" s="6" t="n">
         <v>45264</v>
       </c>
-      <c r="U26" s="6" t="n">
+      <c r="V26" s="6" t="n">
         <v>45278</v>
       </c>
-      <c r="V26" s="6" t="n">
+      <c r="W26" s="6" t="n">
         <v>45287</v>
       </c>
-      <c r="W26" s="6" t="n">
+      <c r="X26" s="6" t="n">
         <v>45432</v>
       </c>
-      <c r="X26" s="5" t="inlineStr">
+      <c r="Y26" s="5" t="inlineStr">
         <is>
           <t>Vibranium Builders Corporation</t>
         </is>
       </c>
-      <c r="Y26" s="5" t="inlineStr">
+      <c r="Z26" s="5" t="inlineStr">
         <is>
           <t>Substantially Completed; with Approved Time extension no.'s 1&amp;2, variation order no.'s 1&amp;2 and due to unfavorable weather conditions. Request a extension  awaits the delivery of furniture.</t>
         </is>
       </c>
-      <c r="Z26" s="7" t="n"/>
+      <c r="AA26" s="7" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="5" t="inlineStr">
+      <c r="A27" s="5" t="n">
+        <v>517</v>
+      </c>
+      <c r="B27" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B27" s="5" t="inlineStr">
+      <c r="C27" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C27" s="5" t="inlineStr">
+      <c r="D27" s="5" t="inlineStr">
         <is>
           <t>Bukidnon</t>
         </is>
       </c>
-      <c r="D27" s="5" t="n">
+      <c r="E27" s="5" t="n">
         <v>113847</v>
       </c>
-      <c r="E27" s="5" t="inlineStr">
+      <c r="F27" s="5" t="inlineStr">
         <is>
           <t>Basbasanan To Goynawa To Balakayo</t>
         </is>
       </c>
-      <c r="F27" s="5" t="inlineStr">
+      <c r="G27" s="5" t="inlineStr">
         <is>
           <t>SAN FERNANDO</t>
         </is>
       </c>
-      <c r="G27" s="5" t="inlineStr">
+      <c r="H27" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">2nd </t>
         </is>
       </c>
-      <c r="H27" s="5" t="inlineStr"/>
-      <c r="I27" s="5" t="n">
+      <c r="I27" s="5" t="inlineStr"/>
+      <c r="J27" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J27" s="5" t="inlineStr">
+      <c r="K27" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION BUILDING NO. 2- 1 STOREY 2 CLASSROOM BUILDING WITH TOILET ATTACHED WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM AND PERIMETER SOLAR LIGHTS</t>
         </is>
       </c>
-      <c r="K27" s="5" t="n">
+      <c r="L27" s="5" t="n">
         <v>14860395.24</v>
       </c>
-      <c r="L27" s="5" t="n">
+      <c r="M27" s="5" t="n">
         <v>8493552.5</v>
       </c>
-      <c r="M27" s="5" t="inlineStr">
+      <c r="N27" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N27" s="5" t="n">
+      <c r="O27" s="5" t="n">
         <v>0.95</v>
       </c>
-      <c r="O27" s="5" t="inlineStr">
+      <c r="P27" s="5" t="inlineStr">
         <is>
           <t>Revised to June 10, 2025</t>
         </is>
       </c>
-      <c r="P27" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
       <c r="Q27" s="5" t="inlineStr">
         <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="R27" s="5" t="inlineStr">
+        <is>
           <t>PB-02-11-2023-0026</t>
         </is>
       </c>
-      <c r="R27" s="5" t="inlineStr">
+      <c r="S27" s="5" t="inlineStr">
         <is>
           <t>012-2024</t>
         </is>
       </c>
-      <c r="S27" s="6" t="n">
+      <c r="T27" s="6" t="n">
         <v>45256</v>
       </c>
-      <c r="T27" s="6" t="n">
+      <c r="U27" s="6" t="n">
         <v>45264</v>
       </c>
-      <c r="U27" s="6" t="n">
+      <c r="V27" s="6" t="n">
         <v>45278</v>
       </c>
-      <c r="V27" s="6" t="n">
+      <c r="W27" s="6" t="n">
         <v>45287</v>
       </c>
-      <c r="W27" s="6" t="n">
+      <c r="X27" s="6" t="n">
         <v>45432</v>
       </c>
-      <c r="X27" s="5" t="inlineStr">
+      <c r="Y27" s="5" t="inlineStr">
         <is>
           <t>Vibranium Builders Corporation</t>
         </is>
       </c>
-      <c r="Y27" s="5" t="inlineStr">
+      <c r="Z27" s="5" t="inlineStr">
         <is>
           <t>substantially completed; with Approved Time extension no.'s 1&amp;2, variation order no.'s 1&amp;2 and due to unfavorable weather conditions. Request a extension  awaits the delivery of furniture.</t>
         </is>
       </c>
-      <c r="Z27" s="7" t="n"/>
+      <c r="AA27" s="7" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="5" t="inlineStr">
+      <c r="A28" s="5" t="n">
+        <v>518</v>
+      </c>
+      <c r="B28" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B28" s="5" t="inlineStr">
+      <c r="C28" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C28" s="5" t="inlineStr">
+      <c r="D28" s="5" t="inlineStr">
         <is>
           <t>El Salvador</t>
         </is>
       </c>
-      <c r="D28" s="5" t="n">
+      <c r="E28" s="5" t="n">
         <v>305683</v>
       </c>
-      <c r="E28" s="5" t="inlineStr">
+      <c r="F28" s="5" t="inlineStr">
         <is>
           <t>Sambulawan National High School</t>
         </is>
       </c>
-      <c r="F28" s="5" t="inlineStr">
+      <c r="G28" s="5" t="inlineStr">
         <is>
           <t>CITY OF EL SALVADOR</t>
         </is>
       </c>
-      <c r="G28" s="5" t="inlineStr">
+      <c r="H28" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">2nd </t>
         </is>
       </c>
-      <c r="H28" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I28" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J28" s="5" t="inlineStr">
+      <c r="K28" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">CONSTRUCTION OF 1STY3CL SCHOOL BUILDING (WITH TOILET) WITH PROVISION SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, WATER SYSTEM AND FLOOD MARKER </t>
         </is>
       </c>
-      <c r="K28" s="5" t="n">
+      <c r="L28" s="5" t="n">
         <v>16488351.52</v>
       </c>
-      <c r="L28" s="5" t="n">
+      <c r="M28" s="5" t="n">
         <v>12568813.6</v>
       </c>
-      <c r="M28" s="5" t="inlineStr">
+      <c r="N28" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N28" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O28" s="6" t="n">
+      <c r="O28" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P28" s="6" t="n">
         <v>45580</v>
       </c>
-      <c r="P28" s="6" t="n">
+      <c r="Q28" s="6" t="n">
         <v>45608</v>
       </c>
-      <c r="Q28" s="5" t="inlineStr">
+      <c r="R28" s="5" t="inlineStr">
         <is>
           <t>2024-01-0003</t>
         </is>
       </c>
-      <c r="R28" s="5" t="inlineStr">
+      <c r="S28" s="5" t="inlineStr">
         <is>
           <t>2024-02-0002</t>
         </is>
       </c>
-      <c r="S28" s="6" t="n">
+      <c r="T28" s="6" t="n">
         <v>45295</v>
       </c>
-      <c r="T28" s="6" t="n">
+      <c r="U28" s="6" t="n">
         <v>45314</v>
       </c>
-      <c r="U28" s="6" t="n">
+      <c r="V28" s="6" t="n">
         <v>45329</v>
       </c>
-      <c r="V28" s="6" t="n">
+      <c r="W28" s="6" t="n">
         <v>45420</v>
       </c>
-      <c r="W28" s="6" t="n">
+      <c r="X28" s="6" t="n">
         <v>45433</v>
       </c>
-      <c r="X28" s="5" t="inlineStr">
+      <c r="Y28" s="5" t="inlineStr">
         <is>
           <t>JDE Construction</t>
         </is>
       </c>
-      <c r="Y28" s="5" t="inlineStr">
+      <c r="Z28" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="Z28" s="7" t="n"/>
+      <c r="AA28" s="7" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="5" t="inlineStr">
+      <c r="A29" s="5" t="n">
+        <v>519</v>
+      </c>
+      <c r="B29" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B29" s="5" t="inlineStr">
+      <c r="C29" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C29" s="5" t="inlineStr">
+      <c r="D29" s="5" t="inlineStr">
         <is>
           <t>Gingoog City</t>
         </is>
       </c>
-      <c r="D29" s="5" t="n">
+      <c r="E29" s="5" t="n">
         <v>111092</v>
       </c>
-      <c r="E29" s="5" t="inlineStr">
+      <c r="F29" s="5" t="inlineStr">
         <is>
           <t>Sagu-Ilaw Ta Kabuka Elementary School</t>
         </is>
       </c>
-      <c r="F29" s="5" t="inlineStr">
+      <c r="G29" s="5" t="inlineStr">
         <is>
           <t>GINGOOG CITY</t>
         </is>
       </c>
-      <c r="G29" s="5" t="inlineStr">
+      <c r="H29" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">1st </t>
         </is>
       </c>
-      <c r="H29" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I29" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J29" s="5" t="inlineStr">
+      <c r="K29" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE AND SOLAR PV ENERGY SYSTEM </t>
         </is>
       </c>
-      <c r="K29" s="5" t="n">
+      <c r="L29" s="5" t="n">
         <v>22120108.86</v>
       </c>
-      <c r="L29" s="5" t="n">
+      <c r="M29" s="5" t="n">
         <v>21858003.57</v>
       </c>
-      <c r="M29" s="5" t="inlineStr">
+      <c r="N29" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N29" s="5" t="n">
+      <c r="O29" s="5" t="n">
         <v>0.5</v>
       </c>
-      <c r="O29" s="6" t="n">
+      <c r="P29" s="6" t="n">
         <v>45802</v>
       </c>
-      <c r="P29" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
       <c r="Q29" s="5" t="inlineStr">
         <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="R29" s="5" t="inlineStr">
+        <is>
           <t>LMS 2023 - RX - GINGOOG CITY - 004</t>
         </is>
       </c>
-      <c r="R29" s="5" t="inlineStr">
+      <c r="S29" s="5" t="inlineStr">
         <is>
           <t>BMB-F-24-0000862</t>
         </is>
       </c>
-      <c r="S29" s="6" t="n">
+      <c r="T29" s="6" t="n">
         <v>45233</v>
       </c>
-      <c r="T29" s="6" t="n">
+      <c r="U29" s="6" t="n">
         <v>45240</v>
       </c>
-      <c r="U29" s="6" t="n">
+      <c r="V29" s="6" t="n">
         <v>45251</v>
       </c>
-      <c r="V29" s="6" t="n">
+      <c r="W29" s="6" t="n">
         <v>45433</v>
       </c>
-      <c r="W29" s="6" t="n">
+      <c r="X29" s="6" t="n">
         <v>45446</v>
       </c>
-      <c r="X29" s="5" t="inlineStr">
+      <c r="Y29" s="5" t="inlineStr">
         <is>
           <t>Blaff Construction and Supplies</t>
         </is>
       </c>
-      <c r="Y29" s="5" t="inlineStr">
+      <c r="Z29" s="5" t="inlineStr">
         <is>
           <t>On-going Construction (under time suspension - due to actual site condition)</t>
         </is>
       </c>
-      <c r="Z29" s="7" t="n"/>
+      <c r="AA29" s="7" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="5" t="inlineStr">
+      <c r="A30" s="5" t="n">
+        <v>520</v>
+      </c>
+      <c r="B30" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B30" s="5" t="inlineStr">
+      <c r="C30" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C30" s="5" t="inlineStr">
+      <c r="D30" s="5" t="inlineStr">
         <is>
           <t>Iligan City</t>
         </is>
       </c>
-      <c r="D30" s="5" t="n">
+      <c r="E30" s="5" t="n">
         <v>128131</v>
       </c>
-      <c r="E30" s="5" t="inlineStr">
+      <c r="F30" s="5" t="inlineStr">
         <is>
           <t>Panoroganan ES</t>
         </is>
       </c>
-      <c r="F30" s="5" t="inlineStr">
+      <c r="G30" s="5" t="inlineStr">
         <is>
           <t>ILIGAN CITY</t>
         </is>
       </c>
-      <c r="G30" s="5" t="inlineStr">
+      <c r="H30" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Lone </t>
         </is>
       </c>
-      <c r="H30" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I30" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J30" s="5" t="inlineStr">
+      <c r="K30" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE AND SOLAR PV ENERGY SYSTEM</t>
         </is>
       </c>
-      <c r="K30" s="5" t="n">
+      <c r="L30" s="5" t="n">
         <v>15851835.73</v>
       </c>
-      <c r="L30" s="5" t="n">
+      <c r="M30" s="5" t="n">
         <v>12555775.14</v>
       </c>
-      <c r="M30" s="5" t="inlineStr">
+      <c r="N30" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N30" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O30" s="6" t="n">
+      <c r="O30" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P30" s="6" t="n">
         <v>45667</v>
       </c>
-      <c r="P30" s="6" t="n">
+      <c r="Q30" s="6" t="n">
         <v>45700</v>
       </c>
-      <c r="Q30" s="5" t="inlineStr">
+      <c r="R30" s="5" t="inlineStr">
         <is>
           <t>INFRA-2023-11-03</t>
         </is>
       </c>
-      <c r="R30" s="5" t="inlineStr">
+      <c r="S30" s="5" t="inlineStr">
         <is>
           <t>INFRA-2023-11-03</t>
         </is>
       </c>
-      <c r="S30" s="6" t="n">
+      <c r="T30" s="6" t="n">
         <v>45258</v>
       </c>
-      <c r="T30" s="6" t="n">
+      <c r="U30" s="6" t="n">
         <v>45266</v>
       </c>
-      <c r="U30" s="6" t="n">
+      <c r="V30" s="6" t="n">
         <v>45280</v>
       </c>
-      <c r="V30" s="6" t="n">
+      <c r="W30" s="6" t="n">
         <v>45317</v>
       </c>
-      <c r="W30" s="6" t="n">
+      <c r="X30" s="6" t="n">
         <v>45443</v>
       </c>
-      <c r="X30" s="5" t="inlineStr">
+      <c r="Y30" s="5" t="inlineStr">
         <is>
           <t>Brima Construction and Enterprise</t>
         </is>
       </c>
-      <c r="Y30" s="5" t="inlineStr">
+      <c r="Z30" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="Z30" s="7" t="n"/>
+      <c r="AA30" s="7" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="5" t="inlineStr">
+      <c r="A31" s="5" t="n">
+        <v>521</v>
+      </c>
+      <c r="B31" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B31" s="5" t="inlineStr">
+      <c r="C31" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C31" s="5" t="inlineStr">
+      <c r="D31" s="5" t="inlineStr">
         <is>
           <t>Malaybalay City</t>
         </is>
       </c>
-      <c r="D31" s="5" t="n">
+      <c r="E31" s="5" t="n">
         <v>501853</v>
       </c>
-      <c r="E31" s="5" t="inlineStr">
+      <c r="F31" s="5" t="inlineStr">
         <is>
           <t>Mapayag Integrated School</t>
         </is>
       </c>
-      <c r="F31" s="5" t="inlineStr">
+      <c r="G31" s="5" t="inlineStr">
         <is>
           <t>CITY MALAYBALAY (Capital)</t>
         </is>
       </c>
-      <c r="G31" s="5" t="inlineStr">
+      <c r="H31" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">2nd </t>
         </is>
       </c>
-      <c r="H31" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" s="5" t="inlineStr"/>
-      <c r="J31" s="5" t="inlineStr">
+      <c r="I31" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" s="5" t="inlineStr"/>
+      <c r="K31" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">CONSTRUCTION OF SCHOOL BUILDING (WITH TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, WATER SYSTEM AND FLOOD MARKER </t>
         </is>
       </c>
-      <c r="K31" s="5" t="n">
+      <c r="L31" s="5" t="n">
         <v>18241095.24</v>
       </c>
-      <c r="L31" s="5" t="n">
+      <c r="M31" s="5" t="n">
         <v>14778549.81</v>
       </c>
-      <c r="M31" s="5" t="inlineStr">
+      <c r="N31" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N31" s="5" t="n">
+      <c r="O31" s="5" t="n">
         <v>0.9</v>
       </c>
-      <c r="O31" s="6" t="n">
+      <c r="P31" s="6" t="n">
         <v>45754</v>
       </c>
-      <c r="P31" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
       <c r="Q31" s="5" t="inlineStr">
         <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="R31" s="5" t="inlineStr">
+        <is>
           <t>003-INFRA-2023</t>
         </is>
       </c>
-      <c r="R31" s="5" t="inlineStr">
+      <c r="S31" s="5" t="inlineStr">
         <is>
           <t>003-INFRA-2023</t>
         </is>
       </c>
-      <c r="S31" s="6" t="n">
+      <c r="T31" s="6" t="n">
         <v>45259</v>
       </c>
-      <c r="T31" s="6" t="n">
+      <c r="U31" s="6" t="n">
         <v>45267</v>
-      </c>
-      <c r="U31" s="6" t="n">
-        <v>45279</v>
       </c>
       <c r="V31" s="6" t="n">
         <v>45279</v>
       </c>
       <c r="W31" s="6" t="n">
+        <v>45279</v>
+      </c>
+      <c r="X31" s="6" t="n">
         <v>45544</v>
       </c>
-      <c r="X31" s="5" t="inlineStr">
+      <c r="Y31" s="5" t="inlineStr">
         <is>
           <t>Vimbranium Builder's Corporation</t>
         </is>
       </c>
-      <c r="Y31" s="5" t="inlineStr">
+      <c r="Z31" s="5" t="inlineStr">
         <is>
           <t>Approved Time Extension equivalent to 30 CDs.</t>
         </is>
       </c>
-      <c r="Z31" s="7" t="n"/>
+      <c r="AA31" s="7" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="5" t="inlineStr">
+      <c r="A32" s="5" t="n">
+        <v>522</v>
+      </c>
+      <c r="B32" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B32" s="5" t="inlineStr">
+      <c r="C32" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C32" s="5" t="inlineStr">
+      <c r="D32" s="5" t="inlineStr">
         <is>
           <t>Misamis Occidental</t>
         </is>
       </c>
-      <c r="D32" s="5" t="n">
+      <c r="E32" s="5" t="n">
         <v>127568</v>
       </c>
-      <c r="E32" s="5" t="inlineStr">
+      <c r="F32" s="5" t="inlineStr">
         <is>
           <t>Gala ES</t>
         </is>
       </c>
-      <c r="F32" s="5" t="inlineStr">
+      <c r="G32" s="5" t="inlineStr">
         <is>
           <t>TUDELA</t>
         </is>
       </c>
-      <c r="G32" s="5" t="inlineStr">
+      <c r="H32" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">2nd </t>
         </is>
       </c>
-      <c r="H32" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I32" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J32" s="5" t="inlineStr">
+      <c r="K32" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE AND SOLAR PV ENERGY SYSTEM</t>
         </is>
       </c>
-      <c r="K32" s="5" t="n">
+      <c r="L32" s="5" t="n">
         <v>16544911.02</v>
       </c>
-      <c r="L32" s="5" t="n">
+      <c r="M32" s="5" t="n">
         <v>16369981.76</v>
       </c>
-      <c r="M32" s="5" t="inlineStr">
+      <c r="N32" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N32" s="5" t="n">
+      <c r="O32" s="5" t="n">
         <v>0.95</v>
       </c>
-      <c r="O32" s="6" t="n">
+      <c r="P32" s="6" t="n">
         <v>45370</v>
       </c>
-      <c r="P32" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
       <c r="Q32" s="5" t="inlineStr">
         <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="R32" s="5" t="inlineStr">
+        <is>
           <t>LMS 2024 - RX - MISAMIS OCCIDENTAL - 002</t>
         </is>
       </c>
-      <c r="R32" s="5" t="inlineStr">
+      <c r="S32" s="5" t="inlineStr">
         <is>
           <t>011-2024</t>
         </is>
       </c>
-      <c r="S32" s="6" t="n">
+      <c r="T32" s="6" t="n">
         <v>45307</v>
       </c>
-      <c r="T32" s="6" t="n">
+      <c r="U32" s="6" t="n">
         <v>45315</v>
       </c>
-      <c r="U32" s="6" t="n">
+      <c r="V32" s="6" t="n">
         <v>45327</v>
       </c>
-      <c r="V32" s="6" t="n">
+      <c r="W32" s="6" t="n">
         <v>45375</v>
       </c>
-      <c r="W32" s="6" t="n">
+      <c r="X32" s="6" t="n">
         <v>45495</v>
       </c>
-      <c r="X32" s="5" t="inlineStr">
+      <c r="Y32" s="5" t="inlineStr">
         <is>
           <t>RJLG CONSTRUCTION AND SUPPLIES</t>
         </is>
       </c>
-      <c r="Y32" s="5" t="inlineStr">
+      <c r="Z32" s="5" t="inlineStr">
         <is>
           <t>For final inspection on June 11, 2025</t>
         </is>
       </c>
-      <c r="Z32" s="7" t="n"/>
+      <c r="AA32" s="7" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" s="5" t="inlineStr">
+      <c r="A33" s="5" t="n">
+        <v>523</v>
+      </c>
+      <c r="B33" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B33" s="5" t="inlineStr">
+      <c r="C33" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C33" s="5" t="inlineStr">
+      <c r="D33" s="5" t="inlineStr">
         <is>
           <t>Misamis Oriental</t>
         </is>
       </c>
-      <c r="D33" s="5" t="n">
+      <c r="E33" s="5" t="n">
         <v>201506</v>
       </c>
-      <c r="E33" s="5" t="inlineStr">
+      <c r="F33" s="5" t="inlineStr">
         <is>
           <t>Kalitian ES</t>
         </is>
       </c>
-      <c r="F33" s="5" t="inlineStr">
+      <c r="G33" s="5" t="inlineStr">
         <is>
           <t>KINOGUITAN</t>
         </is>
       </c>
-      <c r="G33" s="5" t="inlineStr">
+      <c r="H33" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">1st </t>
         </is>
       </c>
-      <c r="H33" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I33" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J33" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J33" s="5" t="inlineStr">
+      <c r="K33" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF   RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K33" s="5" t="n">
+      <c r="L33" s="5" t="n">
         <v>17917491.26</v>
       </c>
-      <c r="L33" s="5" t="n">
+      <c r="M33" s="5" t="n">
         <v>14458743.76</v>
       </c>
-      <c r="M33" s="5" t="inlineStr">
+      <c r="N33" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N33" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O33" s="6" t="n">
+      <c r="O33" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P33" s="6" t="n">
         <v>45613</v>
       </c>
-      <c r="P33" s="6" t="n">
+      <c r="Q33" s="6" t="n">
         <v>45644</v>
       </c>
-      <c r="Q33" s="5" t="inlineStr">
+      <c r="R33" s="5" t="inlineStr">
         <is>
           <t>PB-BAC1-Construction 2024-001</t>
         </is>
       </c>
-      <c r="R33" s="5" t="n">
+      <c r="S33" s="5" t="n">
         <v>4919317</v>
       </c>
-      <c r="S33" s="6" t="n">
+      <c r="T33" s="6" t="n">
         <v>45308</v>
       </c>
-      <c r="T33" s="6" t="n">
+      <c r="U33" s="6" t="n">
         <v>45315</v>
       </c>
-      <c r="U33" s="6" t="n">
+      <c r="V33" s="6" t="n">
         <v>45327</v>
       </c>
-      <c r="V33" s="6" t="n">
+      <c r="W33" s="6" t="n">
         <v>45343</v>
       </c>
-      <c r="W33" s="6" t="n">
+      <c r="X33" s="6" t="n">
         <v>45456</v>
       </c>
-      <c r="X33" s="5" t="inlineStr">
+      <c r="Y33" s="5" t="inlineStr">
         <is>
           <t>CLC Construction Services &amp; Supply</t>
         </is>
       </c>
-      <c r="Y33" s="5" t="inlineStr">
+      <c r="Z33" s="5" t="inlineStr">
         <is>
           <t>Completed (Including Variation Order)</t>
         </is>
       </c>
-      <c r="Z33" s="7" t="n"/>
+      <c r="AA33" s="7" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="5" t="inlineStr">
+      <c r="A34" s="5" t="n">
+        <v>524</v>
+      </c>
+      <c r="B34" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B34" s="5" t="inlineStr">
+      <c r="C34" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C34" s="5" t="inlineStr">
+      <c r="D34" s="5" t="inlineStr">
         <is>
           <t>Misamis Oriental</t>
         </is>
       </c>
-      <c r="D34" s="5" t="n">
+      <c r="E34" s="5" t="n">
         <v>201503</v>
       </c>
-      <c r="E34" s="5" t="inlineStr">
+      <c r="F34" s="5" t="inlineStr">
         <is>
           <t>Lonsi ES</t>
         </is>
       </c>
-      <c r="F34" s="5" t="inlineStr">
+      <c r="G34" s="5" t="inlineStr">
         <is>
           <t>ALUBIJID</t>
         </is>
       </c>
-      <c r="G34" s="5" t="inlineStr">
+      <c r="H34" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">2nd </t>
         </is>
       </c>
-      <c r="H34" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I34" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J34" s="5" t="inlineStr">
+      <c r="K34" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF   RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K34" s="5" t="n">
+      <c r="L34" s="5" t="n">
         <v>16902227.11</v>
       </c>
-      <c r="L34" s="5" t="n">
+      <c r="M34" s="5" t="n">
         <v>13216388.97</v>
       </c>
-      <c r="M34" s="5" t="inlineStr">
+      <c r="N34" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N34" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O34" s="6" t="n">
+      <c r="O34" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P34" s="6" t="n">
         <v>45613</v>
       </c>
-      <c r="P34" s="6" t="n">
+      <c r="Q34" s="6" t="n">
         <v>45736</v>
       </c>
-      <c r="Q34" s="5" t="inlineStr">
+      <c r="R34" s="5" t="inlineStr">
         <is>
           <t>PB-BAC1-Construction 2024-002</t>
         </is>
       </c>
-      <c r="R34" s="5" t="n">
+      <c r="S34" s="5" t="n">
         <v>4919350</v>
       </c>
-      <c r="S34" s="6" t="n">
+      <c r="T34" s="6" t="n">
         <v>45308</v>
       </c>
-      <c r="T34" s="6" t="n">
+      <c r="U34" s="6" t="n">
         <v>45315</v>
       </c>
-      <c r="U34" s="6" t="n">
+      <c r="V34" s="6" t="n">
         <v>45327</v>
       </c>
-      <c r="V34" s="6" t="n">
+      <c r="W34" s="6" t="n">
         <v>45343</v>
       </c>
-      <c r="W34" s="6" t="n">
+      <c r="X34" s="6" t="n">
         <v>45456</v>
       </c>
-      <c r="X34" s="5" t="inlineStr">
+      <c r="Y34" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Trench </t>
         </is>
       </c>
-      <c r="Y34" s="5" t="inlineStr">
+      <c r="Z34" s="5" t="inlineStr">
         <is>
           <t>Completed (Including Variation Order )</t>
         </is>
       </c>
-      <c r="Z34" s="7" t="n"/>
+      <c r="AA34" s="7" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="5" t="inlineStr">
+      <c r="A35" s="5" t="n">
+        <v>525</v>
+      </c>
+      <c r="B35" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B35" s="5" t="inlineStr">
+      <c r="C35" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C35" s="5" t="inlineStr">
+      <c r="D35" s="5" t="inlineStr">
         <is>
           <t>Oroquieta City</t>
         </is>
       </c>
-      <c r="D35" s="5" t="n">
+      <c r="E35" s="5" t="n">
         <v>238501</v>
       </c>
-      <c r="E35" s="5" t="inlineStr">
+      <c r="F35" s="5" t="inlineStr">
         <is>
           <t>Kanowanan Tribal ES</t>
         </is>
       </c>
-      <c r="F35" s="5" t="inlineStr">
+      <c r="G35" s="5" t="inlineStr">
         <is>
           <t>OROQUIETA CITY (Capital)</t>
         </is>
       </c>
-      <c r="G35" s="5" t="inlineStr">
+      <c r="H35" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">1st </t>
         </is>
       </c>
-      <c r="H35" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I35" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J35" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J35" s="5" t="inlineStr">
+      <c r="K35" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">CONSTRUCTION OF 1STY2CL SCHOOL BUILDING (WITH TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM  AND FLOOD MARKER </t>
         </is>
       </c>
-      <c r="K35" s="5" t="n">
+      <c r="L35" s="5" t="n">
         <v>15701425.95</v>
       </c>
-      <c r="L35" s="5" t="n">
+      <c r="M35" s="5" t="n">
         <v>13445916.11</v>
       </c>
-      <c r="M35" s="5" t="inlineStr">
+      <c r="N35" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N35" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O35" s="6" t="n">
+      <c r="O35" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P35" s="6" t="n">
         <v>45575</v>
       </c>
-      <c r="P35" s="6" t="n">
+      <c r="Q35" s="6" t="n">
         <v>45635</v>
       </c>
-      <c r="Q35" s="5" t="inlineStr"/>
       <c r="R35" s="5" t="inlineStr"/>
-      <c r="S35" s="6" t="n">
+      <c r="S35" s="5" t="inlineStr"/>
+      <c r="T35" s="6" t="n">
         <v>45619</v>
       </c>
-      <c r="T35" s="6" t="n">
+      <c r="U35" s="6" t="n">
         <v>45626</v>
       </c>
-      <c r="U35" s="6" t="n">
+      <c r="V35" s="6" t="n">
         <v>45274</v>
       </c>
-      <c r="V35" s="6" t="n">
+      <c r="W35" s="6" t="n">
         <v>45415</v>
       </c>
-      <c r="W35" s="6" t="n">
+      <c r="X35" s="6" t="n">
         <v>45422</v>
       </c>
-      <c r="X35" s="5" t="inlineStr">
+      <c r="Y35" s="5" t="inlineStr">
         <is>
           <t>RSMA BUILDERS &amp; GEN. MDSE</t>
         </is>
       </c>
-      <c r="Y35" s="5" t="inlineStr">
+      <c r="Z35" s="5" t="inlineStr">
         <is>
           <t>Processing for Occupancy Permit.</t>
         </is>
       </c>
-      <c r="Z35" s="7" t="n"/>
+      <c r="AA35" s="7" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="5" t="inlineStr">
+      <c r="A36" s="5" t="n">
+        <v>526</v>
+      </c>
+      <c r="B36" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B36" s="5" t="inlineStr">
+      <c r="C36" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C36" s="5" t="inlineStr">
+      <c r="D36" s="5" t="inlineStr">
         <is>
           <t>Ozamis City</t>
         </is>
       </c>
-      <c r="D36" s="5" t="n">
+      <c r="E36" s="5" t="n">
         <v>128188</v>
       </c>
-      <c r="E36" s="5" t="inlineStr">
+      <c r="F36" s="5" t="inlineStr">
         <is>
           <t>Pershing Tan Queto Sr. ES</t>
         </is>
       </c>
-      <c r="F36" s="5" t="inlineStr">
+      <c r="G36" s="5" t="inlineStr">
         <is>
           <t>OZAMIS CITY</t>
         </is>
       </c>
-      <c r="G36" s="5" t="inlineStr">
+      <c r="H36" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">2nd </t>
         </is>
       </c>
-      <c r="H36" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I36" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J36" s="5" t="inlineStr">
+      <c r="K36" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - THREE (3) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE AND SOLAR PV ENERGY SYSTEM</t>
         </is>
       </c>
-      <c r="K36" s="5" t="n">
+      <c r="L36" s="5" t="n">
         <v>18361158.83</v>
       </c>
-      <c r="L36" s="5" t="n">
+      <c r="M36" s="5" t="n">
         <v>18151162.88</v>
       </c>
-      <c r="M36" s="5" t="inlineStr">
+      <c r="N36" s="5" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="N36" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O36" s="6" t="n">
+      <c r="O36" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P36" s="6" t="n">
         <v>45625</v>
       </c>
-      <c r="P36" s="6" t="n">
+      <c r="Q36" s="6" t="n">
         <v>45655</v>
       </c>
-      <c r="Q36" s="5" t="inlineStr">
+      <c r="R36" s="5" t="inlineStr">
         <is>
           <t>092-CIVIL 2023-003 (EPA)</t>
         </is>
       </c>
-      <c r="R36" s="5" t="inlineStr">
+      <c r="S36" s="5" t="inlineStr">
         <is>
           <t>092-CIVIL 2023-003 (EPA)</t>
         </is>
       </c>
-      <c r="S36" s="6" t="n">
+      <c r="T36" s="6" t="n">
         <v>45252</v>
       </c>
-      <c r="T36" s="6" t="n">
+      <c r="U36" s="6" t="n">
         <v>45259</v>
       </c>
-      <c r="U36" s="6" t="n">
+      <c r="V36" s="6" t="n">
         <v>45275</v>
       </c>
-      <c r="V36" s="6" t="n">
+      <c r="W36" s="6" t="n">
         <v>45293</v>
       </c>
-      <c r="W36" s="6" t="n">
+      <c r="X36" s="6" t="n">
         <v>45470</v>
       </c>
-      <c r="X36" s="5" t="inlineStr">
+      <c r="Y36" s="5" t="inlineStr">
         <is>
           <t>Mitz and Nick Builders</t>
         </is>
       </c>
-      <c r="Y36" s="5" t="inlineStr">
+      <c r="Z36" s="5" t="inlineStr">
         <is>
           <t>with time extension</t>
         </is>
       </c>
-      <c r="Z36" s="7" t="n"/>
+      <c r="AA36" s="7" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="5" t="inlineStr">
+      <c r="A37" s="5" t="n">
+        <v>527</v>
+      </c>
+      <c r="B37" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B37" s="5" t="inlineStr">
+      <c r="C37" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C37" s="5" t="inlineStr">
+      <c r="D37" s="5" t="inlineStr">
         <is>
           <t>Tangub City</t>
         </is>
       </c>
-      <c r="D37" s="5" t="n">
+      <c r="E37" s="5" t="n">
         <v>128223</v>
       </c>
-      <c r="E37" s="5" t="inlineStr">
+      <c r="F37" s="5" t="inlineStr">
         <is>
           <t>Capalaran West ES</t>
         </is>
       </c>
-      <c r="F37" s="5" t="inlineStr">
+      <c r="G37" s="5" t="inlineStr">
         <is>
           <t>TANGUB CITY</t>
         </is>
       </c>
-      <c r="G37" s="5" t="inlineStr">
+      <c r="H37" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">2nd </t>
         </is>
       </c>
-      <c r="H37" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I37" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J37" s="5" t="inlineStr">
+      <c r="K37" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE AND SOLAR PV ENERGY SYSTEM</t>
         </is>
       </c>
-      <c r="K37" s="5" t="n">
+      <c r="L37" s="5" t="n">
         <v>19993368.26</v>
       </c>
-      <c r="L37" s="5" t="n">
+      <c r="M37" s="5" t="n">
         <v>19397245.16</v>
       </c>
-      <c r="M37" s="5" t="inlineStr">
+      <c r="N37" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N37" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O37" s="6" t="n">
+      <c r="O37" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P37" s="6" t="n">
         <v>45652</v>
       </c>
-      <c r="P37" s="6" t="n">
+      <c r="Q37" s="6" t="n">
         <v>45691</v>
       </c>
-      <c r="Q37" s="5" t="inlineStr">
+      <c r="R37" s="5" t="inlineStr">
         <is>
           <t>LMS 2023-Region X-Tangub 001</t>
         </is>
       </c>
-      <c r="R37" s="5" t="inlineStr"/>
-      <c r="S37" s="6" t="n">
+      <c r="S37" s="5" t="inlineStr"/>
+      <c r="T37" s="6" t="n">
         <v>45619</v>
       </c>
-      <c r="T37" s="6" t="n">
+      <c r="U37" s="6" t="n">
         <v>45626</v>
       </c>
-      <c r="U37" s="6" t="n">
+      <c r="V37" s="6" t="n">
         <v>45272</v>
       </c>
-      <c r="V37" s="6" t="n">
+      <c r="W37" s="6" t="n">
         <v>45280</v>
       </c>
-      <c r="W37" s="6" t="n">
+      <c r="X37" s="6" t="n">
         <v>45477</v>
       </c>
-      <c r="X37" s="5" t="inlineStr">
+      <c r="Y37" s="5" t="inlineStr">
         <is>
           <t>RIC Construction</t>
         </is>
       </c>
-      <c r="Y37" s="5" t="inlineStr">
+      <c r="Z37" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="Z37" s="7" t="n"/>
+      <c r="AA37" s="7" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="5" t="inlineStr">
+      <c r="A38" s="5" t="n">
+        <v>528</v>
+      </c>
+      <c r="B38" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B38" s="5" t="inlineStr">
+      <c r="C38" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C38" s="5" t="inlineStr">
+      <c r="D38" s="5" t="inlineStr">
         <is>
           <t>Valencia City</t>
         </is>
       </c>
-      <c r="D38" s="5" t="n">
+      <c r="E38" s="5" t="n">
         <v>137043</v>
       </c>
-      <c r="E38" s="5" t="inlineStr">
+      <c r="F38" s="5" t="inlineStr">
         <is>
           <t>MAKAILAW ELEMENTARY SCHOOL</t>
         </is>
       </c>
-      <c r="F38" s="5" t="inlineStr">
+      <c r="G38" s="5" t="inlineStr">
         <is>
           <t>VALENCIA CITY</t>
         </is>
       </c>
-      <c r="G38" s="5" t="inlineStr">
+      <c r="H38" s="5" t="inlineStr">
         <is>
           <t>4th</t>
         </is>
       </c>
-      <c r="H38" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I38" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J38" s="5" t="inlineStr">
+      <c r="K38" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF 2 UNITS 1ST-2CL SCHOOL BUILDING (WITH TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K38" s="5" t="n">
+      <c r="L38" s="5" t="n">
         <v>18656357.05</v>
       </c>
-      <c r="L38" s="5" t="n">
+      <c r="M38" s="5" t="n">
         <v>14580621.09</v>
       </c>
-      <c r="M38" s="5" t="inlineStr">
+      <c r="N38" s="5" t="inlineStr">
         <is>
           <t>terminated</t>
         </is>
       </c>
-      <c r="N38" s="5" t="n">
+      <c r="O38" s="5" t="n">
         <v>0.24</v>
       </c>
-      <c r="O38" s="6" t="n">
+      <c r="P38" s="6" t="n">
         <v>45940</v>
       </c>
-      <c r="P38" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q38" s="5" t="n">
+      <c r="Q38" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="R38" s="5" t="n">
         <v>45352</v>
       </c>
-      <c r="R38" s="5" t="inlineStr">
+      <c r="S38" s="5" t="inlineStr">
         <is>
           <t>009 s. 2024</t>
         </is>
       </c>
-      <c r="S38" s="6" t="n">
+      <c r="T38" s="6" t="n">
         <v>45446</v>
       </c>
-      <c r="T38" s="6" t="n">
+      <c r="U38" s="6" t="n">
         <v>45324</v>
       </c>
-      <c r="U38" s="6" t="n">
+      <c r="V38" s="6" t="n">
         <v>45338</v>
       </c>
-      <c r="V38" s="6" t="n">
+      <c r="W38" s="6" t="n">
         <v>45362</v>
       </c>
-      <c r="W38" s="6" t="n">
+      <c r="X38" s="6" t="n">
         <v>45439</v>
       </c>
-      <c r="X38" s="5" t="inlineStr">
+      <c r="Y38" s="5" t="inlineStr">
         <is>
           <t>ALRAF CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Y38" s="5" t="inlineStr">
+      <c r="Z38" s="5" t="inlineStr">
         <is>
           <t>Contract Terminated/rescinded</t>
         </is>
       </c>
-      <c r="Z38" s="7" t="n"/>
+      <c r="AA38" s="7" t="n"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="Z2:Z38" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="AA2:AA38" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=DropdownOptions!$A$1:$A$7</formula1>
     </dataValidation>
   </dataValidations>
